--- a/code/数据库设计/武将设计.xlsx
+++ b/code/数据库设计/武将设计.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8564D322-DB6C-4E23-86A1-AF4D15DAF08D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F97313-A788-4011-A8FF-4079288272D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
   <si>
     <t>武将ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,23 +102,634 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>刘焉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖茂</t>
+  </si>
+  <si>
+    <t>邹靖</t>
+  </si>
+  <si>
+    <t>邹丹</t>
+  </si>
+  <si>
+    <t>朱治</t>
+  </si>
+  <si>
+    <t>朱儁</t>
+  </si>
+  <si>
+    <t>周昕</t>
+  </si>
+  <si>
+    <t>周仓</t>
+  </si>
+  <si>
+    <t>钟鳐</t>
+  </si>
+  <si>
+    <t>赵云</t>
+  </si>
+  <si>
+    <t>赵弘</t>
+  </si>
+  <si>
+    <t>赵范</t>
+  </si>
+  <si>
+    <t>张昭</t>
+  </si>
+  <si>
+    <t>张允</t>
+  </si>
+  <si>
+    <t>张英</t>
+  </si>
+  <si>
+    <t>张扬</t>
+  </si>
+  <si>
+    <t>张燕</t>
+  </si>
+  <si>
+    <t>张繍</t>
+  </si>
+  <si>
+    <t>张任</t>
+  </si>
+  <si>
+    <t>张邈</t>
+  </si>
+  <si>
+    <t>张鲁</t>
+  </si>
+  <si>
+    <t>张辽</t>
+  </si>
+  <si>
+    <t>张梁</t>
+  </si>
+  <si>
+    <t>张角</t>
+  </si>
+  <si>
+    <t>张济</t>
+  </si>
+  <si>
+    <t>张紘</t>
+  </si>
+  <si>
+    <t>张飞</t>
+  </si>
+  <si>
+    <t>张动</t>
+  </si>
+  <si>
+    <t>张宝</t>
+  </si>
+  <si>
+    <t>笮融</t>
+  </si>
+  <si>
+    <t>臧霸</t>
+  </si>
+  <si>
+    <t>袁胤</t>
+  </si>
+  <si>
+    <t>袁遗</t>
+  </si>
+  <si>
+    <t>袁术</t>
+  </si>
+  <si>
+    <t>袁绍</t>
+  </si>
+  <si>
+    <t>虞翻</t>
+  </si>
+  <si>
+    <t>俞涉</t>
+  </si>
+  <si>
+    <t>于禁</t>
+  </si>
+  <si>
+    <t>伊籍</t>
+  </si>
+  <si>
+    <t>杨怀</t>
+  </si>
+  <si>
+    <t>杨弘</t>
+  </si>
+  <si>
+    <t>杨奉</t>
+  </si>
+  <si>
+    <t>杨丑</t>
+  </si>
+  <si>
+    <t>颜良</t>
+  </si>
+  <si>
+    <t>阎象</t>
+  </si>
+  <si>
+    <t>阎柔</t>
+  </si>
+  <si>
+    <t>阎圃</t>
+  </si>
+  <si>
+    <t>严政</t>
+  </si>
+  <si>
+    <t>严颜</t>
+  </si>
+  <si>
+    <t>严兴</t>
+  </si>
+  <si>
+    <t>严纲</t>
+  </si>
+  <si>
+    <t>严白虎</t>
+  </si>
+  <si>
+    <t>荀攸</t>
+  </si>
+  <si>
+    <t>荀或</t>
+  </si>
+  <si>
+    <t>许攸</t>
+  </si>
+  <si>
+    <t>许靖</t>
+  </si>
+  <si>
+    <t>许贡</t>
+  </si>
+  <si>
+    <t>徐荣</t>
+  </si>
+  <si>
+    <t>徐晃</t>
+  </si>
+  <si>
+    <t>盱固</t>
+  </si>
+  <si>
+    <t>辛毗</t>
+  </si>
+  <si>
+    <t>向朗</t>
+  </si>
+  <si>
+    <t>夏侯渊</t>
+  </si>
+  <si>
+    <t>夏侯敦</t>
+  </si>
+  <si>
+    <t>戏志才</t>
+  </si>
+  <si>
+    <t>武安国</t>
+  </si>
+  <si>
+    <t>吴懿</t>
+  </si>
+  <si>
+    <t>吴巨</t>
+  </si>
+  <si>
+    <t>文丑</t>
+  </si>
+  <si>
+    <t>魏攸</t>
+  </si>
+  <si>
+    <t>魏続</t>
+  </si>
+  <si>
+    <t>王忠</t>
+  </si>
+  <si>
+    <t>王允</t>
+  </si>
+  <si>
+    <t>王修</t>
+  </si>
+  <si>
+    <t>王威</t>
+  </si>
+  <si>
+    <t>王門</t>
+  </si>
+  <si>
+    <t>王朗</t>
+  </si>
+  <si>
+    <t>王匡</t>
+  </si>
+  <si>
+    <t>田楷</t>
+  </si>
+  <si>
+    <t>田丰</t>
+  </si>
+  <si>
+    <t>田畴</t>
+  </si>
+  <si>
+    <t>太史慈</t>
+  </si>
+  <si>
+    <t>孙仲</t>
+  </si>
+  <si>
+    <t>孙乾</t>
+  </si>
+  <si>
+    <t>孙静</t>
+  </si>
+  <si>
+    <t>苏由</t>
+  </si>
+  <si>
+    <t>宋憲</t>
+  </si>
+  <si>
+    <t>审配</t>
+  </si>
+  <si>
+    <t>沙摩柯</t>
+  </si>
+  <si>
+    <t>麹义</t>
+  </si>
+  <si>
+    <t>桥瑁</t>
+  </si>
+  <si>
+    <t>裴元绍</t>
+  </si>
+  <si>
+    <t>庞羲</t>
+  </si>
+  <si>
+    <t>潘凤</t>
+  </si>
+  <si>
+    <t>牛辅</t>
+  </si>
+  <si>
+    <t>穆顺</t>
+  </si>
+  <si>
+    <t>糜竺</t>
+  </si>
+  <si>
+    <t>糜芳</t>
+  </si>
+  <si>
+    <t>毛阶</t>
+  </si>
+  <si>
+    <t>吕翔</t>
+  </si>
+  <si>
+    <t>吕威璜</t>
+  </si>
+  <si>
+    <t>吕旷</t>
+  </si>
+  <si>
+    <t>吕范</t>
+  </si>
+  <si>
+    <t>吕岱</t>
+  </si>
+  <si>
+    <t>吕布</t>
+  </si>
+  <si>
+    <t>卢植</t>
+  </si>
+  <si>
+    <t>刘璋</t>
+  </si>
+  <si>
     <t>刘虞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>士燮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘宏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘鳐</t>
+  </si>
+  <si>
+    <t>刘辟</t>
+  </si>
+  <si>
+    <t>刘馈</t>
+  </si>
+  <si>
+    <t>刘度</t>
+  </si>
+  <si>
+    <t>刘动</t>
+  </si>
+  <si>
+    <t>刘岱</t>
+  </si>
+  <si>
+    <t>刘表</t>
+  </si>
+  <si>
+    <t>凌操</t>
+  </si>
+  <si>
+    <t>梁兴</t>
+  </si>
+  <si>
+    <t>李通</t>
+  </si>
+  <si>
+    <t>李肃</t>
+  </si>
+  <si>
+    <t>李儒</t>
+  </si>
+  <si>
+    <t>李摧</t>
+  </si>
+  <si>
+    <t>雷薄</t>
+  </si>
+  <si>
+    <t>乐就</t>
+  </si>
+  <si>
+    <t>乐进</t>
+  </si>
+  <si>
+    <t>蒯越</t>
+  </si>
+  <si>
+    <t>蒯良</t>
+  </si>
+  <si>
+    <t>孔柚</t>
+  </si>
+  <si>
+    <t>孔融</t>
+  </si>
+  <si>
+    <t>沮授</t>
+  </si>
+  <si>
+    <t>金旋</t>
+  </si>
+  <si>
+    <t>蒋义渠</t>
+  </si>
+  <si>
+    <t>蒋钦</t>
+  </si>
+  <si>
+    <t>简雍</t>
+  </si>
+  <si>
+    <t>贾诩</t>
+  </si>
+  <si>
+    <t>纪灵</t>
+  </si>
+  <si>
+    <t>黄祖</t>
+  </si>
+  <si>
+    <t>黄忠</t>
+  </si>
+  <si>
+    <t>黄权</t>
+  </si>
+  <si>
+    <t>黄盖</t>
+  </si>
+  <si>
+    <t>皇甫嵩</t>
+  </si>
+  <si>
+    <t>华雄</t>
+  </si>
+  <si>
+    <t>华歆</t>
+  </si>
+  <si>
+    <t>胡轸</t>
+  </si>
+  <si>
+    <t>侯成</t>
+  </si>
+  <si>
+    <t>何仪</t>
+  </si>
+  <si>
+    <t>韩忠</t>
+  </si>
+  <si>
+    <t>韩胤</t>
+  </si>
+  <si>
+    <t>韩玄</t>
+  </si>
+  <si>
+    <t>韩暹</t>
+  </si>
+  <si>
+    <t>韩遂</t>
+  </si>
+  <si>
+    <t>韩嵩</t>
+  </si>
+  <si>
+    <t>韩浩</t>
+  </si>
+  <si>
+    <t>韩馥</t>
+  </si>
+  <si>
+    <t>韩当</t>
+  </si>
+  <si>
+    <t>郭图</t>
+  </si>
+  <si>
+    <t>郭汜</t>
+  </si>
+  <si>
+    <t>管亥</t>
+  </si>
+  <si>
+    <t>关羽</t>
+  </si>
+  <si>
+    <t>关靖</t>
+  </si>
+  <si>
+    <t>龚都</t>
+  </si>
+  <si>
+    <t>公孙越</t>
+  </si>
+  <si>
+    <t>公孙范</t>
+  </si>
+  <si>
+    <t>公孙度</t>
+  </si>
+  <si>
+    <t>高顺</t>
+  </si>
+  <si>
+    <t>高升</t>
+  </si>
+  <si>
+    <t>高览</t>
+  </si>
+  <si>
+    <t>高干</t>
+  </si>
+  <si>
+    <t>甘宁</t>
+  </si>
+  <si>
+    <t>傅巽</t>
+  </si>
+  <si>
+    <t>逢纪</t>
+  </si>
+  <si>
+    <t>方悦</t>
+  </si>
+  <si>
+    <t>樊稠</t>
+  </si>
+  <si>
+    <t>董昭</t>
+  </si>
+  <si>
+    <t>董袭</t>
+  </si>
+  <si>
+    <t>董旻</t>
+  </si>
+  <si>
+    <t>董和</t>
+  </si>
+  <si>
+    <t>董承</t>
+  </si>
+  <si>
+    <t>丁原</t>
+  </si>
+  <si>
+    <t>典韦</t>
+  </si>
+  <si>
+    <t>邓茂</t>
+  </si>
+  <si>
+    <t>单经</t>
+  </si>
+  <si>
+    <t>崔琰</t>
+  </si>
+  <si>
+    <t>淳于琼</t>
+  </si>
+  <si>
+    <t>程远志</t>
+  </si>
+  <si>
+    <t>程昱</t>
+  </si>
+  <si>
+    <t>程银</t>
+  </si>
+  <si>
+    <t>程普</t>
+  </si>
+  <si>
+    <t>成宜</t>
+  </si>
+  <si>
+    <t>陈群</t>
+  </si>
+  <si>
+    <t>陈琳</t>
+  </si>
+  <si>
+    <t>陈兰</t>
+  </si>
+  <si>
+    <t>陈纪</t>
+  </si>
+  <si>
+    <t>陈横</t>
+  </si>
+  <si>
+    <t>陈珪</t>
+  </si>
+  <si>
+    <t>陈宫</t>
+  </si>
+  <si>
+    <t>陈登</t>
+  </si>
+  <si>
+    <t>车胄</t>
+  </si>
+  <si>
+    <t>曹性</t>
+  </si>
+  <si>
+    <t>曹仁</t>
+  </si>
+  <si>
+    <t>曹洪</t>
+  </si>
+  <si>
+    <t>曹豹</t>
+  </si>
+  <si>
+    <t>蔡中</t>
+  </si>
+  <si>
+    <t>蔡瑁</t>
+  </si>
+  <si>
+    <t>蔡和</t>
+  </si>
+  <si>
+    <t>卞喜</t>
+  </si>
+  <si>
+    <t>鲍信</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +744,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -142,7 +764,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -150,12 +772,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -436,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -491,114 +1136,4953 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
+      <c r="C2" s="2">
+        <v>155</v>
+      </c>
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E2" s="2">
+        <v>99</v>
+      </c>
+      <c r="F2" s="2">
+        <v>72</v>
+      </c>
+      <c r="G2" s="2">
+        <v>96</v>
+      </c>
+      <c r="H2" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
+      <c r="C3" s="2">
+        <v>161</v>
+      </c>
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E3" s="2">
+        <v>75</v>
+      </c>
+      <c r="F3" s="2">
+        <v>74</v>
+      </c>
+      <c r="G3" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
+      <c r="C4" s="2">
+        <v>155</v>
+      </c>
       <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E4" s="2">
+        <v>96</v>
+      </c>
+      <c r="F4" s="2">
+        <v>91</v>
+      </c>
+      <c r="G4" s="2">
+        <v>78</v>
+      </c>
+      <c r="H4" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="C5" s="2">
+        <v>135</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E5" s="2">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2">
+        <v>30</v>
+      </c>
+      <c r="G5" s="2">
+        <v>54</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
+      <c r="C6" s="2">
+        <v>139</v>
+      </c>
       <c r="D6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E6" s="2">
+        <v>69</v>
+      </c>
+      <c r="F6" s="2">
+        <v>83</v>
+      </c>
+      <c r="G6" s="2">
+        <v>19</v>
+      </c>
+      <c r="H6" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
+      <c r="C7" s="2">
+        <v>156</v>
+      </c>
       <c r="D7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E7" s="2">
+        <v>81</v>
+      </c>
+      <c r="F7" s="2">
+        <v>80</v>
+      </c>
+      <c r="G7" s="2">
+        <v>65</v>
+      </c>
+      <c r="H7" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
+      <c r="C8" s="2">
+        <v>153</v>
+      </c>
       <c r="D8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E8" s="2">
+        <v>82</v>
+      </c>
+      <c r="F8" s="2">
+        <v>85</v>
+      </c>
+      <c r="G8" s="2">
+        <v>41</v>
+      </c>
+      <c r="H8" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
+      <c r="C9" s="2">
+        <v>132</v>
+      </c>
       <c r="D9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E9" s="2">
+        <v>47</v>
+      </c>
+      <c r="F9" s="2">
+        <v>37</v>
+      </c>
+      <c r="G9" s="2">
+        <v>57</v>
+      </c>
+      <c r="H9" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
+      <c r="C10" s="2">
+        <v>132</v>
+      </c>
       <c r="D10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E10" s="2">
+        <v>51</v>
+      </c>
+      <c r="F10" s="2">
+        <v>36</v>
+      </c>
+      <c r="G10" s="2">
+        <v>81</v>
+      </c>
+      <c r="H10" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" s="3">
+        <v>152</v>
+      </c>
+      <c r="E11" s="3">
+        <v>72</v>
+      </c>
+      <c r="F11" s="3">
+        <v>64</v>
+      </c>
+      <c r="G11" s="3">
+        <v>73</v>
+      </c>
+      <c r="H11" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="3">
+        <v>169</v>
+      </c>
+      <c r="E12" s="3">
+        <v>57</v>
+      </c>
+      <c r="F12" s="3">
+        <v>68</v>
+      </c>
+      <c r="G12" s="3">
+        <v>45</v>
+      </c>
+      <c r="H12" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="2">
+        <v>166</v>
+      </c>
+      <c r="E13" s="2">
+        <v>43</v>
+      </c>
+      <c r="F13" s="2">
+        <v>50</v>
+      </c>
+      <c r="G13" s="2">
+        <v>34</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="2">
+        <v>155</v>
+      </c>
+      <c r="E14" s="2">
+        <v>75</v>
+      </c>
+      <c r="F14" s="2">
+        <v>67</v>
+      </c>
+      <c r="G14" s="2">
+        <v>77</v>
+      </c>
+      <c r="H14" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" s="3">
+        <v>168</v>
+      </c>
+      <c r="E15" s="3">
+        <v>45</v>
+      </c>
+      <c r="F15" s="3">
+        <v>53</v>
+      </c>
+      <c r="G15" s="3">
+        <v>24</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C16" s="2">
+        <v>151</v>
+      </c>
+      <c r="E16" s="2">
+        <v>61</v>
+      </c>
+      <c r="F16" s="2">
+        <v>73</v>
+      </c>
+      <c r="G16" s="2">
+        <v>28</v>
+      </c>
+      <c r="H16" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" s="2">
+        <v>169</v>
+      </c>
+      <c r="E17" s="2">
+        <v>80</v>
+      </c>
+      <c r="F17" s="2">
+        <v>81</v>
+      </c>
+      <c r="G17" s="2">
+        <v>24</v>
+      </c>
+      <c r="H17" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="3">
+        <v>168</v>
+      </c>
+      <c r="E18" s="3">
+        <v>86</v>
+      </c>
+      <c r="F18" s="3">
+        <v>88</v>
+      </c>
+      <c r="G18" s="3">
+        <v>49</v>
+      </c>
+      <c r="H18" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C19" s="2">
+        <v>163</v>
+      </c>
+      <c r="E19" s="2">
+        <v>58</v>
+      </c>
+      <c r="F19" s="2">
+        <v>71</v>
+      </c>
+      <c r="G19" s="2">
+        <v>29</v>
+      </c>
+      <c r="H19" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" s="2">
+        <v>164</v>
+      </c>
+      <c r="E20" s="2">
+        <v>47</v>
+      </c>
+      <c r="F20" s="2">
+        <v>51</v>
+      </c>
+      <c r="G20" s="2">
+        <v>57</v>
+      </c>
+      <c r="H20" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="D11">
+      <c r="B21" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="2">
+        <v>169</v>
+      </c>
+      <c r="E21" s="2">
+        <v>79</v>
+      </c>
+      <c r="F21" s="2">
+        <v>65</v>
+      </c>
+      <c r="G21" s="2">
+        <v>81</v>
+      </c>
+      <c r="H21" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="2">
+        <v>154</v>
+      </c>
+      <c r="E22" s="2">
+        <v>72</v>
+      </c>
+      <c r="F22" s="2">
+        <v>52</v>
+      </c>
+      <c r="G22" s="2">
+        <v>81</v>
+      </c>
+      <c r="H22" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="2">
+        <v>132</v>
+      </c>
+      <c r="E23" s="2">
+        <v>21</v>
+      </c>
+      <c r="F23" s="2">
+        <v>5</v>
+      </c>
+      <c r="G23" s="2">
+        <v>80</v>
+      </c>
+      <c r="H23" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C24" s="2">
+        <v>161</v>
+      </c>
+      <c r="E24" s="2">
+        <v>69</v>
+      </c>
+      <c r="F24" s="2">
+        <v>66</v>
+      </c>
+      <c r="G24" s="2">
+        <v>31</v>
+      </c>
+      <c r="H24" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="2">
+        <v>165</v>
+      </c>
+      <c r="E25" s="2">
+        <v>64</v>
+      </c>
+      <c r="F25" s="2">
+        <v>68</v>
+      </c>
+      <c r="G25" s="2">
+        <v>50</v>
+      </c>
+      <c r="H25" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C26" s="2">
+        <v>157</v>
+      </c>
+      <c r="E26" s="2">
+        <v>67</v>
+      </c>
+      <c r="F26" s="2">
+        <v>72</v>
+      </c>
+      <c r="G26" s="2">
+        <v>17</v>
+      </c>
+      <c r="H26" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" s="2">
+        <v>160</v>
+      </c>
+      <c r="E27" s="2">
+        <v>9</v>
+      </c>
+      <c r="F27" s="2">
+        <v>9</v>
+      </c>
+      <c r="G27" s="2">
+        <v>80</v>
+      </c>
+      <c r="H27" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C28" s="2">
+        <v>167</v>
+      </c>
+      <c r="E28" s="2">
+        <v>21</v>
+      </c>
+      <c r="F28" s="2">
+        <v>7</v>
+      </c>
+      <c r="G28" s="2">
+        <v>95</v>
+      </c>
+      <c r="H28" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" s="2">
+        <v>168</v>
+      </c>
+      <c r="E29" s="2">
+        <v>74</v>
+      </c>
+      <c r="F29" s="2">
+        <v>70</v>
+      </c>
+      <c r="G29" s="2">
+        <v>56</v>
+      </c>
+      <c r="H29" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C30" s="2">
+        <v>151</v>
+      </c>
+      <c r="E30" s="2">
+        <v>83</v>
+      </c>
+      <c r="F30" s="2">
+        <v>84</v>
+      </c>
+      <c r="G30" s="2">
+        <v>76</v>
+      </c>
+      <c r="H30" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" s="2">
+        <v>169</v>
+      </c>
+      <c r="E31" s="2">
+        <v>73</v>
+      </c>
+      <c r="F31" s="2">
+        <v>71</v>
+      </c>
+      <c r="G31" s="2">
+        <v>36</v>
+      </c>
+      <c r="H31" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C32" s="2">
+        <v>141</v>
+      </c>
+      <c r="E32" s="2">
+        <v>70</v>
+      </c>
+      <c r="F32" s="2">
+        <v>55</v>
+      </c>
+      <c r="G32" s="2">
+        <v>76</v>
+      </c>
+      <c r="H32" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C33" s="2">
+        <v>145</v>
+      </c>
+      <c r="E33" s="2">
+        <v>74</v>
+      </c>
+      <c r="F33" s="2">
+        <v>76</v>
+      </c>
+      <c r="G33" s="2">
+        <v>34</v>
+      </c>
+      <c r="H33" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C34" s="2">
+        <v>146</v>
+      </c>
+      <c r="E34" s="2">
+        <v>70</v>
+      </c>
+      <c r="F34" s="2">
+        <v>68</v>
+      </c>
+      <c r="G34" s="2">
+        <v>27</v>
+      </c>
+      <c r="H34" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C35" s="2">
+        <v>163</v>
+      </c>
+      <c r="E35" s="2">
+        <v>23</v>
+      </c>
+      <c r="F35" s="2">
+        <v>59</v>
+      </c>
+      <c r="G35" s="2">
+        <v>87</v>
+      </c>
+      <c r="H35" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C36" s="2">
+        <v>156</v>
+      </c>
+      <c r="E36" s="2">
+        <v>70</v>
+      </c>
+      <c r="F36" s="2">
+        <v>72</v>
+      </c>
+      <c r="G36" s="2">
+        <v>63</v>
+      </c>
+      <c r="H36" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C37" s="2">
+        <v>147</v>
+      </c>
+      <c r="E37" s="2">
+        <v>68</v>
+      </c>
+      <c r="F37" s="2">
+        <v>75</v>
+      </c>
+      <c r="G37" s="2">
+        <v>19</v>
+      </c>
+      <c r="H37" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C38" s="2">
+        <v>160</v>
+      </c>
+      <c r="E38" s="2">
+        <v>68</v>
+      </c>
+      <c r="F38" s="2">
+        <v>93</v>
+      </c>
+      <c r="G38" s="2">
+        <v>29</v>
+      </c>
+      <c r="H38" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C39" s="2">
+        <v>137</v>
+      </c>
+      <c r="E39" s="2">
+        <v>71</v>
+      </c>
+      <c r="F39" s="2">
+        <v>74</v>
+      </c>
+      <c r="G39" s="2">
+        <v>46</v>
+      </c>
+      <c r="H39" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" s="2">
+        <v>154</v>
+      </c>
+      <c r="E40" s="2">
+        <v>50</v>
+      </c>
+      <c r="F40" s="2">
+        <v>55</v>
+      </c>
+      <c r="G40" s="2">
+        <v>69</v>
+      </c>
+      <c r="H40" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C41" s="2">
+        <v>168</v>
+      </c>
+      <c r="E41" s="2">
+        <v>65</v>
+      </c>
+      <c r="F41" s="2">
+        <v>41</v>
+      </c>
+      <c r="G41" s="2">
+        <v>82</v>
+      </c>
+      <c r="H41" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C42" s="2">
+        <v>149</v>
+      </c>
+      <c r="E42" s="2">
+        <v>52</v>
+      </c>
+      <c r="F42" s="2">
+        <v>60</v>
+      </c>
+      <c r="G42" s="2">
+        <v>11</v>
+      </c>
+      <c r="H42" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C43" s="2">
+        <v>169</v>
+      </c>
+      <c r="E43" s="2">
+        <v>74</v>
+      </c>
+      <c r="F43" s="2">
+        <v>81</v>
+      </c>
+      <c r="G43" s="2">
+        <v>39</v>
+      </c>
+      <c r="H43" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C44" s="2">
+        <v>156</v>
+      </c>
+      <c r="E44" s="2">
+        <v>29</v>
+      </c>
+      <c r="F44" s="2">
+        <v>21</v>
+      </c>
+      <c r="G44" s="2">
+        <v>87</v>
+      </c>
+      <c r="H44" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C45" s="2">
+        <v>153</v>
+      </c>
+      <c r="E45" s="2">
+        <v>68</v>
+      </c>
+      <c r="F45" s="2">
+        <v>73</v>
+      </c>
+      <c r="G45" s="2">
+        <v>27</v>
+      </c>
+      <c r="H45" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C46" s="2">
+        <v>153</v>
+      </c>
+      <c r="E46" s="2">
+        <v>68</v>
+      </c>
+      <c r="F46" s="2">
+        <v>74</v>
+      </c>
+      <c r="G46" s="2">
+        <v>52</v>
+      </c>
+      <c r="H46" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C47" s="2">
+        <v>153</v>
+      </c>
+      <c r="E47" s="2">
+        <v>16</v>
+      </c>
+      <c r="F47" s="2">
+        <v>19</v>
+      </c>
+      <c r="G47" s="2">
+        <v>69</v>
+      </c>
+      <c r="H47" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" s="2">
+        <v>162</v>
+      </c>
+      <c r="E48" s="2">
+        <v>16</v>
+      </c>
+      <c r="F48" s="2">
+        <v>13</v>
+      </c>
+      <c r="G48" s="2">
+        <v>71</v>
+      </c>
+      <c r="H48" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C49" s="2">
+        <v>163</v>
+      </c>
+      <c r="E49" s="2">
+        <v>87</v>
+      </c>
+      <c r="F49" s="2">
+        <v>94</v>
+      </c>
+      <c r="G49" s="2">
+        <v>13</v>
+      </c>
+      <c r="H49" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" s="2">
+        <v>168</v>
+      </c>
+      <c r="E50" s="2">
+        <v>71</v>
+      </c>
+      <c r="F50" s="2">
+        <v>65</v>
+      </c>
+      <c r="G50" s="2">
+        <v>58</v>
+      </c>
+      <c r="H50" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C51" s="2">
+        <v>159</v>
+      </c>
+      <c r="E51" s="2">
+        <v>73</v>
+      </c>
+      <c r="F51" s="2">
+        <v>78</v>
+      </c>
+      <c r="G51" s="2">
+        <v>54</v>
+      </c>
+      <c r="H51" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C52" s="2">
+        <v>145</v>
+      </c>
+      <c r="E52" s="2">
+        <v>68</v>
+      </c>
+      <c r="F52" s="2">
+        <v>72</v>
+      </c>
+      <c r="G52" s="2">
+        <v>22</v>
+      </c>
+      <c r="H52" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53" s="2">
+        <v>158</v>
+      </c>
+      <c r="E53" s="2">
+        <v>89</v>
+      </c>
+      <c r="F53" s="2">
+        <v>86</v>
+      </c>
+      <c r="G53" s="2">
+        <v>48</v>
+      </c>
+      <c r="H53" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C54" s="2">
+        <v>155</v>
+      </c>
+      <c r="E54" s="2">
+        <v>70</v>
+      </c>
+      <c r="F54" s="2">
+        <v>66</v>
+      </c>
+      <c r="G54" s="2">
+        <v>64</v>
+      </c>
+      <c r="H54" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C55" s="2">
+        <v>158</v>
+      </c>
+      <c r="E55" s="2">
+        <v>73</v>
+      </c>
+      <c r="F55" s="2">
+        <v>68</v>
+      </c>
+      <c r="G55" s="2">
+        <v>59</v>
+      </c>
+      <c r="H55" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C56" s="2">
+        <v>160</v>
+      </c>
+      <c r="E56" s="2">
+        <v>77</v>
+      </c>
+      <c r="F56" s="2">
+        <v>70</v>
+      </c>
+      <c r="G56" s="2">
+        <v>55</v>
+      </c>
+      <c r="H56" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" s="2">
+        <v>164</v>
+      </c>
+      <c r="E57" s="2">
+        <v>64</v>
+      </c>
+      <c r="F57" s="2">
+        <v>72</v>
+      </c>
+      <c r="G57" s="2">
+        <v>30</v>
+      </c>
+      <c r="H57" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C58" s="2">
+        <v>158</v>
+      </c>
+      <c r="E58" s="2">
+        <v>39</v>
+      </c>
+      <c r="F58" s="2">
+        <v>61</v>
+      </c>
+      <c r="G58" s="2">
+        <v>65</v>
+      </c>
+      <c r="H58" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C59" s="2">
+        <v>162</v>
+      </c>
+      <c r="E59" s="2">
+        <v>93</v>
+      </c>
+      <c r="F59" s="2">
+        <v>97</v>
+      </c>
+      <c r="G59" s="2">
+        <v>64</v>
+      </c>
+      <c r="H59" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" s="2">
+        <v>160</v>
+      </c>
+      <c r="E60" s="2">
+        <v>69</v>
+      </c>
+      <c r="F60" s="2">
+        <v>80</v>
+      </c>
+      <c r="G60" s="2">
         <v>10</v>
+      </c>
+      <c r="H60" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" s="2">
+        <v>146</v>
+      </c>
+      <c r="E61" s="2">
+        <v>63</v>
+      </c>
+      <c r="F61" s="2">
+        <v>74</v>
+      </c>
+      <c r="G61" s="2">
+        <v>19</v>
+      </c>
+      <c r="H61" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C62" s="2">
+        <v>155</v>
+      </c>
+      <c r="E62" s="2">
+        <v>41</v>
+      </c>
+      <c r="F62" s="2">
+        <v>45</v>
+      </c>
+      <c r="G62" s="2">
+        <v>72</v>
+      </c>
+      <c r="H62" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C63" s="2">
+        <v>156</v>
+      </c>
+      <c r="E63" s="2">
+        <v>78</v>
+      </c>
+      <c r="F63" s="2">
+        <v>86</v>
+      </c>
+      <c r="G63" s="2">
+        <v>56</v>
+      </c>
+      <c r="H63" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C64" s="2">
+        <v>149</v>
+      </c>
+      <c r="E64" s="2">
+        <v>20</v>
+      </c>
+      <c r="F64" s="2">
+        <v>5</v>
+      </c>
+      <c r="G64" s="2">
+        <v>63</v>
+      </c>
+      <c r="H64" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C65" s="2">
+        <v>164</v>
+      </c>
+      <c r="E65" s="2">
+        <v>62</v>
+      </c>
+      <c r="F65" s="2">
+        <v>71</v>
+      </c>
+      <c r="G65" s="2">
+        <v>88</v>
+      </c>
+      <c r="H65" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66" s="2">
+        <v>154</v>
+      </c>
+      <c r="E66" s="2">
+        <v>31</v>
+      </c>
+      <c r="F66" s="2">
+        <v>16</v>
+      </c>
+      <c r="G66" s="2">
+        <v>74</v>
+      </c>
+      <c r="H66" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C67" s="2">
+        <v>163</v>
+      </c>
+      <c r="E67" s="2">
+        <v>84</v>
+      </c>
+      <c r="F67" s="2">
+        <v>70</v>
+      </c>
+      <c r="G67" s="2">
+        <v>68</v>
+      </c>
+      <c r="H67" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68" s="2">
+        <v>159</v>
+      </c>
+      <c r="E68" s="2">
+        <v>71</v>
+      </c>
+      <c r="F68" s="2">
+        <v>69</v>
+      </c>
+      <c r="G68" s="2">
+        <v>37</v>
+      </c>
+      <c r="H68" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C69" s="2">
+        <v>163</v>
+      </c>
+      <c r="E69" s="2">
+        <v>10</v>
+      </c>
+      <c r="F69" s="2">
+        <v>29</v>
+      </c>
+      <c r="G69" s="2">
+        <v>4</v>
+      </c>
+      <c r="H69" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70" s="2">
+        <v>155</v>
+      </c>
+      <c r="E70" s="2">
+        <v>27</v>
+      </c>
+      <c r="F70" s="2">
+        <v>30</v>
+      </c>
+      <c r="G70" s="2">
+        <v>54</v>
+      </c>
+      <c r="H70" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C71" s="3">
+        <v>156</v>
+      </c>
+      <c r="E71" s="3">
+        <v>67</v>
+      </c>
+      <c r="F71" s="3">
+        <v>68</v>
+      </c>
+      <c r="G71" s="3">
+        <v>16</v>
+      </c>
+      <c r="H71" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C72" s="2">
+        <v>161</v>
+      </c>
+      <c r="E72" s="2">
+        <v>59</v>
+      </c>
+      <c r="F72" s="2">
+        <v>67</v>
+      </c>
+      <c r="G72" s="2">
+        <v>12</v>
+      </c>
+      <c r="H72" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C73" s="2">
+        <v>158</v>
+      </c>
+      <c r="E73" s="2">
+        <v>73</v>
+      </c>
+      <c r="F73" s="2">
+        <v>72</v>
+      </c>
+      <c r="G73" s="2">
+        <v>66</v>
+      </c>
+      <c r="H73" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C74" s="2">
+        <v>146</v>
+      </c>
+      <c r="E74" s="2">
+        <v>62</v>
+      </c>
+      <c r="F74" s="2">
+        <v>77</v>
+      </c>
+      <c r="G74" s="2">
+        <v>18</v>
+      </c>
+      <c r="H74" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C75" s="2">
+        <v>157</v>
+      </c>
+      <c r="E75" s="2">
+        <v>25</v>
+      </c>
+      <c r="F75" s="2">
+        <v>38</v>
+      </c>
+      <c r="G75" s="2">
+        <v>82</v>
+      </c>
+      <c r="H75" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C76" s="2">
+        <v>155</v>
+      </c>
+      <c r="E76" s="2">
+        <v>78</v>
+      </c>
+      <c r="F76" s="2">
+        <v>93</v>
+      </c>
+      <c r="G76" s="2">
+        <v>40</v>
+      </c>
+      <c r="H76" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C77" s="2">
+        <v>132</v>
+      </c>
+      <c r="E77" s="2">
+        <v>85</v>
+      </c>
+      <c r="F77" s="2">
+        <v>56</v>
+      </c>
+      <c r="G77" s="2">
+        <v>72</v>
+      </c>
+      <c r="H77" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" s="2">
+        <v>154</v>
+      </c>
+      <c r="E78" s="2">
+        <v>79</v>
+      </c>
+      <c r="F78" s="2">
+        <v>83</v>
+      </c>
+      <c r="G78" s="2">
+        <v>65</v>
+      </c>
+      <c r="H78" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" s="2">
+        <v>167</v>
+      </c>
+      <c r="E79" s="2">
+        <v>74</v>
+      </c>
+      <c r="F79" s="2">
+        <v>59</v>
+      </c>
+      <c r="G79" s="2">
+        <v>81</v>
+      </c>
+      <c r="H79" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C80" s="2">
+        <v>148</v>
+      </c>
+      <c r="E80" s="2">
+        <v>84</v>
+      </c>
+      <c r="F80" s="2">
+        <v>93</v>
+      </c>
+      <c r="G80" s="2">
+        <v>55</v>
+      </c>
+      <c r="H80" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C81" s="2">
+        <v>148</v>
+      </c>
+      <c r="E81" s="2">
+        <v>70</v>
+      </c>
+      <c r="F81" s="2">
+        <v>68</v>
+      </c>
+      <c r="G81" s="2">
+        <v>16</v>
+      </c>
+      <c r="H81" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C82" s="2">
+        <v>155</v>
+      </c>
+      <c r="E82" s="2">
+        <v>74</v>
+      </c>
+      <c r="F82" s="2">
+        <v>81</v>
+      </c>
+      <c r="G82" s="2">
+        <v>50</v>
+      </c>
+      <c r="H82" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C83" s="2">
+        <v>147</v>
+      </c>
+      <c r="E83" s="2">
+        <v>81</v>
+      </c>
+      <c r="F83" s="2">
+        <v>34</v>
+      </c>
+      <c r="G83" s="2">
+        <v>84</v>
+      </c>
+      <c r="H83" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C84" s="2">
+        <v>167</v>
+      </c>
+      <c r="E84" s="2">
+        <v>22</v>
+      </c>
+      <c r="F84" s="2">
+        <v>31</v>
+      </c>
+      <c r="G84" s="2">
+        <v>72</v>
+      </c>
+      <c r="H84" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C85" s="2">
+        <v>168</v>
+      </c>
+      <c r="E85" s="2">
+        <v>79</v>
+      </c>
+      <c r="F85" s="2">
+        <v>85</v>
+      </c>
+      <c r="G85" s="2">
+        <v>36</v>
+      </c>
+      <c r="H85" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C86" s="2">
+        <v>159</v>
+      </c>
+      <c r="E86" s="2">
+        <v>66</v>
+      </c>
+      <c r="F86" s="2">
+        <v>64</v>
+      </c>
+      <c r="G86" s="2">
+        <v>56</v>
+      </c>
+      <c r="H86" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C87" s="2">
+        <v>155</v>
+      </c>
+      <c r="E87" s="2">
+        <v>44</v>
+      </c>
+      <c r="F87" s="2">
+        <v>65</v>
+      </c>
+      <c r="G87" s="2">
+        <v>38</v>
+      </c>
+      <c r="H87" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C88" s="2">
+        <v>156</v>
+      </c>
+      <c r="E88" s="2">
+        <v>79</v>
+      </c>
+      <c r="F88" s="2">
+        <v>31</v>
+      </c>
+      <c r="G88" s="2">
+        <v>92</v>
+      </c>
+      <c r="H88" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C89" s="2">
+        <v>153</v>
+      </c>
+      <c r="E89" s="2">
+        <v>23</v>
+      </c>
+      <c r="F89" s="2">
+        <v>7</v>
+      </c>
+      <c r="G89" s="2">
+        <v>64</v>
+      </c>
+      <c r="H89" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C90" s="2">
+        <v>151</v>
+      </c>
+      <c r="E90" s="2">
+        <v>21</v>
+      </c>
+      <c r="F90" s="2">
+        <v>18</v>
+      </c>
+      <c r="G90" s="2">
+        <v>78</v>
+      </c>
+      <c r="H90" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C91" s="2">
+        <v>155</v>
+      </c>
+      <c r="E91" s="2">
+        <v>69</v>
+      </c>
+      <c r="F91" s="2">
+        <v>36</v>
+      </c>
+      <c r="G91" s="2">
+        <v>82</v>
+      </c>
+      <c r="H91" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C92" s="3">
+        <v>157</v>
+      </c>
+      <c r="E92" s="3">
+        <v>42</v>
+      </c>
+      <c r="F92" s="3">
+        <v>32</v>
+      </c>
+      <c r="G92" s="3">
+        <v>86</v>
+      </c>
+      <c r="H92" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C93" s="2">
+        <v>159</v>
+      </c>
+      <c r="E93" s="2">
+        <v>78</v>
+      </c>
+      <c r="F93" s="2">
+        <v>85</v>
+      </c>
+      <c r="G93" s="2">
+        <v>48</v>
+      </c>
+      <c r="H93" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C94" s="2">
+        <v>163</v>
+      </c>
+      <c r="E94" s="2">
+        <v>64</v>
+      </c>
+      <c r="F94" s="2">
+        <v>70</v>
+      </c>
+      <c r="G94" s="2">
+        <v>34</v>
+      </c>
+      <c r="H94" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C95" s="2">
+        <v>160</v>
+      </c>
+      <c r="E95" s="2">
+        <v>66</v>
+      </c>
+      <c r="F95" s="2">
+        <v>73</v>
+      </c>
+      <c r="G95" s="2">
+        <v>13</v>
+      </c>
+      <c r="H95" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C96" s="3">
+        <v>148</v>
+      </c>
+      <c r="E96" s="3">
+        <v>66</v>
+      </c>
+      <c r="F96" s="3">
+        <v>72</v>
+      </c>
+      <c r="G96" s="3">
+        <v>3</v>
+      </c>
+      <c r="H96" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C97" s="2">
+        <v>150</v>
+      </c>
+      <c r="E97" s="2">
+        <v>61</v>
+      </c>
+      <c r="F97" s="2">
+        <v>29</v>
+      </c>
+      <c r="G97" s="2">
+        <v>70</v>
+      </c>
+      <c r="H97" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="2">
+        <v>156</v>
+      </c>
+      <c r="E98" s="2">
+        <v>47</v>
+      </c>
+      <c r="F98" s="2">
+        <v>68</v>
+      </c>
+      <c r="G98" s="2">
+        <v>17</v>
+      </c>
+      <c r="H98" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C99" s="2">
+        <v>168</v>
+      </c>
+      <c r="E99" s="2">
+        <v>72</v>
+      </c>
+      <c r="F99" s="2">
+        <v>81</v>
+      </c>
+      <c r="G99" s="2">
+        <v>54</v>
+      </c>
+      <c r="H99" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C100" s="2">
+        <v>169</v>
+      </c>
+      <c r="E100" s="2">
+        <v>66</v>
+      </c>
+      <c r="F100" s="2">
+        <v>68</v>
+      </c>
+      <c r="G100" s="2">
+        <v>26</v>
+      </c>
+      <c r="H100" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C101" s="2">
+        <v>165</v>
+      </c>
+      <c r="E101" s="2">
+        <v>76</v>
+      </c>
+      <c r="F101" s="2">
+        <v>79</v>
+      </c>
+      <c r="G101" s="2">
+        <v>40</v>
+      </c>
+      <c r="H101" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C102" s="2">
+        <v>142</v>
+      </c>
+      <c r="E102" s="2">
+        <v>46</v>
+      </c>
+      <c r="F102" s="2">
+        <v>28</v>
+      </c>
+      <c r="G102" s="2">
+        <v>80</v>
+      </c>
+      <c r="H102" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C103" s="2">
+        <v>147</v>
+      </c>
+      <c r="E103" s="2">
+        <v>56</v>
+      </c>
+      <c r="F103" s="2">
+        <v>64</v>
+      </c>
+      <c r="G103" s="2">
+        <v>68</v>
+      </c>
+      <c r="H103" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C104" s="3">
+        <v>163</v>
+      </c>
+      <c r="E104" s="3">
+        <v>48</v>
+      </c>
+      <c r="F104" s="3">
+        <v>63</v>
+      </c>
+      <c r="G104" s="3">
+        <v>25</v>
+      </c>
+      <c r="H104" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C105" s="2">
+        <v>168</v>
+      </c>
+      <c r="E105" s="2">
+        <v>11</v>
+      </c>
+      <c r="F105" s="2">
+        <v>25</v>
+      </c>
+      <c r="G105" s="2">
+        <v>47</v>
+      </c>
+      <c r="H105" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C106" s="2">
+        <v>165</v>
+      </c>
+      <c r="E106" s="2">
+        <v>71</v>
+      </c>
+      <c r="F106" s="2">
+        <v>74</v>
+      </c>
+      <c r="G106" s="2">
+        <v>43</v>
+      </c>
+      <c r="H106" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C107" s="2">
+        <v>169</v>
+      </c>
+      <c r="E107" s="2">
+        <v>73</v>
+      </c>
+      <c r="F107" s="2">
+        <v>70</v>
+      </c>
+      <c r="G107" s="2">
+        <v>40</v>
+      </c>
+      <c r="H107" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C108" s="2">
+        <v>156</v>
+      </c>
+      <c r="E108" s="2">
+        <v>54</v>
+      </c>
+      <c r="F108" s="2">
+        <v>67</v>
+      </c>
+      <c r="G108" s="2">
+        <v>71</v>
+      </c>
+      <c r="H108" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C109" s="2">
+        <v>145</v>
+      </c>
+      <c r="E109" s="2">
+        <v>56</v>
+      </c>
+      <c r="F109" s="2">
+        <v>44</v>
+      </c>
+      <c r="G109" s="2">
+        <v>91</v>
+      </c>
+      <c r="H109" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C110" s="2">
+        <v>162</v>
+      </c>
+      <c r="E110" s="2">
+        <v>3</v>
+      </c>
+      <c r="F110" s="2">
+        <v>3</v>
+      </c>
+      <c r="G110" s="2">
+        <v>33</v>
+      </c>
+      <c r="H110" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C111" s="2">
+        <v>139</v>
+      </c>
+      <c r="E111" s="2">
+        <v>89</v>
+      </c>
+      <c r="F111" s="2">
+        <v>50</v>
+      </c>
+      <c r="G111" s="2">
+        <v>85</v>
+      </c>
+      <c r="H111" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C112" s="2">
+        <v>156</v>
+      </c>
+      <c r="E112" s="2">
+        <v>94</v>
+      </c>
+      <c r="F112" s="2">
+        <v>100</v>
+      </c>
+      <c r="G112" s="2">
+        <v>16</v>
+      </c>
+      <c r="H112" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C113" s="2">
+        <v>161</v>
+      </c>
+      <c r="E113" s="2">
+        <v>76</v>
+      </c>
+      <c r="F113" s="2">
+        <v>72</v>
+      </c>
+      <c r="G113" s="2">
+        <v>73</v>
+      </c>
+      <c r="H113" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C114" s="2">
+        <v>169</v>
+      </c>
+      <c r="E114" s="2">
+        <v>74</v>
+      </c>
+      <c r="F114" s="2">
+        <v>61</v>
+      </c>
+      <c r="G114" s="2">
+        <v>74</v>
+      </c>
+      <c r="H114" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C115" s="2">
+        <v>162</v>
+      </c>
+      <c r="E115" s="2">
+        <v>64</v>
+      </c>
+      <c r="F115" s="2">
+        <v>64</v>
+      </c>
+      <c r="G115" s="2">
+        <v>28</v>
+      </c>
+      <c r="H115" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116" s="2">
+        <v>169</v>
+      </c>
+      <c r="E116" s="2">
+        <v>64</v>
+      </c>
+      <c r="F116" s="2">
+        <v>66</v>
+      </c>
+      <c r="G116" s="2">
+        <v>38</v>
+      </c>
+      <c r="H116" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C117" s="2">
+        <v>164</v>
+      </c>
+      <c r="E117" s="2">
+        <v>61</v>
+      </c>
+      <c r="F117" s="2">
+        <v>68</v>
+      </c>
+      <c r="G117" s="2">
+        <v>23</v>
+      </c>
+      <c r="H117" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C118" s="2">
+        <v>161</v>
+      </c>
+      <c r="E118" s="2">
+        <v>60</v>
+      </c>
+      <c r="F118" s="2">
+        <v>41</v>
+      </c>
+      <c r="G118" s="2">
+        <v>84</v>
+      </c>
+      <c r="H118" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C119" s="2">
+        <v>169</v>
+      </c>
+      <c r="E119" s="2">
+        <v>55</v>
+      </c>
+      <c r="F119" s="2">
+        <v>56</v>
+      </c>
+      <c r="G119" s="2">
+        <v>25</v>
+      </c>
+      <c r="H119" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C120" s="2">
+        <v>165</v>
+      </c>
+      <c r="E120" s="2">
+        <v>32</v>
+      </c>
+      <c r="F120" s="2">
+        <v>39</v>
+      </c>
+      <c r="G120" s="2">
+        <v>83</v>
+      </c>
+      <c r="H120" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C121" s="2">
+        <v>162</v>
+      </c>
+      <c r="E121" s="2">
+        <v>55</v>
+      </c>
+      <c r="F121" s="2">
+        <v>76</v>
+      </c>
+      <c r="G121" s="2">
+        <v>23</v>
+      </c>
+      <c r="H121" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C122" s="2">
+        <v>159</v>
+      </c>
+      <c r="E122" s="2">
+        <v>32</v>
+      </c>
+      <c r="F122" s="2">
+        <v>60</v>
+      </c>
+      <c r="G122" s="2">
+        <v>25</v>
+      </c>
+      <c r="H122" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C123" s="2">
+        <v>163</v>
+      </c>
+      <c r="E123" s="2">
+        <v>59</v>
+      </c>
+      <c r="F123" s="2">
+        <v>77</v>
+      </c>
+      <c r="G123" s="2">
+        <v>12</v>
+      </c>
+      <c r="H123" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C124" s="2">
+        <v>153</v>
+      </c>
+      <c r="E124" s="2">
+        <v>64</v>
+      </c>
+      <c r="F124" s="2">
+        <v>42</v>
+      </c>
+      <c r="G124" s="2">
+        <v>72</v>
+      </c>
+      <c r="H124" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C125" s="2">
+        <v>169</v>
+      </c>
+      <c r="E125" s="2">
+        <v>56</v>
+      </c>
+      <c r="F125" s="2">
+        <v>67</v>
+      </c>
+      <c r="G125" s="2">
+        <v>27</v>
+      </c>
+      <c r="H125" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C126" s="2">
+        <v>150</v>
+      </c>
+      <c r="E126" s="2">
+        <v>62</v>
+      </c>
+      <c r="F126" s="2">
+        <v>53</v>
+      </c>
+      <c r="G126" s="2">
+        <v>73</v>
+      </c>
+      <c r="H126" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C127" s="2">
+        <v>146</v>
+      </c>
+      <c r="E127" s="2">
+        <v>77</v>
+      </c>
+      <c r="F127" s="2">
+        <v>72</v>
+      </c>
+      <c r="G127" s="2">
+        <v>25</v>
+      </c>
+      <c r="H127" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C128" s="2">
+        <v>167</v>
+      </c>
+      <c r="E128" s="2">
+        <v>68</v>
+      </c>
+      <c r="F128" s="2">
+        <v>81</v>
+      </c>
+      <c r="G128" s="2">
+        <v>18</v>
+      </c>
+      <c r="H128" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C129" s="2">
+        <v>156</v>
+      </c>
+      <c r="E129" s="2">
+        <v>82</v>
+      </c>
+      <c r="F129" s="2">
+        <v>59</v>
+      </c>
+      <c r="G129" s="2">
+        <v>71</v>
+      </c>
+      <c r="H129" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C130" s="2">
+        <v>157</v>
+      </c>
+      <c r="E130" s="2">
+        <v>68</v>
+      </c>
+      <c r="F130" s="2">
+        <v>76</v>
+      </c>
+      <c r="G130" s="2">
+        <v>36</v>
+      </c>
+      <c r="H130" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C131" s="2">
+        <v>164</v>
+      </c>
+      <c r="E131" s="2">
+        <v>56</v>
+      </c>
+      <c r="F131" s="2">
+        <v>65</v>
+      </c>
+      <c r="G131" s="2">
+        <v>37</v>
+      </c>
+      <c r="H131" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C132" s="2">
+        <v>156</v>
+      </c>
+      <c r="E132" s="2">
+        <v>62</v>
+      </c>
+      <c r="F132" s="2">
+        <v>42</v>
+      </c>
+      <c r="G132" s="2">
+        <v>72</v>
+      </c>
+      <c r="H132" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C133" s="2">
+        <v>165</v>
+      </c>
+      <c r="E133" s="2">
+        <v>33</v>
+      </c>
+      <c r="F133" s="2">
+        <v>32</v>
+      </c>
+      <c r="G133" s="2">
+        <v>86</v>
+      </c>
+      <c r="H133" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C134" s="2">
+        <v>157</v>
+      </c>
+      <c r="E134" s="2">
+        <v>66</v>
+      </c>
+      <c r="F134" s="2">
+        <v>71</v>
+      </c>
+      <c r="G134" s="2">
+        <v>9</v>
+      </c>
+      <c r="H134" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C135" s="2">
+        <v>166</v>
+      </c>
+      <c r="E135" s="2">
+        <v>79</v>
+      </c>
+      <c r="F135" s="2">
+        <v>92</v>
+      </c>
+      <c r="G135" s="2">
+        <v>56</v>
+      </c>
+      <c r="H135" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C136" s="2">
+        <v>169</v>
+      </c>
+      <c r="E136" s="2">
+        <v>68</v>
+      </c>
+      <c r="F136" s="2">
+        <v>66</v>
+      </c>
+      <c r="G136" s="2">
+        <v>78</v>
+      </c>
+      <c r="H136" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C137" s="2">
+        <v>162</v>
+      </c>
+      <c r="E137" s="2">
+        <v>58</v>
+      </c>
+      <c r="F137" s="2">
+        <v>39</v>
+      </c>
+      <c r="G137" s="2">
+        <v>90</v>
+      </c>
+      <c r="H137" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C138" s="2">
+        <v>154</v>
+      </c>
+      <c r="E138" s="2">
+        <v>71</v>
+      </c>
+      <c r="F138" s="2">
+        <v>65</v>
+      </c>
+      <c r="G138" s="2">
+        <v>66</v>
+      </c>
+      <c r="H138" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C139" s="2">
+        <v>150</v>
+      </c>
+      <c r="E139" s="2">
+        <v>64</v>
+      </c>
+      <c r="F139" s="2">
+        <v>50</v>
+      </c>
+      <c r="G139" s="2">
+        <v>71</v>
+      </c>
+      <c r="H139" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C140" s="2">
+        <v>162</v>
+      </c>
+      <c r="E140" s="2">
+        <v>43</v>
+      </c>
+      <c r="F140" s="2">
+        <v>37</v>
+      </c>
+      <c r="G140" s="2">
+        <v>83</v>
+      </c>
+      <c r="H140" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C141" s="2">
+        <v>162</v>
+      </c>
+      <c r="E141" s="2">
+        <v>66</v>
+      </c>
+      <c r="F141" s="2">
+        <v>69</v>
+      </c>
+      <c r="G141" s="2">
+        <v>36</v>
+      </c>
+      <c r="H141" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C142" s="2">
+        <v>163</v>
+      </c>
+      <c r="E142" s="2">
+        <v>65</v>
+      </c>
+      <c r="F142" s="2">
+        <v>70</v>
+      </c>
+      <c r="G142" s="2">
+        <v>49</v>
+      </c>
+      <c r="H142" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C143" s="2">
+        <v>168</v>
+      </c>
+      <c r="E143" s="2">
+        <v>42</v>
+      </c>
+      <c r="F143" s="2">
+        <v>65</v>
+      </c>
+      <c r="G143" s="2">
+        <v>76</v>
+      </c>
+      <c r="H143" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C144" s="2">
+        <v>137</v>
+      </c>
+      <c r="E144" s="2">
+        <v>24</v>
+      </c>
+      <c r="F144" s="2">
+        <v>7</v>
+      </c>
+      <c r="G144" s="2">
+        <v>89</v>
+      </c>
+      <c r="H144" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C145" s="2">
+        <v>152</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45</v>
+      </c>
+      <c r="F145" s="2">
+        <v>58</v>
+      </c>
+      <c r="G145" s="2">
+        <v>25</v>
+      </c>
+      <c r="H145" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C146" s="2">
+        <v>156</v>
+      </c>
+      <c r="E146" s="2">
+        <v>70</v>
+      </c>
+      <c r="F146" s="2">
+        <v>75</v>
+      </c>
+      <c r="G146" s="2">
+        <v>35</v>
+      </c>
+      <c r="H146" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C147" s="3">
+        <v>151</v>
+      </c>
+      <c r="E147" s="3">
+        <v>48</v>
+      </c>
+      <c r="F147" s="3">
+        <v>30</v>
+      </c>
+      <c r="G147" s="3">
+        <v>75</v>
+      </c>
+      <c r="H147" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C148" s="2">
+        <v>161</v>
+      </c>
+      <c r="E148" s="2">
+        <v>82</v>
+      </c>
+      <c r="F148" s="2">
+        <v>95</v>
+      </c>
+      <c r="G148" s="2">
+        <v>24</v>
+      </c>
+      <c r="H148" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C149" s="2">
+        <v>151</v>
+      </c>
+      <c r="E149" s="2">
+        <v>41</v>
+      </c>
+      <c r="F149" s="2">
+        <v>61</v>
+      </c>
+      <c r="G149" s="2">
+        <v>50</v>
+      </c>
+      <c r="H149" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C150" s="2">
+        <v>166</v>
+      </c>
+      <c r="E150" s="2">
+        <v>80</v>
+      </c>
+      <c r="F150" s="2">
+        <v>70</v>
+      </c>
+      <c r="G150" s="2">
+        <v>71</v>
+      </c>
+      <c r="H150" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C151" s="2">
+        <v>163</v>
+      </c>
+      <c r="E151" s="2">
+        <v>51</v>
+      </c>
+      <c r="F151" s="2">
+        <v>75</v>
+      </c>
+      <c r="G151" s="2">
+        <v>17</v>
+      </c>
+      <c r="H151" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C152" s="2">
+        <v>157</v>
+      </c>
+      <c r="E152" s="2">
+        <v>30</v>
+      </c>
+      <c r="F152" s="2">
+        <v>7</v>
+      </c>
+      <c r="G152" s="2">
+        <v>76</v>
+      </c>
+      <c r="H152" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C153" s="2">
+        <v>157</v>
+      </c>
+      <c r="E153" s="2">
+        <v>90</v>
+      </c>
+      <c r="F153" s="2">
+        <v>92</v>
+      </c>
+      <c r="G153" s="2">
+        <v>76</v>
+      </c>
+      <c r="H153" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C154" s="2">
+        <v>163</v>
+      </c>
+      <c r="E154" s="2">
+        <v>91</v>
+      </c>
+      <c r="F154" s="2">
+        <v>92</v>
+      </c>
+      <c r="G154" s="2">
+        <v>64</v>
+      </c>
+      <c r="H154" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C155" s="2">
+        <v>167</v>
+      </c>
+      <c r="E155" s="2">
+        <v>28</v>
+      </c>
+      <c r="F155" s="2">
+        <v>18</v>
+      </c>
+      <c r="G155" s="2">
+        <v>74</v>
+      </c>
+      <c r="H155" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C156" s="2">
+        <v>165</v>
+      </c>
+      <c r="E156" s="2">
+        <v>74</v>
+      </c>
+      <c r="F156" s="2">
+        <v>46</v>
+      </c>
+      <c r="G156" s="2">
+        <v>74</v>
+      </c>
+      <c r="H156" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C157" s="2">
+        <v>151</v>
+      </c>
+      <c r="E157" s="2">
+        <v>67</v>
+      </c>
+      <c r="F157" s="2">
+        <v>74</v>
+      </c>
+      <c r="G157" s="2">
+        <v>7</v>
+      </c>
+      <c r="H157" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C158" s="2">
+        <v>169</v>
+      </c>
+      <c r="E158" s="2">
+        <v>84</v>
+      </c>
+      <c r="F158" s="2">
+        <v>91</v>
+      </c>
+      <c r="G158" s="2">
+        <v>52</v>
+      </c>
+      <c r="H158" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C159" s="2">
+        <v>147</v>
+      </c>
+      <c r="E159" s="2">
+        <v>76</v>
+      </c>
+      <c r="F159" s="2">
+        <v>71</v>
+      </c>
+      <c r="G159" s="2">
+        <v>40</v>
+      </c>
+      <c r="H159" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C160" s="2">
+        <v>155</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45</v>
+      </c>
+      <c r="F160" s="2">
+        <v>68</v>
+      </c>
+      <c r="G160" s="2">
+        <v>64</v>
+      </c>
+      <c r="H160" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C161" s="2">
+        <v>152</v>
+      </c>
+      <c r="E161" s="2">
+        <v>13</v>
+      </c>
+      <c r="F161" s="2">
+        <v>13</v>
+      </c>
+      <c r="G161" s="2">
+        <v>82</v>
+      </c>
+      <c r="H161" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C162" s="2">
+        <v>155</v>
+      </c>
+      <c r="E162" s="2">
+        <v>18</v>
+      </c>
+      <c r="F162" s="2">
+        <v>6</v>
+      </c>
+      <c r="G162" s="2">
+        <v>37</v>
+      </c>
+      <c r="H162" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C163" s="2">
+        <v>163</v>
+      </c>
+      <c r="E163" s="2">
+        <v>51</v>
+      </c>
+      <c r="F163" s="2">
+        <v>11</v>
+      </c>
+      <c r="G163" s="2">
+        <v>99</v>
+      </c>
+      <c r="H163" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C164" s="2">
+        <v>157</v>
+      </c>
+      <c r="E164" s="2">
+        <v>70</v>
+      </c>
+      <c r="F164" s="2">
+        <v>21</v>
+      </c>
+      <c r="G164" s="2">
+        <v>89</v>
+      </c>
+      <c r="H164" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C165" s="2">
+        <v>142</v>
+      </c>
+      <c r="E165" s="2">
+        <v>66</v>
+      </c>
+      <c r="F165" s="2">
+        <v>69</v>
+      </c>
+      <c r="G165" s="2">
+        <v>24</v>
+      </c>
+      <c r="H165" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C166" s="2">
+        <v>163</v>
+      </c>
+      <c r="E166" s="2">
+        <v>72</v>
+      </c>
+      <c r="F166" s="2">
+        <v>70</v>
+      </c>
+      <c r="G166" s="2">
+        <v>54</v>
+      </c>
+      <c r="H166" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C167" s="2">
+        <v>145</v>
+      </c>
+      <c r="E167" s="2">
+        <v>65</v>
+      </c>
+      <c r="F167" s="2">
+        <v>78</v>
+      </c>
+      <c r="G167" s="2">
+        <v>21</v>
+      </c>
+      <c r="H167" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C168" s="2">
+        <v>153</v>
+      </c>
+      <c r="E168" s="2">
+        <v>77</v>
+      </c>
+      <c r="F168" s="2">
+        <v>82</v>
+      </c>
+      <c r="G168" s="2">
+        <v>67</v>
+      </c>
+      <c r="H168" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C169" s="2">
+        <v>151</v>
+      </c>
+      <c r="E169" s="2">
+        <v>52</v>
+      </c>
+      <c r="F169" s="2">
+        <v>59</v>
+      </c>
+      <c r="G169" s="2">
+        <v>41</v>
+      </c>
+      <c r="H169" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C170" s="2">
+        <v>163</v>
+      </c>
+      <c r="E170" s="2">
+        <v>32</v>
+      </c>
+      <c r="F170" s="2">
+        <v>27</v>
+      </c>
+      <c r="G170" s="2">
+        <v>78</v>
+      </c>
+      <c r="H170" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C171" s="2">
+        <v>168</v>
+      </c>
+      <c r="E171" s="2">
+        <v>76</v>
+      </c>
+      <c r="F171" s="2">
+        <v>54</v>
+      </c>
+      <c r="G171" s="2">
+        <v>75</v>
+      </c>
+      <c r="H171" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C172" s="2">
+        <v>158</v>
+      </c>
+      <c r="E172" s="2">
+        <v>29</v>
+      </c>
+      <c r="F172" s="2">
+        <v>26</v>
+      </c>
+      <c r="G172" s="2">
+        <v>73</v>
+      </c>
+      <c r="H172" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C173" s="2">
+        <v>160</v>
+      </c>
+      <c r="E173" s="2">
+        <v>83</v>
+      </c>
+      <c r="F173" s="2">
+        <v>95</v>
+      </c>
+      <c r="G173" s="2">
+        <v>33</v>
+      </c>
+      <c r="H173" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C174" s="2">
+        <v>159</v>
+      </c>
+      <c r="E174" s="2">
+        <v>56</v>
+      </c>
+      <c r="F174" s="2">
+        <v>64</v>
+      </c>
+      <c r="G174" s="2">
+        <v>25</v>
+      </c>
+      <c r="H174" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C175" s="2">
+        <v>153</v>
+      </c>
+      <c r="E175" s="2">
+        <v>59</v>
+      </c>
+      <c r="F175" s="2">
+        <v>68</v>
+      </c>
+      <c r="G175" s="2">
+        <v>21</v>
+      </c>
+      <c r="H175" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C176" s="2">
+        <v>152</v>
+      </c>
+      <c r="E176" s="2">
+        <v>15</v>
+      </c>
+      <c r="F176" s="2">
+        <v>14</v>
+      </c>
+      <c r="G176" s="2">
+        <v>59</v>
+      </c>
+      <c r="H176" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C177" s="2">
+        <v>167</v>
+      </c>
+      <c r="E177" s="2">
+        <v>70</v>
+      </c>
+      <c r="F177" s="2">
+        <v>71</v>
+      </c>
+      <c r="G177" s="2">
+        <v>57</v>
+      </c>
+      <c r="H177" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C178" s="2">
+        <v>162</v>
+      </c>
+      <c r="E178" s="2">
+        <v>25</v>
+      </c>
+      <c r="F178" s="2">
+        <v>24</v>
+      </c>
+      <c r="G178" s="2">
+        <v>85</v>
+      </c>
+      <c r="H178" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C179" s="2">
+        <v>159</v>
+      </c>
+      <c r="E179" s="2">
+        <v>82</v>
+      </c>
+      <c r="F179" s="2">
+        <v>76</v>
+      </c>
+      <c r="G179" s="2">
+        <v>57</v>
+      </c>
+      <c r="H179" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C180" s="2">
+        <v>158</v>
+      </c>
+      <c r="E180" s="2">
+        <v>68</v>
+      </c>
+      <c r="F180" s="2">
+        <v>79</v>
+      </c>
+      <c r="G180" s="2">
+        <v>29</v>
+      </c>
+      <c r="H180" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C181" s="2">
+        <v>164</v>
+      </c>
+      <c r="E181" s="2">
+        <v>37</v>
+      </c>
+      <c r="F181" s="2">
+        <v>48</v>
+      </c>
+      <c r="G181" s="2">
+        <v>81</v>
+      </c>
+      <c r="H181" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C182" s="2">
+        <v>154</v>
+      </c>
+      <c r="E182" s="2">
+        <v>80</v>
+      </c>
+      <c r="F182" s="2">
+        <v>68</v>
+      </c>
+      <c r="G182" s="2">
+        <v>77</v>
+      </c>
+      <c r="H182" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C183" s="2">
+        <v>155</v>
+      </c>
+      <c r="E183" s="2">
+        <v>49</v>
+      </c>
+      <c r="F183" s="2">
+        <v>66</v>
+      </c>
+      <c r="G183" s="2">
+        <v>15</v>
+      </c>
+      <c r="H183" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C184" s="2">
+        <v>150</v>
+      </c>
+      <c r="E184" s="2">
+        <v>61</v>
+      </c>
+      <c r="F184" s="2">
+        <v>43</v>
+      </c>
+      <c r="G184" s="2">
+        <v>76</v>
+      </c>
+      <c r="H184" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C185" s="2">
+        <v>163</v>
+      </c>
+      <c r="E185" s="2">
+        <v>27</v>
+      </c>
+      <c r="F185" s="2">
+        <v>18</v>
+      </c>
+      <c r="G185" s="2">
+        <v>43</v>
+      </c>
+      <c r="H185" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C186" s="2">
+        <v>165</v>
+      </c>
+      <c r="E186" s="2">
+        <v>75</v>
+      </c>
+      <c r="F186" s="2">
+        <v>72</v>
+      </c>
+      <c r="G186" s="2">
+        <v>52</v>
+      </c>
+      <c r="H186" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C187" s="2">
+        <v>161</v>
+      </c>
+      <c r="E187" s="2">
+        <v>65</v>
+      </c>
+      <c r="F187" s="2">
+        <v>71</v>
+      </c>
+      <c r="G187" s="2">
+        <v>11</v>
+      </c>
+      <c r="H187" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C188" s="2">
+        <v>148</v>
+      </c>
+      <c r="E188" s="2">
+        <v>83</v>
+      </c>
+      <c r="F188" s="2">
+        <v>70</v>
+      </c>
+      <c r="G188" s="2">
+        <v>72</v>
+      </c>
+      <c r="H188" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C189" s="2">
+        <v>156</v>
+      </c>
+      <c r="E189" s="2">
+        <v>72</v>
+      </c>
+      <c r="F189" s="2">
+        <v>71</v>
+      </c>
+      <c r="G189" s="2">
+        <v>42</v>
+      </c>
+      <c r="H189" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C190" s="2">
+        <v>167</v>
+      </c>
+      <c r="E190" s="2">
+        <v>83</v>
+      </c>
+      <c r="F190" s="2">
+        <v>98</v>
+      </c>
+      <c r="G190" s="2">
+        <v>22</v>
+      </c>
+      <c r="H190" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C191" s="2">
+        <v>153</v>
+      </c>
+      <c r="E191" s="2">
+        <v>31</v>
+      </c>
+      <c r="F191" s="2">
+        <v>11</v>
+      </c>
+      <c r="G191" s="2">
+        <v>96</v>
+      </c>
+      <c r="H191" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C192" s="2">
+        <v>144</v>
+      </c>
+      <c r="E192" s="2">
+        <v>65</v>
+      </c>
+      <c r="F192" s="2">
+        <v>70</v>
+      </c>
+      <c r="G192" s="2">
+        <v>56</v>
+      </c>
+      <c r="H192" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C193" s="2">
+        <v>140</v>
+      </c>
+      <c r="E193" s="2">
+        <v>92</v>
+      </c>
+      <c r="F193" s="2">
+        <v>26</v>
+      </c>
+      <c r="G193" s="2">
+        <v>82</v>
+      </c>
+      <c r="H193" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C194" s="2">
+        <v>153</v>
+      </c>
+      <c r="E194" s="2">
+        <v>81</v>
+      </c>
+      <c r="F194" s="2">
+        <v>82</v>
+      </c>
+      <c r="G194" s="2">
+        <v>49</v>
+      </c>
+      <c r="H194" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C195" s="2">
+        <v>169</v>
+      </c>
+      <c r="E195" s="2">
+        <v>94</v>
+      </c>
+      <c r="F195" s="2">
+        <v>90</v>
+      </c>
+      <c r="G195" s="2">
+        <v>72</v>
+      </c>
+      <c r="H195" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C196" s="2">
+        <v>163</v>
+      </c>
+      <c r="E196" s="2">
+        <v>41</v>
+      </c>
+      <c r="F196" s="2">
+        <v>33</v>
+      </c>
+      <c r="G196" s="2">
+        <v>80</v>
+      </c>
+      <c r="H196" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C197" s="2">
+        <v>155</v>
+      </c>
+      <c r="E197" s="2">
+        <v>46</v>
+      </c>
+      <c r="F197" s="2">
+        <v>50</v>
+      </c>
+      <c r="G197" s="2">
+        <v>73</v>
+      </c>
+      <c r="H197" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C198" s="2">
+        <v>169</v>
+      </c>
+      <c r="E198" s="2">
+        <v>85</v>
+      </c>
+      <c r="F198" s="2">
+        <v>89</v>
+      </c>
+      <c r="G198" s="2">
+        <v>62</v>
+      </c>
+      <c r="H198" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C199" s="2">
+        <v>154</v>
+      </c>
+      <c r="E199" s="2">
+        <v>82</v>
+      </c>
+      <c r="F199" s="2">
+        <v>72</v>
+      </c>
+      <c r="G199" s="2">
+        <v>49</v>
+      </c>
+      <c r="H199" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C200" s="2">
+        <v>153</v>
+      </c>
+      <c r="E200" s="2">
+        <v>79</v>
+      </c>
+      <c r="F200" s="2">
+        <v>83</v>
+      </c>
+      <c r="G200" s="2">
+        <v>58</v>
+      </c>
+      <c r="H200" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C201" s="2">
+        <v>151</v>
+      </c>
+      <c r="E201" s="2">
+        <v>70</v>
+      </c>
+      <c r="F201" s="2">
+        <v>72</v>
+      </c>
+      <c r="G201" s="2">
+        <v>63</v>
+      </c>
+      <c r="H201" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C202" s="2">
+        <v>154</v>
+      </c>
+      <c r="E202" s="2">
+        <v>71</v>
+      </c>
+      <c r="F202" s="2">
+        <v>72</v>
+      </c>
+      <c r="G202" s="2">
+        <v>37</v>
+      </c>
+      <c r="H202" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C203" s="2">
+        <v>163</v>
+      </c>
+      <c r="E203" s="2">
+        <v>72</v>
+      </c>
+      <c r="F203" s="2">
+        <v>68</v>
+      </c>
+      <c r="G203" s="2">
+        <v>64</v>
+      </c>
+      <c r="H203" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C204" s="2">
+        <v>156</v>
+      </c>
+      <c r="E204" s="2">
+        <v>41</v>
+      </c>
+      <c r="F204" s="2">
+        <v>4</v>
+      </c>
+      <c r="G204" s="2">
+        <v>97</v>
+      </c>
+      <c r="H204" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C205" s="2">
+        <v>168</v>
+      </c>
+      <c r="E205" s="2">
+        <v>18</v>
+      </c>
+      <c r="F205" s="2">
+        <v>20</v>
+      </c>
+      <c r="G205" s="2">
+        <v>61</v>
+      </c>
+      <c r="H205" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C206" s="2">
+        <v>156</v>
+      </c>
+      <c r="E206" s="2">
+        <v>59</v>
+      </c>
+      <c r="F206" s="2">
+        <v>73</v>
+      </c>
+      <c r="G206" s="2">
+        <v>26</v>
+      </c>
+      <c r="H206" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C207" s="2">
+        <v>168</v>
+      </c>
+      <c r="E207" s="2">
+        <v>88</v>
+      </c>
+      <c r="F207" s="2">
+        <v>96</v>
+      </c>
+      <c r="G207" s="2">
+        <v>72</v>
+      </c>
+      <c r="H207" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C208" s="2">
+        <v>151</v>
+      </c>
+      <c r="E208" s="2">
+        <v>60</v>
+      </c>
+      <c r="F208" s="2">
+        <v>15</v>
+      </c>
+      <c r="G208" s="2">
+        <v>95</v>
+      </c>
+      <c r="H208" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C209" s="2">
+        <v>164</v>
+      </c>
+      <c r="E209" s="2">
+        <v>66</v>
+      </c>
+      <c r="F209" s="2">
+        <v>83</v>
+      </c>
+      <c r="G209" s="2">
+        <v>39</v>
+      </c>
+      <c r="H209" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C210" s="2">
+        <v>159</v>
+      </c>
+      <c r="E210" s="2">
+        <v>68</v>
+      </c>
+      <c r="F210" s="2">
+        <v>69</v>
+      </c>
+      <c r="G210" s="2">
+        <v>57</v>
+      </c>
+      <c r="H210" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C211" s="2">
+        <v>149</v>
+      </c>
+      <c r="E211" s="2">
+        <v>81</v>
+      </c>
+      <c r="F211" s="2">
+        <v>40</v>
+      </c>
+      <c r="G211" s="2">
+        <v>77</v>
+      </c>
+      <c r="H211" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C212" s="2">
+        <v>156</v>
+      </c>
+      <c r="E212" s="2">
+        <v>70</v>
+      </c>
+      <c r="F212" s="2">
+        <v>58</v>
+      </c>
+      <c r="G212" s="2">
+        <v>74</v>
+      </c>
+      <c r="H212" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C213" s="2">
+        <v>148</v>
+      </c>
+      <c r="E213" s="2">
+        <v>68</v>
+      </c>
+      <c r="F213" s="2">
+        <v>71</v>
+      </c>
+      <c r="G213" s="2">
+        <v>45</v>
+      </c>
+      <c r="H213" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C214" s="2">
+        <v>144</v>
+      </c>
+      <c r="E214" s="2">
+        <v>72</v>
+      </c>
+      <c r="F214" s="2">
+        <v>70</v>
+      </c>
+      <c r="G214" s="2">
+        <v>57</v>
+      </c>
+      <c r="H214" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C215" s="2">
+        <v>155</v>
+      </c>
+      <c r="E215" s="2">
+        <v>72</v>
+      </c>
+      <c r="F215" s="2">
+        <v>70</v>
+      </c>
+      <c r="G215" s="2">
+        <v>53</v>
+      </c>
+      <c r="H215" s="2">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/code/数据库设计/武将设计.xlsx
+++ b/code/数据库设计/武将设计.xlsx
@@ -3,13 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F97313-A788-4011-A8FF-4079288272D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CF4A9F-0D8E-4E5E-BC92-0CFECCCBAF99}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$215</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -729,7 +732,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -744,17 +747,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -764,7 +756,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -772,34 +764,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1084,5008 +1056,5020 @@
   <dimension ref="A1:L215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="1" customWidth="1"/>
+    <col min="5" max="10" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>155</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>99</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>72</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>96</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>161</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>75</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>74</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>78</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>155</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>96</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>91</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>78</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>135</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>4</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>25</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>30</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>54</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>139</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>5</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>69</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>83</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>19</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>156</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>6</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>81</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>80</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>65</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>153</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>7</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>82</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>85</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>41</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>132</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>8</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>47</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>37</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>57</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>132</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>9</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>51</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>36</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>81</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>108</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="1">
+        <v>145</v>
+      </c>
+      <c r="D11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="E11" s="1">
+        <v>56</v>
+      </c>
+      <c r="F11" s="1">
+        <v>44</v>
+      </c>
+      <c r="G11" s="1">
+        <v>91</v>
+      </c>
+      <c r="H11" s="1">
+        <v>70</v>
+      </c>
+      <c r="K11" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C12" s="1">
         <v>152</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E12" s="1">
         <v>72</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F12" s="1">
         <v>64</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G12" s="1">
         <v>73</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H12" s="1">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C13" s="1">
         <v>169</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E13" s="1">
         <v>57</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F13" s="1">
         <v>68</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G13" s="1">
         <v>45</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H13" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="1">
         <v>166</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E14" s="1">
         <v>43</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F14" s="1">
         <v>50</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G14" s="1">
         <v>34</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H14" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C15" s="1">
         <v>155</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E15" s="1">
         <v>75</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F15" s="1">
         <v>67</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G15" s="1">
         <v>77</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H15" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C16" s="1">
         <v>168</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E16" s="1">
         <v>45</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F16" s="1">
         <v>53</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G16" s="1">
         <v>24</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H16" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="1">
         <v>151</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E17" s="1">
         <v>61</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F17" s="1">
         <v>73</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G17" s="1">
         <v>28</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H17" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="1">
         <v>169</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E18" s="1">
         <v>80</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F18" s="1">
         <v>81</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G18" s="1">
         <v>24</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H18" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C19" s="1">
         <v>168</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E19" s="1">
         <v>86</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F19" s="1">
         <v>88</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G19" s="1">
         <v>49</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H19" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C20" s="1">
         <v>163</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E20" s="1">
         <v>58</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F20" s="1">
         <v>71</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G20" s="1">
         <v>29</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H20" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C21" s="1">
         <v>164</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E21" s="1">
         <v>47</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F21" s="1">
         <v>51</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G21" s="1">
         <v>57</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H21" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C22" s="1">
         <v>169</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E22" s="1">
         <v>79</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F22" s="1">
         <v>65</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G22" s="1">
         <v>81</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H22" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C23" s="1">
         <v>154</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E23" s="1">
         <v>72</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F23" s="1">
         <v>52</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G23" s="1">
         <v>81</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H23" s="1">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C24" s="1">
         <v>132</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E24" s="1">
         <v>21</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F24" s="1">
         <v>5</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G24" s="1">
         <v>80</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H24" s="1">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C25" s="1">
         <v>161</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E25" s="1">
         <v>69</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F25" s="1">
         <v>66</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G25" s="1">
         <v>31</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H25" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C26" s="1">
         <v>165</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E26" s="1">
         <v>64</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F26" s="1">
         <v>68</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G26" s="1">
         <v>50</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H26" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C27" s="1">
         <v>157</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E27" s="1">
         <v>67</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F27" s="1">
         <v>72</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G27" s="1">
         <v>17</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H27" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C28" s="1">
         <v>160</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E28" s="1">
         <v>9</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F28" s="1">
         <v>9</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G28" s="1">
         <v>80</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H28" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C29" s="1">
         <v>167</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E29" s="1">
         <v>21</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F29" s="1">
         <v>7</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G29" s="1">
         <v>95</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H29" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C30" s="1">
         <v>168</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E30" s="1">
         <v>74</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F30" s="1">
         <v>70</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G30" s="1">
         <v>56</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H30" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C31" s="1">
         <v>151</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E31" s="1">
         <v>83</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F31" s="1">
         <v>84</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G31" s="1">
         <v>76</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H31" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C32" s="1">
         <v>169</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E32" s="1">
         <v>73</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F32" s="1">
         <v>71</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G32" s="1">
         <v>36</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H32" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C33" s="1">
         <v>141</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E33" s="1">
         <v>70</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F33" s="1">
         <v>55</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G33" s="1">
         <v>76</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H33" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C34" s="1">
         <v>145</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E34" s="1">
         <v>74</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F34" s="1">
         <v>76</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G34" s="1">
         <v>34</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H34" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C35" s="1">
         <v>146</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E35" s="1">
         <v>70</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F35" s="1">
         <v>68</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G35" s="1">
         <v>27</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H35" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C36" s="1">
         <v>163</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E36" s="1">
         <v>23</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F36" s="1">
         <v>59</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G36" s="1">
         <v>87</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H36" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C37" s="1">
         <v>156</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E37" s="1">
         <v>70</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F37" s="1">
         <v>72</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G37" s="1">
         <v>63</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H37" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C38" s="1">
         <v>147</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E38" s="1">
         <v>68</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F38" s="1">
         <v>75</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G38" s="1">
         <v>19</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C39" s="1">
         <v>160</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E39" s="1">
         <v>68</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F39" s="1">
         <v>93</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G39" s="1">
         <v>29</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H39" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C40" s="1">
         <v>137</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E40" s="1">
         <v>71</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F40" s="1">
         <v>74</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G40" s="1">
         <v>46</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H40" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C41" s="1">
         <v>154</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E41" s="1">
         <v>50</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F41" s="1">
         <v>55</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G41" s="1">
         <v>69</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H41" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C42" s="1">
         <v>168</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E42" s="1">
         <v>65</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F42" s="1">
         <v>41</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G42" s="1">
         <v>82</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H42" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C43" s="1">
         <v>149</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E43" s="1">
         <v>52</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F43" s="1">
         <v>60</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G43" s="1">
         <v>11</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H43" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C44" s="1">
         <v>169</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E44" s="1">
         <v>74</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F44" s="1">
         <v>81</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G44" s="1">
         <v>39</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H44" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C45" s="1">
         <v>156</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E45" s="1">
         <v>29</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F45" s="1">
         <v>21</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G45" s="1">
         <v>87</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H45" s="1">
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C46" s="1">
         <v>153</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E46" s="1">
         <v>68</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F46" s="1">
         <v>73</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G46" s="1">
         <v>27</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H46" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C47" s="1">
         <v>153</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E47" s="1">
         <v>68</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F47" s="1">
         <v>74</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G47" s="1">
         <v>52</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H47" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C48" s="1">
         <v>153</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E48" s="1">
         <v>16</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F48" s="1">
         <v>19</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G48" s="1">
         <v>69</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H48" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C49" s="1">
         <v>162</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E49" s="1">
         <v>16</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F49" s="1">
         <v>13</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G49" s="1">
         <v>71</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H49" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C50" s="1">
         <v>163</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E50" s="1">
         <v>87</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F50" s="1">
         <v>94</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G50" s="1">
         <v>13</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H50" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C51" s="1">
         <v>168</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E51" s="1">
         <v>71</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F51" s="1">
         <v>65</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G51" s="1">
         <v>58</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H51" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C52" s="1">
         <v>159</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E52" s="1">
         <v>73</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F52" s="1">
         <v>78</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G52" s="1">
         <v>54</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H52" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C53" s="1">
         <v>145</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E53" s="1">
         <v>68</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F53" s="1">
         <v>72</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G53" s="1">
         <v>22</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H53" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C54" s="1">
         <v>158</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E54" s="1">
         <v>89</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F54" s="1">
         <v>86</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G54" s="1">
         <v>48</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H54" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C55" s="1">
         <v>155</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E55" s="1">
         <v>70</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F55" s="1">
         <v>66</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G55" s="1">
         <v>64</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H55" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C56" s="1">
         <v>158</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E56" s="1">
         <v>73</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F56" s="1">
         <v>68</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G56" s="1">
         <v>59</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H56" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C57" s="1">
         <v>160</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E57" s="1">
         <v>77</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F57" s="1">
         <v>70</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G57" s="1">
         <v>55</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H57" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C58" s="1">
         <v>164</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E58" s="1">
         <v>64</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F58" s="1">
         <v>72</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G58" s="1">
         <v>30</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H58" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C59" s="1">
         <v>158</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E59" s="1">
         <v>39</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F59" s="1">
         <v>61</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G59" s="1">
         <v>65</v>
       </c>
-      <c r="H58" s="2">
+      <c r="H59" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C60" s="1">
         <v>162</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E60" s="1">
         <v>93</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F60" s="1">
         <v>97</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G60" s="1">
         <v>64</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H60" s="1">
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C61" s="1">
         <v>160</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E61" s="1">
         <v>69</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F61" s="1">
         <v>80</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G61" s="1">
         <v>10</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H61" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C62" s="1">
         <v>146</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E62" s="1">
         <v>63</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F62" s="1">
         <v>74</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G62" s="1">
         <v>19</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H62" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C63" s="1">
         <v>155</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E63" s="1">
         <v>41</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F63" s="1">
         <v>45</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G63" s="1">
         <v>72</v>
       </c>
-      <c r="H62" s="2">
+      <c r="H63" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C64" s="1">
         <v>156</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E64" s="1">
         <v>78</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F64" s="1">
         <v>86</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G64" s="1">
         <v>56</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H64" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C65" s="1">
         <v>149</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E65" s="1">
         <v>20</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F65" s="1">
         <v>5</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G65" s="1">
         <v>63</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H65" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C66" s="1">
         <v>164</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E66" s="1">
         <v>62</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F66" s="1">
         <v>71</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G66" s="1">
         <v>88</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H66" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C67" s="1">
         <v>154</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E67" s="1">
         <v>31</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F67" s="1">
         <v>16</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G67" s="1">
         <v>74</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H67" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A67">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C68" s="1">
         <v>163</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E68" s="1">
         <v>84</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F68" s="1">
         <v>70</v>
       </c>
-      <c r="G67" s="2">
+      <c r="G68" s="1">
         <v>68</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H68" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C69" s="1">
         <v>159</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E69" s="1">
         <v>71</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F69" s="1">
         <v>69</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G69" s="1">
         <v>37</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H69" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C70" s="1">
         <v>163</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E70" s="1">
         <v>10</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F70" s="1">
         <v>29</v>
       </c>
-      <c r="G69" s="2">
+      <c r="G70" s="1">
         <v>4</v>
       </c>
-      <c r="H69" s="2">
+      <c r="H70" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C71" s="1">
         <v>155</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E71" s="1">
         <v>27</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F71" s="1">
         <v>30</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G71" s="1">
         <v>54</v>
       </c>
-      <c r="H70" s="2">
+      <c r="H71" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B72" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C72" s="1">
         <v>156</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E72" s="1">
         <v>67</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F72" s="1">
         <v>68</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G72" s="1">
         <v>16</v>
       </c>
-      <c r="H71" s="3">
+      <c r="H72" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C73" s="1">
         <v>161</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E73" s="1">
         <v>59</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F73" s="1">
         <v>67</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G73" s="1">
         <v>12</v>
       </c>
-      <c r="H72" s="2">
+      <c r="H73" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C74" s="1">
         <v>158</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E74" s="1">
         <v>73</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F74" s="1">
         <v>72</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G74" s="1">
         <v>66</v>
       </c>
-      <c r="H73" s="2">
+      <c r="H74" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C75" s="1">
         <v>146</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E75" s="1">
         <v>62</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F75" s="1">
         <v>77</v>
       </c>
-      <c r="G74" s="2">
+      <c r="G75" s="1">
         <v>18</v>
       </c>
-      <c r="H74" s="2">
+      <c r="H75" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C76" s="1">
         <v>157</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E76" s="1">
         <v>25</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F76" s="1">
         <v>38</v>
       </c>
-      <c r="G75" s="2">
+      <c r="G76" s="1">
         <v>82</v>
       </c>
-      <c r="H75" s="2">
+      <c r="H76" s="1">
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C77" s="1">
         <v>155</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E77" s="1">
         <v>78</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F77" s="1">
         <v>93</v>
       </c>
-      <c r="G76" s="2">
+      <c r="G77" s="1">
         <v>40</v>
       </c>
-      <c r="H76" s="2">
+      <c r="H77" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C78" s="1">
         <v>132</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E78" s="1">
         <v>85</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F78" s="1">
         <v>56</v>
       </c>
-      <c r="G77" s="2">
+      <c r="G78" s="1">
         <v>72</v>
       </c>
-      <c r="H77" s="2">
+      <c r="H78" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C79" s="1">
         <v>154</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E79" s="1">
         <v>79</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F79" s="1">
         <v>83</v>
       </c>
-      <c r="G78" s="2">
+      <c r="G79" s="1">
         <v>65</v>
       </c>
-      <c r="H78" s="2">
+      <c r="H79" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C80" s="1">
         <v>167</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E80" s="1">
         <v>74</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F80" s="1">
         <v>59</v>
       </c>
-      <c r="G79" s="2">
+      <c r="G80" s="1">
         <v>81</v>
       </c>
-      <c r="H79" s="2">
+      <c r="H80" s="1">
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C81" s="1">
         <v>148</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E81" s="1">
         <v>84</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F81" s="1">
         <v>93</v>
       </c>
-      <c r="G80" s="2">
+      <c r="G81" s="1">
         <v>55</v>
       </c>
-      <c r="H80" s="2">
+      <c r="H81" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C82" s="1">
         <v>148</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E82" s="1">
         <v>70</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F82" s="1">
         <v>68</v>
       </c>
-      <c r="G81" s="2">
+      <c r="G82" s="1">
         <v>16</v>
       </c>
-      <c r="H81" s="2">
+      <c r="H82" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C83" s="1">
         <v>155</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E83" s="1">
         <v>74</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F83" s="1">
         <v>81</v>
       </c>
-      <c r="G82" s="2">
+      <c r="G83" s="1">
         <v>50</v>
       </c>
-      <c r="H82" s="2">
+      <c r="H83" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C84" s="1">
         <v>147</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E84" s="1">
         <v>81</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F84" s="1">
         <v>34</v>
       </c>
-      <c r="G83" s="2">
+      <c r="G84" s="1">
         <v>84</v>
       </c>
-      <c r="H83" s="2">
+      <c r="H84" s="1">
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A84">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C85" s="1">
         <v>167</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E85" s="1">
         <v>22</v>
       </c>
-      <c r="F84" s="2">
+      <c r="F85" s="1">
         <v>31</v>
       </c>
-      <c r="G84" s="2">
+      <c r="G85" s="1">
         <v>72</v>
       </c>
-      <c r="H84" s="2">
+      <c r="H85" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C86" s="1">
         <v>168</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E86" s="1">
         <v>79</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F86" s="1">
         <v>85</v>
       </c>
-      <c r="G85" s="2">
+      <c r="G86" s="1">
         <v>36</v>
       </c>
-      <c r="H85" s="2">
+      <c r="H86" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C87" s="1">
         <v>159</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E87" s="1">
         <v>66</v>
       </c>
-      <c r="F86" s="2">
+      <c r="F87" s="1">
         <v>64</v>
       </c>
-      <c r="G86" s="2">
+      <c r="G87" s="1">
         <v>56</v>
       </c>
-      <c r="H86" s="2">
+      <c r="H87" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C88" s="1">
         <v>155</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E88" s="1">
         <v>44</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F88" s="1">
         <v>65</v>
       </c>
-      <c r="G87" s="2">
+      <c r="G88" s="1">
         <v>38</v>
       </c>
-      <c r="H87" s="2">
+      <c r="H88" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A88">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C89" s="1">
         <v>156</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E89" s="1">
         <v>79</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F89" s="1">
         <v>31</v>
       </c>
-      <c r="G88" s="2">
+      <c r="G89" s="1">
         <v>92</v>
       </c>
-      <c r="H88" s="2">
+      <c r="H89" s="1">
         <v>93</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C90" s="1">
         <v>153</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E90" s="1">
         <v>23</v>
       </c>
-      <c r="F89" s="2">
+      <c r="F90" s="1">
         <v>7</v>
       </c>
-      <c r="G89" s="2">
+      <c r="G90" s="1">
         <v>64</v>
       </c>
-      <c r="H89" s="2">
+      <c r="H90" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A90">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C91" s="1">
         <v>151</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E91" s="1">
         <v>21</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F91" s="1">
         <v>18</v>
       </c>
-      <c r="G90" s="2">
+      <c r="G91" s="1">
         <v>78</v>
       </c>
-      <c r="H90" s="2">
+      <c r="H91" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A91">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C92" s="1">
         <v>155</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E92" s="1">
         <v>69</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F92" s="1">
         <v>36</v>
       </c>
-      <c r="G91" s="2">
+      <c r="G92" s="1">
         <v>82</v>
       </c>
-      <c r="H91" s="2">
+      <c r="H92" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B93" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C93" s="1">
         <v>157</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E93" s="1">
         <v>42</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F93" s="1">
         <v>32</v>
       </c>
-      <c r="G92" s="3">
+      <c r="G93" s="1">
         <v>86</v>
       </c>
-      <c r="H92" s="3">
+      <c r="H93" s="1">
         <v>82</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A93">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C94" s="1">
         <v>159</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E94" s="1">
         <v>78</v>
       </c>
-      <c r="F93" s="2">
+      <c r="F94" s="1">
         <v>85</v>
       </c>
-      <c r="G93" s="2">
+      <c r="G94" s="1">
         <v>48</v>
       </c>
-      <c r="H93" s="2">
+      <c r="H94" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A94">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C95" s="1">
         <v>163</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E95" s="1">
         <v>64</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F95" s="1">
         <v>70</v>
       </c>
-      <c r="G94" s="2">
+      <c r="G95" s="1">
         <v>34</v>
       </c>
-      <c r="H94" s="2">
+      <c r="H95" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A95">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C96" s="1">
         <v>160</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E96" s="1">
         <v>66</v>
       </c>
-      <c r="F95" s="2">
+      <c r="F96" s="1">
         <v>73</v>
       </c>
-      <c r="G95" s="2">
+      <c r="G96" s="1">
         <v>13</v>
       </c>
-      <c r="H95" s="2">
+      <c r="H96" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A96">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B97" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C97" s="1">
         <v>148</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E97" s="1">
         <v>66</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F97" s="1">
         <v>72</v>
       </c>
-      <c r="G96" s="3">
+      <c r="G97" s="1">
         <v>3</v>
       </c>
-      <c r="H96" s="3">
+      <c r="H97" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A97">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C98" s="1">
         <v>150</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E98" s="1">
         <v>61</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F98" s="1">
         <v>29</v>
       </c>
-      <c r="G97" s="2">
+      <c r="G98" s="1">
         <v>70</v>
       </c>
-      <c r="H97" s="2">
+      <c r="H98" s="1">
         <v>94</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A98">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C99" s="1">
         <v>156</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E99" s="1">
         <v>47</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F99" s="1">
         <v>68</v>
       </c>
-      <c r="G98" s="2">
+      <c r="G99" s="1">
         <v>17</v>
       </c>
-      <c r="H98" s="2">
+      <c r="H99" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A99">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C100" s="1">
         <v>168</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E100" s="1">
         <v>72</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F100" s="1">
         <v>81</v>
       </c>
-      <c r="G99" s="2">
+      <c r="G100" s="1">
         <v>54</v>
       </c>
-      <c r="H99" s="2">
+      <c r="H100" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A100">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C101" s="1">
         <v>169</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E101" s="1">
         <v>66</v>
       </c>
-      <c r="F100" s="2">
+      <c r="F101" s="1">
         <v>68</v>
       </c>
-      <c r="G100" s="2">
+      <c r="G101" s="1">
         <v>26</v>
       </c>
-      <c r="H100" s="2">
+      <c r="H101" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A101">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C102" s="1">
         <v>165</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E102" s="1">
         <v>76</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F102" s="1">
         <v>79</v>
       </c>
-      <c r="G101" s="2">
+      <c r="G102" s="1">
         <v>40</v>
       </c>
-      <c r="H101" s="2">
+      <c r="H102" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A102">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C103" s="1">
         <v>142</v>
       </c>
-      <c r="E102" s="2">
+      <c r="E103" s="1">
         <v>46</v>
       </c>
-      <c r="F102" s="2">
+      <c r="F103" s="1">
         <v>28</v>
       </c>
-      <c r="G102" s="2">
+      <c r="G103" s="1">
         <v>80</v>
       </c>
-      <c r="H102" s="2">
+      <c r="H103" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A103">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C104" s="1">
         <v>147</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E104" s="1">
         <v>56</v>
       </c>
-      <c r="F103" s="2">
+      <c r="F104" s="1">
         <v>64</v>
       </c>
-      <c r="G103" s="2">
+      <c r="G104" s="1">
         <v>68</v>
       </c>
-      <c r="H103" s="2">
+      <c r="H104" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A104">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B105" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C105" s="1">
         <v>163</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E105" s="1">
         <v>48</v>
       </c>
-      <c r="F104" s="3">
+      <c r="F105" s="1">
         <v>63</v>
       </c>
-      <c r="G104" s="3">
+      <c r="G105" s="1">
         <v>25</v>
       </c>
-      <c r="H104" s="3">
+      <c r="H105" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A105">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C106" s="1">
         <v>168</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E106" s="1">
         <v>11</v>
       </c>
-      <c r="F105" s="2">
+      <c r="F106" s="1">
         <v>25</v>
       </c>
-      <c r="G105" s="2">
+      <c r="G106" s="1">
         <v>47</v>
       </c>
-      <c r="H105" s="2">
+      <c r="H106" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A106">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C107" s="1">
         <v>165</v>
       </c>
-      <c r="E106" s="2">
+      <c r="E107" s="1">
         <v>71</v>
       </c>
-      <c r="F106" s="2">
+      <c r="F107" s="1">
         <v>74</v>
       </c>
-      <c r="G106" s="2">
+      <c r="G107" s="1">
         <v>43</v>
       </c>
-      <c r="H106" s="2">
+      <c r="H107" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A107">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C108" s="1">
         <v>169</v>
       </c>
-      <c r="E107" s="2">
+      <c r="E108" s="1">
         <v>73</v>
       </c>
-      <c r="F107" s="2">
+      <c r="F108" s="1">
         <v>70</v>
       </c>
-      <c r="G107" s="2">
+      <c r="G108" s="1">
         <v>40</v>
       </c>
-      <c r="H107" s="2">
+      <c r="H108" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A108">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C109" s="1">
         <v>156</v>
       </c>
-      <c r="E108" s="2">
+      <c r="E109" s="1">
         <v>54</v>
       </c>
-      <c r="F108" s="2">
+      <c r="F109" s="1">
         <v>67</v>
       </c>
-      <c r="G108" s="2">
+      <c r="G109" s="1">
         <v>71</v>
       </c>
-      <c r="H108" s="2">
+      <c r="H109" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>108</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C109" s="2">
-        <v>145</v>
-      </c>
-      <c r="E109" s="2">
-        <v>56</v>
-      </c>
-      <c r="F109" s="2">
-        <v>44</v>
-      </c>
-      <c r="G109" s="2">
-        <v>91</v>
-      </c>
-      <c r="H109" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A110">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110" s="1">
         <v>162</v>
       </c>
-      <c r="E110" s="2">
+      <c r="E110" s="1">
         <v>3</v>
       </c>
-      <c r="F110" s="2">
+      <c r="F110" s="1">
         <v>3</v>
       </c>
-      <c r="G110" s="2">
+      <c r="G110" s="1">
         <v>33</v>
       </c>
-      <c r="H110" s="2">
+      <c r="H110" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A111">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111" s="1">
         <v>139</v>
       </c>
-      <c r="E111" s="2">
+      <c r="E111" s="1">
         <v>89</v>
       </c>
-      <c r="F111" s="2">
+      <c r="F111" s="1">
         <v>50</v>
       </c>
-      <c r="G111" s="2">
+      <c r="G111" s="1">
         <v>85</v>
       </c>
-      <c r="H111" s="2">
+      <c r="H111" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A112">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C112" s="1">
         <v>156</v>
       </c>
-      <c r="E112" s="2">
+      <c r="E112" s="1">
         <v>94</v>
       </c>
-      <c r="F112" s="2">
+      <c r="F112" s="1">
         <v>100</v>
       </c>
-      <c r="G112" s="2">
+      <c r="G112" s="1">
         <v>16</v>
       </c>
-      <c r="H112" s="2">
+      <c r="H112" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A113">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113" s="1">
         <v>161</v>
       </c>
-      <c r="E113" s="2">
+      <c r="E113" s="1">
         <v>76</v>
       </c>
-      <c r="F113" s="2">
+      <c r="F113" s="1">
         <v>72</v>
       </c>
-      <c r="G113" s="2">
+      <c r="G113" s="1">
         <v>73</v>
       </c>
-      <c r="H113" s="2">
+      <c r="H113" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A114">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C114" s="1">
         <v>169</v>
       </c>
-      <c r="E114" s="2">
+      <c r="E114" s="1">
         <v>74</v>
       </c>
-      <c r="F114" s="2">
+      <c r="F114" s="1">
         <v>61</v>
       </c>
-      <c r="G114" s="2">
+      <c r="G114" s="1">
         <v>74</v>
       </c>
-      <c r="H114" s="2">
+      <c r="H114" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A115">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C115" s="1">
         <v>162</v>
       </c>
-      <c r="E115" s="2">
+      <c r="E115" s="1">
         <v>64</v>
       </c>
-      <c r="F115" s="2">
+      <c r="F115" s="1">
         <v>64</v>
       </c>
-      <c r="G115" s="2">
+      <c r="G115" s="1">
         <v>28</v>
       </c>
-      <c r="H115" s="2">
+      <c r="H115" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A116">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C116" s="1">
         <v>169</v>
       </c>
-      <c r="E116" s="2">
+      <c r="E116" s="1">
         <v>64</v>
       </c>
-      <c r="F116" s="2">
+      <c r="F116" s="1">
         <v>66</v>
       </c>
-      <c r="G116" s="2">
+      <c r="G116" s="1">
         <v>38</v>
       </c>
-      <c r="H116" s="2">
+      <c r="H116" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A117">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C117" s="1">
         <v>164</v>
       </c>
-      <c r="E117" s="2">
+      <c r="E117" s="1">
         <v>61</v>
       </c>
-      <c r="F117" s="2">
+      <c r="F117" s="1">
         <v>68</v>
       </c>
-      <c r="G117" s="2">
+      <c r="G117" s="1">
         <v>23</v>
       </c>
-      <c r="H117" s="2">
+      <c r="H117" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A118">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C118" s="1">
         <v>161</v>
       </c>
-      <c r="E118" s="2">
+      <c r="E118" s="1">
         <v>60</v>
       </c>
-      <c r="F118" s="2">
+      <c r="F118" s="1">
         <v>41</v>
       </c>
-      <c r="G118" s="2">
+      <c r="G118" s="1">
         <v>84</v>
       </c>
-      <c r="H118" s="2">
+      <c r="H118" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A119">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C119" s="2">
+      <c r="C119" s="1">
         <v>169</v>
       </c>
-      <c r="E119" s="2">
+      <c r="E119" s="1">
         <v>55</v>
       </c>
-      <c r="F119" s="2">
+      <c r="F119" s="1">
         <v>56</v>
       </c>
-      <c r="G119" s="2">
+      <c r="G119" s="1">
         <v>25</v>
       </c>
-      <c r="H119" s="2">
+      <c r="H119" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A120">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C120" s="2">
+      <c r="C120" s="1">
         <v>165</v>
       </c>
-      <c r="E120" s="2">
+      <c r="E120" s="1">
         <v>32</v>
       </c>
-      <c r="F120" s="2">
+      <c r="F120" s="1">
         <v>39</v>
       </c>
-      <c r="G120" s="2">
+      <c r="G120" s="1">
         <v>83</v>
       </c>
-      <c r="H120" s="2">
+      <c r="H120" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A121">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C121" s="1">
         <v>162</v>
       </c>
-      <c r="E121" s="2">
+      <c r="E121" s="1">
         <v>55</v>
       </c>
-      <c r="F121" s="2">
+      <c r="F121" s="1">
         <v>76</v>
       </c>
-      <c r="G121" s="2">
+      <c r="G121" s="1">
         <v>23</v>
       </c>
-      <c r="H121" s="2">
+      <c r="H121" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A122">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C122" s="2">
+      <c r="C122" s="1">
         <v>159</v>
       </c>
-      <c r="E122" s="2">
+      <c r="E122" s="1">
         <v>32</v>
       </c>
-      <c r="F122" s="2">
+      <c r="F122" s="1">
         <v>60</v>
       </c>
-      <c r="G122" s="2">
+      <c r="G122" s="1">
         <v>25</v>
       </c>
-      <c r="H122" s="2">
+      <c r="H122" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A123">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C123" s="2">
+      <c r="C123" s="1">
         <v>163</v>
       </c>
-      <c r="E123" s="2">
+      <c r="E123" s="1">
         <v>59</v>
       </c>
-      <c r="F123" s="2">
+      <c r="F123" s="1">
         <v>77</v>
       </c>
-      <c r="G123" s="2">
+      <c r="G123" s="1">
         <v>12</v>
       </c>
-      <c r="H123" s="2">
+      <c r="H123" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A124">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C124" s="2">
+      <c r="C124" s="1">
         <v>153</v>
       </c>
-      <c r="E124" s="2">
+      <c r="E124" s="1">
         <v>64</v>
       </c>
-      <c r="F124" s="2">
+      <c r="F124" s="1">
         <v>42</v>
       </c>
-      <c r="G124" s="2">
+      <c r="G124" s="1">
         <v>72</v>
       </c>
-      <c r="H124" s="2">
+      <c r="H124" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A125">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C125" s="2">
+      <c r="C125" s="1">
         <v>169</v>
       </c>
-      <c r="E125" s="2">
+      <c r="E125" s="1">
         <v>56</v>
       </c>
-      <c r="F125" s="2">
+      <c r="F125" s="1">
         <v>67</v>
       </c>
-      <c r="G125" s="2">
+      <c r="G125" s="1">
         <v>27</v>
       </c>
-      <c r="H125" s="2">
+      <c r="H125" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A126">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C126" s="2">
+      <c r="C126" s="1">
         <v>150</v>
       </c>
-      <c r="E126" s="2">
+      <c r="E126" s="1">
         <v>62</v>
       </c>
-      <c r="F126" s="2">
+      <c r="F126" s="1">
         <v>53</v>
       </c>
-      <c r="G126" s="2">
+      <c r="G126" s="1">
         <v>73</v>
       </c>
-      <c r="H126" s="2">
+      <c r="H126" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A127">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C127" s="2">
+      <c r="C127" s="1">
         <v>146</v>
       </c>
-      <c r="E127" s="2">
+      <c r="E127" s="1">
         <v>77</v>
       </c>
-      <c r="F127" s="2">
+      <c r="F127" s="1">
         <v>72</v>
       </c>
-      <c r="G127" s="2">
+      <c r="G127" s="1">
         <v>25</v>
       </c>
-      <c r="H127" s="2">
+      <c r="H127" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A128">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C128" s="2">
+      <c r="C128" s="1">
         <v>167</v>
       </c>
-      <c r="E128" s="2">
+      <c r="E128" s="1">
         <v>68</v>
       </c>
-      <c r="F128" s="2">
+      <c r="F128" s="1">
         <v>81</v>
       </c>
-      <c r="G128" s="2">
+      <c r="G128" s="1">
         <v>18</v>
       </c>
-      <c r="H128" s="2">
+      <c r="H128" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A129">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C129" s="1">
         <v>156</v>
       </c>
-      <c r="E129" s="2">
+      <c r="E129" s="1">
         <v>82</v>
       </c>
-      <c r="F129" s="2">
+      <c r="F129" s="1">
         <v>59</v>
       </c>
-      <c r="G129" s="2">
+      <c r="G129" s="1">
         <v>71</v>
       </c>
-      <c r="H129" s="2">
+      <c r="H129" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A130">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C130" s="2">
+      <c r="C130" s="1">
         <v>157</v>
       </c>
-      <c r="E130" s="2">
+      <c r="E130" s="1">
         <v>68</v>
       </c>
-      <c r="F130" s="2">
+      <c r="F130" s="1">
         <v>76</v>
       </c>
-      <c r="G130" s="2">
+      <c r="G130" s="1">
         <v>36</v>
       </c>
-      <c r="H130" s="2">
+      <c r="H130" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A131">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C131" s="2">
+      <c r="C131" s="1">
         <v>164</v>
       </c>
-      <c r="E131" s="2">
+      <c r="E131" s="1">
         <v>56</v>
       </c>
-      <c r="F131" s="2">
+      <c r="F131" s="1">
         <v>65</v>
       </c>
-      <c r="G131" s="2">
+      <c r="G131" s="1">
         <v>37</v>
       </c>
-      <c r="H131" s="2">
+      <c r="H131" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A132">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C132" s="1">
         <v>156</v>
       </c>
-      <c r="E132" s="2">
+      <c r="E132" s="1">
         <v>62</v>
       </c>
-      <c r="F132" s="2">
+      <c r="F132" s="1">
         <v>42</v>
       </c>
-      <c r="G132" s="2">
+      <c r="G132" s="1">
         <v>72</v>
       </c>
-      <c r="H132" s="2">
+      <c r="H132" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A133">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C133" s="1">
         <v>165</v>
       </c>
-      <c r="E133" s="2">
+      <c r="E133" s="1">
         <v>33</v>
       </c>
-      <c r="F133" s="2">
+      <c r="F133" s="1">
         <v>32</v>
       </c>
-      <c r="G133" s="2">
+      <c r="G133" s="1">
         <v>86</v>
       </c>
-      <c r="H133" s="2">
+      <c r="H133" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A134">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C134" s="2">
+      <c r="C134" s="1">
         <v>157</v>
       </c>
-      <c r="E134" s="2">
+      <c r="E134" s="1">
         <v>66</v>
       </c>
-      <c r="F134" s="2">
+      <c r="F134" s="1">
         <v>71</v>
       </c>
-      <c r="G134" s="2">
+      <c r="G134" s="1">
         <v>9</v>
       </c>
-      <c r="H134" s="2">
+      <c r="H134" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A135">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C135" s="2">
+      <c r="C135" s="1">
         <v>166</v>
       </c>
-      <c r="E135" s="2">
+      <c r="E135" s="1">
         <v>79</v>
       </c>
-      <c r="F135" s="2">
+      <c r="F135" s="1">
         <v>92</v>
       </c>
-      <c r="G135" s="2">
+      <c r="G135" s="1">
         <v>56</v>
       </c>
-      <c r="H135" s="2">
+      <c r="H135" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A136">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C136" s="2">
+      <c r="C136" s="1">
         <v>169</v>
       </c>
-      <c r="E136" s="2">
+      <c r="E136" s="1">
         <v>68</v>
       </c>
-      <c r="F136" s="2">
+      <c r="F136" s="1">
         <v>66</v>
       </c>
-      <c r="G136" s="2">
+      <c r="G136" s="1">
         <v>78</v>
       </c>
-      <c r="H136" s="2">
+      <c r="H136" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A137">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C137" s="2">
+      <c r="C137" s="1">
         <v>162</v>
       </c>
-      <c r="E137" s="2">
+      <c r="E137" s="1">
         <v>58</v>
       </c>
-      <c r="F137" s="2">
+      <c r="F137" s="1">
         <v>39</v>
       </c>
-      <c r="G137" s="2">
+      <c r="G137" s="1">
         <v>90</v>
       </c>
-      <c r="H137" s="2">
+      <c r="H137" s="1">
         <v>95</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A138">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C138" s="2">
+      <c r="C138" s="1">
         <v>154</v>
       </c>
-      <c r="E138" s="2">
+      <c r="E138" s="1">
         <v>71</v>
       </c>
-      <c r="F138" s="2">
+      <c r="F138" s="1">
         <v>65</v>
       </c>
-      <c r="G138" s="2">
+      <c r="G138" s="1">
         <v>66</v>
       </c>
-      <c r="H138" s="2">
+      <c r="H138" s="1">
         <v>53</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A139">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C139" s="2">
+      <c r="C139" s="1">
         <v>150</v>
       </c>
-      <c r="E139" s="2">
+      <c r="E139" s="1">
         <v>64</v>
       </c>
-      <c r="F139" s="2">
+      <c r="F139" s="1">
         <v>50</v>
       </c>
-      <c r="G139" s="2">
+      <c r="G139" s="1">
         <v>71</v>
       </c>
-      <c r="H139" s="2">
+      <c r="H139" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A140">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C140" s="2">
+      <c r="C140" s="1">
         <v>162</v>
       </c>
-      <c r="E140" s="2">
+      <c r="E140" s="1">
         <v>43</v>
       </c>
-      <c r="F140" s="2">
+      <c r="F140" s="1">
         <v>37</v>
       </c>
-      <c r="G140" s="2">
+      <c r="G140" s="1">
         <v>83</v>
       </c>
-      <c r="H140" s="2">
+      <c r="H140" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A141">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C141" s="2">
+      <c r="C141" s="1">
         <v>162</v>
       </c>
-      <c r="E141" s="2">
+      <c r="E141" s="1">
         <v>66</v>
       </c>
-      <c r="F141" s="2">
+      <c r="F141" s="1">
         <v>69</v>
       </c>
-      <c r="G141" s="2">
+      <c r="G141" s="1">
         <v>36</v>
       </c>
-      <c r="H141" s="2">
+      <c r="H141" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A142">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C142" s="2">
+      <c r="C142" s="1">
         <v>163</v>
       </c>
-      <c r="E142" s="2">
+      <c r="E142" s="1">
         <v>65</v>
       </c>
-      <c r="F142" s="2">
+      <c r="F142" s="1">
         <v>70</v>
       </c>
-      <c r="G142" s="2">
+      <c r="G142" s="1">
         <v>49</v>
       </c>
-      <c r="H142" s="2">
+      <c r="H142" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A143">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C143" s="2">
+      <c r="C143" s="1">
         <v>168</v>
       </c>
-      <c r="E143" s="2">
+      <c r="E143" s="1">
         <v>42</v>
       </c>
-      <c r="F143" s="2">
+      <c r="F143" s="1">
         <v>65</v>
       </c>
-      <c r="G143" s="2">
+      <c r="G143" s="1">
         <v>76</v>
       </c>
-      <c r="H143" s="2">
+      <c r="H143" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A144">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C144" s="2">
+      <c r="C144" s="1">
         <v>137</v>
       </c>
-      <c r="E144" s="2">
+      <c r="E144" s="1">
         <v>24</v>
       </c>
-      <c r="F144" s="2">
+      <c r="F144" s="1">
         <v>7</v>
       </c>
-      <c r="G144" s="2">
+      <c r="G144" s="1">
         <v>89</v>
       </c>
-      <c r="H144" s="2">
+      <c r="H144" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A145">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C145" s="2">
+      <c r="C145" s="1">
         <v>152</v>
       </c>
-      <c r="E145" s="2">
+      <c r="E145" s="1">
         <v>45</v>
       </c>
-      <c r="F145" s="2">
+      <c r="F145" s="1">
         <v>58</v>
       </c>
-      <c r="G145" s="2">
+      <c r="G145" s="1">
         <v>25</v>
       </c>
-      <c r="H145" s="2">
+      <c r="H145" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A146">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C146" s="2">
+      <c r="C146" s="1">
         <v>156</v>
       </c>
-      <c r="E146" s="2">
+      <c r="E146" s="1">
         <v>70</v>
       </c>
-      <c r="F146" s="2">
+      <c r="F146" s="1">
         <v>75</v>
       </c>
-      <c r="G146" s="2">
+      <c r="G146" s="1">
         <v>35</v>
       </c>
-      <c r="H146" s="2">
+      <c r="H146" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A147">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
         <v>146</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B147" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C147" s="3">
+      <c r="C147" s="1">
         <v>151</v>
       </c>
-      <c r="E147" s="3">
+      <c r="E147" s="1">
         <v>48</v>
       </c>
-      <c r="F147" s="3">
+      <c r="F147" s="1">
         <v>30</v>
       </c>
-      <c r="G147" s="3">
+      <c r="G147" s="1">
         <v>75</v>
       </c>
-      <c r="H147" s="3">
+      <c r="H147" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A148">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C148" s="2">
+      <c r="C148" s="1">
         <v>161</v>
       </c>
-      <c r="E148" s="2">
+      <c r="E148" s="1">
         <v>82</v>
       </c>
-      <c r="F148" s="2">
+      <c r="F148" s="1">
         <v>95</v>
       </c>
-      <c r="G148" s="2">
+      <c r="G148" s="1">
         <v>24</v>
       </c>
-      <c r="H148" s="2">
+      <c r="H148" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A149">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C149" s="2">
+      <c r="C149" s="1">
         <v>151</v>
       </c>
-      <c r="E149" s="2">
+      <c r="E149" s="1">
         <v>41</v>
       </c>
-      <c r="F149" s="2">
+      <c r="F149" s="1">
         <v>61</v>
       </c>
-      <c r="G149" s="2">
+      <c r="G149" s="1">
         <v>50</v>
       </c>
-      <c r="H149" s="2">
+      <c r="H149" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A150">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C150" s="2">
+      <c r="C150" s="1">
         <v>166</v>
       </c>
-      <c r="E150" s="2">
+      <c r="E150" s="1">
         <v>80</v>
       </c>
-      <c r="F150" s="2">
+      <c r="F150" s="1">
         <v>70</v>
       </c>
-      <c r="G150" s="2">
+      <c r="G150" s="1">
         <v>71</v>
       </c>
-      <c r="H150" s="2">
+      <c r="H150" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A151">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C151" s="2">
+      <c r="C151" s="1">
         <v>163</v>
       </c>
-      <c r="E151" s="2">
+      <c r="E151" s="1">
         <v>51</v>
       </c>
-      <c r="F151" s="2">
+      <c r="F151" s="1">
         <v>75</v>
       </c>
-      <c r="G151" s="2">
+      <c r="G151" s="1">
         <v>17</v>
       </c>
-      <c r="H151" s="2">
+      <c r="H151" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A152">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C152" s="2">
+      <c r="C152" s="1">
         <v>157</v>
       </c>
-      <c r="E152" s="2">
+      <c r="E152" s="1">
         <v>30</v>
       </c>
-      <c r="F152" s="2">
+      <c r="F152" s="1">
         <v>7</v>
       </c>
-      <c r="G152" s="2">
+      <c r="G152" s="1">
         <v>76</v>
       </c>
-      <c r="H152" s="2">
+      <c r="H152" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A153">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C153" s="2">
+      <c r="C153" s="1">
         <v>157</v>
       </c>
-      <c r="E153" s="2">
+      <c r="E153" s="1">
         <v>90</v>
       </c>
-      <c r="F153" s="2">
+      <c r="F153" s="1">
         <v>92</v>
       </c>
-      <c r="G153" s="2">
+      <c r="G153" s="1">
         <v>76</v>
       </c>
-      <c r="H153" s="2">
+      <c r="H153" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A154">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C154" s="2">
+      <c r="C154" s="1">
         <v>163</v>
       </c>
-      <c r="E154" s="2">
+      <c r="E154" s="1">
         <v>91</v>
       </c>
-      <c r="F154" s="2">
+      <c r="F154" s="1">
         <v>92</v>
       </c>
-      <c r="G154" s="2">
+      <c r="G154" s="1">
         <v>64</v>
       </c>
-      <c r="H154" s="2">
+      <c r="H154" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A155">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C155" s="2">
+      <c r="C155" s="1">
         <v>167</v>
       </c>
-      <c r="E155" s="2">
+      <c r="E155" s="1">
         <v>28</v>
       </c>
-      <c r="F155" s="2">
+      <c r="F155" s="1">
         <v>18</v>
       </c>
-      <c r="G155" s="2">
+      <c r="G155" s="1">
         <v>74</v>
       </c>
-      <c r="H155" s="2">
+      <c r="H155" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A156">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C156" s="2">
+      <c r="C156" s="1">
         <v>165</v>
       </c>
-      <c r="E156" s="2">
+      <c r="E156" s="1">
         <v>74</v>
       </c>
-      <c r="F156" s="2">
+      <c r="F156" s="1">
         <v>46</v>
       </c>
-      <c r="G156" s="2">
+      <c r="G156" s="1">
         <v>74</v>
       </c>
-      <c r="H156" s="2">
+      <c r="H156" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A157">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C157" s="2">
+      <c r="C157" s="1">
         <v>151</v>
       </c>
-      <c r="E157" s="2">
+      <c r="E157" s="1">
         <v>67</v>
       </c>
-      <c r="F157" s="2">
+      <c r="F157" s="1">
         <v>74</v>
       </c>
-      <c r="G157" s="2">
+      <c r="G157" s="1">
         <v>7</v>
       </c>
-      <c r="H157" s="2">
+      <c r="H157" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A158">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C158" s="2">
+      <c r="C158" s="1">
         <v>169</v>
       </c>
-      <c r="E158" s="2">
+      <c r="E158" s="1">
         <v>84</v>
       </c>
-      <c r="F158" s="2">
+      <c r="F158" s="1">
         <v>91</v>
       </c>
-      <c r="G158" s="2">
+      <c r="G158" s="1">
         <v>52</v>
       </c>
-      <c r="H158" s="2">
+      <c r="H158" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A159">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C159" s="2">
+      <c r="C159" s="1">
         <v>147</v>
       </c>
-      <c r="E159" s="2">
+      <c r="E159" s="1">
         <v>76</v>
       </c>
-      <c r="F159" s="2">
+      <c r="F159" s="1">
         <v>71</v>
       </c>
-      <c r="G159" s="2">
+      <c r="G159" s="1">
         <v>40</v>
       </c>
-      <c r="H159" s="2">
+      <c r="H159" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A160">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C160" s="2">
+      <c r="C160" s="1">
         <v>155</v>
       </c>
-      <c r="E160" s="2">
+      <c r="E160" s="1">
         <v>45</v>
       </c>
-      <c r="F160" s="2">
+      <c r="F160" s="1">
         <v>68</v>
       </c>
-      <c r="G160" s="2">
+      <c r="G160" s="1">
         <v>64</v>
       </c>
-      <c r="H160" s="2">
+      <c r="H160" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A161">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C161" s="2">
+      <c r="C161" s="1">
         <v>152</v>
       </c>
-      <c r="E161" s="2">
+      <c r="E161" s="1">
         <v>13</v>
       </c>
-      <c r="F161" s="2">
+      <c r="F161" s="1">
         <v>13</v>
       </c>
-      <c r="G161" s="2">
+      <c r="G161" s="1">
         <v>82</v>
       </c>
-      <c r="H161" s="2">
+      <c r="H161" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A162">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C162" s="2">
+      <c r="C162" s="1">
         <v>155</v>
       </c>
-      <c r="E162" s="2">
+      <c r="E162" s="1">
         <v>18</v>
       </c>
-      <c r="F162" s="2">
+      <c r="F162" s="1">
         <v>6</v>
       </c>
-      <c r="G162" s="2">
+      <c r="G162" s="1">
         <v>37</v>
       </c>
-      <c r="H162" s="2">
+      <c r="H162" s="1">
         <v>82</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A163">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C163" s="2">
+      <c r="C163" s="1">
         <v>163</v>
       </c>
-      <c r="E163" s="2">
+      <c r="E163" s="1">
         <v>51</v>
       </c>
-      <c r="F163" s="2">
+      <c r="F163" s="1">
         <v>11</v>
       </c>
-      <c r="G163" s="2">
+      <c r="G163" s="1">
         <v>99</v>
       </c>
-      <c r="H163" s="2">
+      <c r="H163" s="1">
         <v>96</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A164">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C164" s="2">
+      <c r="C164" s="1">
         <v>157</v>
       </c>
-      <c r="E164" s="2">
+      <c r="E164" s="1">
         <v>70</v>
       </c>
-      <c r="F164" s="2">
+      <c r="F164" s="1">
         <v>21</v>
       </c>
-      <c r="G164" s="2">
+      <c r="G164" s="1">
         <v>89</v>
       </c>
-      <c r="H164" s="2">
+      <c r="H164" s="1">
         <v>94</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A165">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C165" s="2">
+      <c r="C165" s="1">
         <v>142</v>
       </c>
-      <c r="E165" s="2">
+      <c r="E165" s="1">
         <v>66</v>
       </c>
-      <c r="F165" s="2">
+      <c r="F165" s="1">
         <v>69</v>
       </c>
-      <c r="G165" s="2">
+      <c r="G165" s="1">
         <v>24</v>
       </c>
-      <c r="H165" s="2">
+      <c r="H165" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A166">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C166" s="2">
+      <c r="C166" s="1">
         <v>163</v>
       </c>
-      <c r="E166" s="2">
+      <c r="E166" s="1">
         <v>72</v>
       </c>
-      <c r="F166" s="2">
+      <c r="F166" s="1">
         <v>70</v>
       </c>
-      <c r="G166" s="2">
+      <c r="G166" s="1">
         <v>54</v>
       </c>
-      <c r="H166" s="2">
+      <c r="H166" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A167">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C167" s="2">
+      <c r="C167" s="1">
         <v>145</v>
       </c>
-      <c r="E167" s="2">
+      <c r="E167" s="1">
         <v>65</v>
       </c>
-      <c r="F167" s="2">
+      <c r="F167" s="1">
         <v>78</v>
       </c>
-      <c r="G167" s="2">
+      <c r="G167" s="1">
         <v>21</v>
       </c>
-      <c r="H167" s="2">
+      <c r="H167" s="1">
         <v>57</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A168">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C168" s="2">
+      <c r="C168" s="1">
         <v>153</v>
       </c>
-      <c r="E168" s="2">
+      <c r="E168" s="1">
         <v>77</v>
       </c>
-      <c r="F168" s="2">
+      <c r="F168" s="1">
         <v>82</v>
       </c>
-      <c r="G168" s="2">
+      <c r="G168" s="1">
         <v>67</v>
       </c>
-      <c r="H168" s="2">
+      <c r="H168" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A169">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C169" s="2">
+      <c r="C169" s="1">
         <v>151</v>
       </c>
-      <c r="E169" s="2">
+      <c r="E169" s="1">
         <v>52</v>
       </c>
-      <c r="F169" s="2">
+      <c r="F169" s="1">
         <v>59</v>
       </c>
-      <c r="G169" s="2">
+      <c r="G169" s="1">
         <v>41</v>
       </c>
-      <c r="H169" s="2">
+      <c r="H169" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A170">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C170" s="2">
+      <c r="C170" s="1">
         <v>163</v>
       </c>
-      <c r="E170" s="2">
+      <c r="E170" s="1">
         <v>32</v>
       </c>
-      <c r="F170" s="2">
+      <c r="F170" s="1">
         <v>27</v>
       </c>
-      <c r="G170" s="2">
+      <c r="G170" s="1">
         <v>78</v>
       </c>
-      <c r="H170" s="2">
+      <c r="H170" s="1">
         <v>82</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A171">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C171" s="2">
+      <c r="C171" s="1">
         <v>168</v>
       </c>
-      <c r="E171" s="2">
+      <c r="E171" s="1">
         <v>76</v>
       </c>
-      <c r="F171" s="2">
+      <c r="F171" s="1">
         <v>54</v>
       </c>
-      <c r="G171" s="2">
+      <c r="G171" s="1">
         <v>75</v>
       </c>
-      <c r="H171" s="2">
+      <c r="H171" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A172">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C172" s="2">
+      <c r="C172" s="1">
         <v>158</v>
       </c>
-      <c r="E172" s="2">
+      <c r="E172" s="1">
         <v>29</v>
       </c>
-      <c r="F172" s="2">
+      <c r="F172" s="1">
         <v>26</v>
       </c>
-      <c r="G172" s="2">
+      <c r="G172" s="1">
         <v>73</v>
       </c>
-      <c r="H172" s="2">
+      <c r="H172" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A173">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C173" s="2">
+      <c r="C173" s="1">
         <v>160</v>
       </c>
-      <c r="E173" s="2">
+      <c r="E173" s="1">
         <v>83</v>
       </c>
-      <c r="F173" s="2">
+      <c r="F173" s="1">
         <v>95</v>
       </c>
-      <c r="G173" s="2">
+      <c r="G173" s="1">
         <v>33</v>
       </c>
-      <c r="H173" s="2">
+      <c r="H173" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A174">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C174" s="2">
+      <c r="C174" s="1">
         <v>159</v>
       </c>
-      <c r="E174" s="2">
+      <c r="E174" s="1">
         <v>56</v>
       </c>
-      <c r="F174" s="2">
+      <c r="F174" s="1">
         <v>64</v>
       </c>
-      <c r="G174" s="2">
+      <c r="G174" s="1">
         <v>25</v>
       </c>
-      <c r="H174" s="2">
+      <c r="H174" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A175">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C175" s="2">
+      <c r="C175" s="1">
         <v>153</v>
       </c>
-      <c r="E175" s="2">
+      <c r="E175" s="1">
         <v>59</v>
       </c>
-      <c r="F175" s="2">
+      <c r="F175" s="1">
         <v>68</v>
       </c>
-      <c r="G175" s="2">
+      <c r="G175" s="1">
         <v>21</v>
       </c>
-      <c r="H175" s="2">
+      <c r="H175" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A176">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C176" s="2">
+      <c r="C176" s="1">
         <v>152</v>
       </c>
-      <c r="E176" s="2">
+      <c r="E176" s="1">
         <v>15</v>
       </c>
-      <c r="F176" s="2">
+      <c r="F176" s="1">
         <v>14</v>
       </c>
-      <c r="G176" s="2">
+      <c r="G176" s="1">
         <v>59</v>
       </c>
-      <c r="H176" s="2">
+      <c r="H176" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A177">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C177" s="2">
+      <c r="C177" s="1">
         <v>167</v>
       </c>
-      <c r="E177" s="2">
+      <c r="E177" s="1">
         <v>70</v>
       </c>
-      <c r="F177" s="2">
+      <c r="F177" s="1">
         <v>71</v>
       </c>
-      <c r="G177" s="2">
+      <c r="G177" s="1">
         <v>57</v>
       </c>
-      <c r="H177" s="2">
+      <c r="H177" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A178">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C178" s="2">
+      <c r="C178" s="1">
         <v>162</v>
       </c>
-      <c r="E178" s="2">
+      <c r="E178" s="1">
         <v>25</v>
       </c>
-      <c r="F178" s="2">
+      <c r="F178" s="1">
         <v>24</v>
       </c>
-      <c r="G178" s="2">
+      <c r="G178" s="1">
         <v>85</v>
       </c>
-      <c r="H178" s="2">
+      <c r="H178" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A179">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C179" s="2">
+      <c r="C179" s="1">
         <v>159</v>
       </c>
-      <c r="E179" s="2">
+      <c r="E179" s="1">
         <v>82</v>
       </c>
-      <c r="F179" s="2">
+      <c r="F179" s="1">
         <v>76</v>
       </c>
-      <c r="G179" s="2">
+      <c r="G179" s="1">
         <v>57</v>
       </c>
-      <c r="H179" s="2">
+      <c r="H179" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A180">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C180" s="2">
+      <c r="C180" s="1">
         <v>158</v>
       </c>
-      <c r="E180" s="2">
+      <c r="E180" s="1">
         <v>68</v>
       </c>
-      <c r="F180" s="2">
+      <c r="F180" s="1">
         <v>79</v>
       </c>
-      <c r="G180" s="2">
+      <c r="G180" s="1">
         <v>29</v>
       </c>
-      <c r="H180" s="2">
+      <c r="H180" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A181">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C181" s="2">
+      <c r="C181" s="1">
         <v>164</v>
       </c>
-      <c r="E181" s="2">
+      <c r="E181" s="1">
         <v>37</v>
       </c>
-      <c r="F181" s="2">
+      <c r="F181" s="1">
         <v>48</v>
       </c>
-      <c r="G181" s="2">
+      <c r="G181" s="1">
         <v>81</v>
       </c>
-      <c r="H181" s="2">
+      <c r="H181" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A182">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C182" s="2">
+      <c r="C182" s="1">
         <v>154</v>
       </c>
-      <c r="E182" s="2">
+      <c r="E182" s="1">
         <v>80</v>
       </c>
-      <c r="F182" s="2">
+      <c r="F182" s="1">
         <v>68</v>
       </c>
-      <c r="G182" s="2">
+      <c r="G182" s="1">
         <v>77</v>
       </c>
-      <c r="H182" s="2">
+      <c r="H182" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A183">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C183" s="2">
+      <c r="C183" s="1">
         <v>155</v>
       </c>
-      <c r="E183" s="2">
+      <c r="E183" s="1">
         <v>49</v>
       </c>
-      <c r="F183" s="2">
+      <c r="F183" s="1">
         <v>66</v>
       </c>
-      <c r="G183" s="2">
+      <c r="G183" s="1">
         <v>15</v>
       </c>
-      <c r="H183" s="2">
+      <c r="H183" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A184">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C184" s="2">
+      <c r="C184" s="1">
         <v>150</v>
       </c>
-      <c r="E184" s="2">
+      <c r="E184" s="1">
         <v>61</v>
       </c>
-      <c r="F184" s="2">
+      <c r="F184" s="1">
         <v>43</v>
       </c>
-      <c r="G184" s="2">
+      <c r="G184" s="1">
         <v>76</v>
       </c>
-      <c r="H184" s="2">
+      <c r="H184" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A185">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C185" s="2">
+      <c r="C185" s="1">
         <v>163</v>
       </c>
-      <c r="E185" s="2">
+      <c r="E185" s="1">
         <v>27</v>
       </c>
-      <c r="F185" s="2">
+      <c r="F185" s="1">
         <v>18</v>
       </c>
-      <c r="G185" s="2">
+      <c r="G185" s="1">
         <v>43</v>
       </c>
-      <c r="H185" s="2">
+      <c r="H185" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A186">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C186" s="2">
+      <c r="C186" s="1">
         <v>165</v>
       </c>
-      <c r="E186" s="2">
+      <c r="E186" s="1">
         <v>75</v>
       </c>
-      <c r="F186" s="2">
+      <c r="F186" s="1">
         <v>72</v>
       </c>
-      <c r="G186" s="2">
+      <c r="G186" s="1">
         <v>52</v>
       </c>
-      <c r="H186" s="2">
+      <c r="H186" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A187">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C187" s="2">
+      <c r="C187" s="1">
         <v>161</v>
       </c>
-      <c r="E187" s="2">
+      <c r="E187" s="1">
         <v>65</v>
       </c>
-      <c r="F187" s="2">
+      <c r="F187" s="1">
         <v>71</v>
       </c>
-      <c r="G187" s="2">
+      <c r="G187" s="1">
         <v>11</v>
       </c>
-      <c r="H187" s="2">
+      <c r="H187" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A188">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C188" s="2">
+      <c r="C188" s="1">
         <v>148</v>
       </c>
-      <c r="E188" s="2">
+      <c r="E188" s="1">
         <v>83</v>
       </c>
-      <c r="F188" s="2">
+      <c r="F188" s="1">
         <v>70</v>
       </c>
-      <c r="G188" s="2">
+      <c r="G188" s="1">
         <v>72</v>
       </c>
-      <c r="H188" s="2">
+      <c r="H188" s="1">
         <v>86</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A189">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C189" s="2">
+      <c r="C189" s="1">
         <v>156</v>
       </c>
-      <c r="E189" s="2">
+      <c r="E189" s="1">
         <v>72</v>
       </c>
-      <c r="F189" s="2">
+      <c r="F189" s="1">
         <v>71</v>
       </c>
-      <c r="G189" s="2">
+      <c r="G189" s="1">
         <v>42</v>
       </c>
-      <c r="H189" s="2">
+      <c r="H189" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A190">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C190" s="2">
+      <c r="C190" s="1">
         <v>167</v>
       </c>
-      <c r="E190" s="2">
+      <c r="E190" s="1">
         <v>83</v>
       </c>
-      <c r="F190" s="2">
+      <c r="F190" s="1">
         <v>98</v>
       </c>
-      <c r="G190" s="2">
+      <c r="G190" s="1">
         <v>22</v>
       </c>
-      <c r="H190" s="2">
+      <c r="H190" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A191">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C191" s="2">
+      <c r="C191" s="1">
         <v>153</v>
       </c>
-      <c r="E191" s="2">
+      <c r="E191" s="1">
         <v>31</v>
       </c>
-      <c r="F191" s="2">
+      <c r="F191" s="1">
         <v>11</v>
       </c>
-      <c r="G191" s="2">
+      <c r="G191" s="1">
         <v>96</v>
       </c>
-      <c r="H191" s="2">
+      <c r="H191" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A192">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C192" s="2">
+      <c r="C192" s="1">
         <v>144</v>
       </c>
-      <c r="E192" s="2">
+      <c r="E192" s="1">
         <v>65</v>
       </c>
-      <c r="F192" s="2">
+      <c r="F192" s="1">
         <v>70</v>
       </c>
-      <c r="G192" s="2">
+      <c r="G192" s="1">
         <v>56</v>
       </c>
-      <c r="H192" s="2">
+      <c r="H192" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A193">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C193" s="2">
+      <c r="C193" s="1">
         <v>140</v>
       </c>
-      <c r="E193" s="2">
+      <c r="E193" s="1">
         <v>92</v>
       </c>
-      <c r="F193" s="2">
+      <c r="F193" s="1">
         <v>26</v>
       </c>
-      <c r="G193" s="2">
+      <c r="G193" s="1">
         <v>82</v>
       </c>
-      <c r="H193" s="2">
+      <c r="H193" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A194">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C194" s="2">
+      <c r="C194" s="1">
         <v>153</v>
       </c>
-      <c r="E194" s="2">
+      <c r="E194" s="1">
         <v>81</v>
       </c>
-      <c r="F194" s="2">
+      <c r="F194" s="1">
         <v>82</v>
       </c>
-      <c r="G194" s="2">
+      <c r="G194" s="1">
         <v>49</v>
       </c>
-      <c r="H194" s="2">
+      <c r="H194" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A195">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C195" s="2">
+      <c r="C195" s="1">
         <v>169</v>
       </c>
-      <c r="E195" s="2">
+      <c r="E195" s="1">
         <v>94</v>
       </c>
-      <c r="F195" s="2">
+      <c r="F195" s="1">
         <v>90</v>
       </c>
-      <c r="G195" s="2">
+      <c r="G195" s="1">
         <v>72</v>
       </c>
-      <c r="H195" s="2">
+      <c r="H195" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A196">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C196" s="2">
+      <c r="C196" s="1">
         <v>163</v>
       </c>
-      <c r="E196" s="2">
+      <c r="E196" s="1">
         <v>41</v>
       </c>
-      <c r="F196" s="2">
+      <c r="F196" s="1">
         <v>33</v>
       </c>
-      <c r="G196" s="2">
+      <c r="G196" s="1">
         <v>80</v>
       </c>
-      <c r="H196" s="2">
+      <c r="H196" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A197">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C197" s="2">
+      <c r="C197" s="1">
         <v>155</v>
       </c>
-      <c r="E197" s="2">
+      <c r="E197" s="1">
         <v>46</v>
       </c>
-      <c r="F197" s="2">
+      <c r="F197" s="1">
         <v>50</v>
       </c>
-      <c r="G197" s="2">
+      <c r="G197" s="1">
         <v>73</v>
       </c>
-      <c r="H197" s="2">
+      <c r="H197" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A198">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C198" s="2">
+      <c r="C198" s="1">
         <v>169</v>
       </c>
-      <c r="E198" s="2">
+      <c r="E198" s="1">
         <v>85</v>
       </c>
-      <c r="F198" s="2">
+      <c r="F198" s="1">
         <v>89</v>
       </c>
-      <c r="G198" s="2">
+      <c r="G198" s="1">
         <v>62</v>
       </c>
-      <c r="H198" s="2">
+      <c r="H198" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A199">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C199" s="2">
+      <c r="C199" s="1">
         <v>154</v>
       </c>
-      <c r="E199" s="2">
+      <c r="E199" s="1">
         <v>82</v>
       </c>
-      <c r="F199" s="2">
+      <c r="F199" s="1">
         <v>72</v>
       </c>
-      <c r="G199" s="2">
+      <c r="G199" s="1">
         <v>49</v>
       </c>
-      <c r="H199" s="2">
+      <c r="H199" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A200">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C200" s="2">
+      <c r="C200" s="1">
         <v>153</v>
       </c>
-      <c r="E200" s="2">
+      <c r="E200" s="1">
         <v>79</v>
       </c>
-      <c r="F200" s="2">
+      <c r="F200" s="1">
         <v>83</v>
       </c>
-      <c r="G200" s="2">
+      <c r="G200" s="1">
         <v>58</v>
       </c>
-      <c r="H200" s="2">
+      <c r="H200" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A201">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C201" s="2">
+      <c r="C201" s="1">
         <v>151</v>
       </c>
-      <c r="E201" s="2">
+      <c r="E201" s="1">
         <v>70</v>
       </c>
-      <c r="F201" s="2">
+      <c r="F201" s="1">
         <v>72</v>
       </c>
-      <c r="G201" s="2">
+      <c r="G201" s="1">
         <v>63</v>
       </c>
-      <c r="H201" s="2">
+      <c r="H201" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A202">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C202" s="2">
+      <c r="C202" s="1">
         <v>154</v>
       </c>
-      <c r="E202" s="2">
+      <c r="E202" s="1">
         <v>71</v>
       </c>
-      <c r="F202" s="2">
+      <c r="F202" s="1">
         <v>72</v>
       </c>
-      <c r="G202" s="2">
+      <c r="G202" s="1">
         <v>37</v>
       </c>
-      <c r="H202" s="2">
+      <c r="H202" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A203">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C203" s="2">
+      <c r="C203" s="1">
         <v>163</v>
       </c>
-      <c r="E203" s="2">
+      <c r="E203" s="1">
         <v>72</v>
       </c>
-      <c r="F203" s="2">
+      <c r="F203" s="1">
         <v>68</v>
       </c>
-      <c r="G203" s="2">
+      <c r="G203" s="1">
         <v>64</v>
       </c>
-      <c r="H203" s="2">
+      <c r="H203" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A204">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C204" s="2">
+      <c r="C204" s="1">
         <v>156</v>
       </c>
-      <c r="E204" s="2">
+      <c r="E204" s="1">
         <v>41</v>
       </c>
-      <c r="F204" s="2">
+      <c r="F204" s="1">
         <v>4</v>
       </c>
-      <c r="G204" s="2">
+      <c r="G204" s="1">
         <v>97</v>
       </c>
-      <c r="H204" s="2">
+      <c r="H204" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A205">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C205" s="2">
+      <c r="C205" s="1">
         <v>168</v>
       </c>
-      <c r="E205" s="2">
+      <c r="E205" s="1">
         <v>18</v>
       </c>
-      <c r="F205" s="2">
+      <c r="F205" s="1">
         <v>20</v>
       </c>
-      <c r="G205" s="2">
+      <c r="G205" s="1">
         <v>61</v>
       </c>
-      <c r="H205" s="2">
+      <c r="H205" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A206">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C206" s="2">
+      <c r="C206" s="1">
         <v>156</v>
       </c>
-      <c r="E206" s="2">
+      <c r="E206" s="1">
         <v>59</v>
       </c>
-      <c r="F206" s="2">
+      <c r="F206" s="1">
         <v>73</v>
       </c>
-      <c r="G206" s="2">
+      <c r="G206" s="1">
         <v>26</v>
       </c>
-      <c r="H206" s="2">
+      <c r="H206" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A207">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C207" s="2">
+      <c r="C207" s="1">
         <v>168</v>
       </c>
-      <c r="E207" s="2">
+      <c r="E207" s="1">
         <v>88</v>
       </c>
-      <c r="F207" s="2">
+      <c r="F207" s="1">
         <v>96</v>
       </c>
-      <c r="G207" s="2">
+      <c r="G207" s="1">
         <v>72</v>
       </c>
-      <c r="H207" s="2">
+      <c r="H207" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A208">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C208" s="2">
+      <c r="C208" s="1">
         <v>151</v>
       </c>
-      <c r="E208" s="2">
+      <c r="E208" s="1">
         <v>60</v>
       </c>
-      <c r="F208" s="2">
+      <c r="F208" s="1">
         <v>15</v>
       </c>
-      <c r="G208" s="2">
+      <c r="G208" s="1">
         <v>95</v>
       </c>
-      <c r="H208" s="2">
+      <c r="H208" s="1">
         <v>77</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A209">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C209" s="2">
+      <c r="C209" s="1">
         <v>164</v>
       </c>
-      <c r="E209" s="2">
+      <c r="E209" s="1">
         <v>66</v>
       </c>
-      <c r="F209" s="2">
+      <c r="F209" s="1">
         <v>83</v>
       </c>
-      <c r="G209" s="2">
+      <c r="G209" s="1">
         <v>39</v>
       </c>
-      <c r="H209" s="2">
+      <c r="H209" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A210">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C210" s="2">
+      <c r="C210" s="1">
         <v>159</v>
       </c>
-      <c r="E210" s="2">
+      <c r="E210" s="1">
         <v>68</v>
       </c>
-      <c r="F210" s="2">
+      <c r="F210" s="1">
         <v>69</v>
       </c>
-      <c r="G210" s="2">
+      <c r="G210" s="1">
         <v>57</v>
       </c>
-      <c r="H210" s="2">
+      <c r="H210" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A211">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C211" s="2">
+      <c r="C211" s="1">
         <v>149</v>
       </c>
-      <c r="E211" s="2">
+      <c r="E211" s="1">
         <v>81</v>
       </c>
-      <c r="F211" s="2">
+      <c r="F211" s="1">
         <v>40</v>
       </c>
-      <c r="G211" s="2">
+      <c r="G211" s="1">
         <v>77</v>
       </c>
-      <c r="H211" s="2">
+      <c r="H211" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A212">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C212" s="2">
+      <c r="C212" s="1">
         <v>156</v>
       </c>
-      <c r="E212" s="2">
+      <c r="E212" s="1">
         <v>70</v>
       </c>
-      <c r="F212" s="2">
+      <c r="F212" s="1">
         <v>58</v>
       </c>
-      <c r="G212" s="2">
+      <c r="G212" s="1">
         <v>74</v>
       </c>
-      <c r="H212" s="2">
+      <c r="H212" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A213">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C213" s="2">
+      <c r="C213" s="1">
         <v>148</v>
       </c>
-      <c r="E213" s="2">
+      <c r="E213" s="1">
         <v>68</v>
       </c>
-      <c r="F213" s="2">
+      <c r="F213" s="1">
         <v>71</v>
       </c>
-      <c r="G213" s="2">
+      <c r="G213" s="1">
         <v>45</v>
       </c>
-      <c r="H213" s="2">
+      <c r="H213" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A214">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C214" s="2">
+      <c r="C214" s="1">
         <v>144</v>
       </c>
-      <c r="E214" s="2">
+      <c r="E214" s="1">
         <v>72</v>
       </c>
-      <c r="F214" s="2">
+      <c r="F214" s="1">
         <v>70</v>
       </c>
-      <c r="G214" s="2">
+      <c r="G214" s="1">
         <v>57</v>
       </c>
-      <c r="H214" s="2">
+      <c r="H214" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A215">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C215" s="2">
+      <c r="C215" s="1">
         <v>155</v>
       </c>
-      <c r="E215" s="2">
+      <c r="E215" s="1">
         <v>72</v>
       </c>
-      <c r="F215" s="2">
+      <c r="F215" s="1">
         <v>70</v>
       </c>
-      <c r="G215" s="2">
+      <c r="G215" s="1">
         <v>53</v>
       </c>
-      <c r="H215" s="2">
+      <c r="H215" s="1">
         <v>64</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L215" xr:uid="{89305038-FD30-4DAE-BACD-3941455459E3}">
+    <sortState ref="A2:L215">
+      <sortCondition ref="D1:D215"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/code/数据库设计/武将设计.xlsx
+++ b/code/数据库设计/武将设计.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F97313-A788-4011-A8FF-4079288272D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496E6CB9-47A6-46F7-BA44-1E86B74A280E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -729,7 +729,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -745,15 +745,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -764,7 +760,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -772,34 +768,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1084,18 +1060,19 @@
   <dimension ref="A1:L215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1136,4954 +1113,6015 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>155</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>99</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>72</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>96</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>92</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>161</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>75</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <v>74</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
         <v>78</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>155</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>96</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>91</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>78</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>135</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>25</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5">
         <v>30</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <v>54</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>139</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>69</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6">
         <v>83</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6">
         <v>19</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>156</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>81</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7">
         <v>80</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7">
         <v>65</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>153</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
         <v>82</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8">
         <v>85</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <v>41</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>132</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9">
         <v>47</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9">
         <v>37</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9">
         <v>57</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>132</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10">
         <v>51</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10">
         <v>36</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10">
         <v>81</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10">
         <v>76</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>225</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>152</v>
       </c>
-      <c r="E11" s="3">
+      <c r="D11"/>
+      <c r="E11">
         <v>72</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11">
         <v>64</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11">
         <v>73</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>224</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>169</v>
       </c>
-      <c r="E12" s="3">
+      <c r="D12"/>
+      <c r="E12">
         <v>57</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12">
         <v>68</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12">
         <v>45</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>223</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>166</v>
       </c>
-      <c r="E13" s="2">
+      <c r="D13"/>
+      <c r="E13">
         <v>43</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13">
         <v>50</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13">
         <v>34</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>222</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>155</v>
       </c>
-      <c r="E14" s="2">
+      <c r="D14"/>
+      <c r="E14">
         <v>75</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14">
         <v>67</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14">
         <v>77</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14">
         <v>76</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="s">
         <v>221</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
         <v>168</v>
       </c>
-      <c r="E15" s="3">
+      <c r="D15"/>
+      <c r="E15">
         <v>45</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15">
         <v>53</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15">
         <v>24</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>220</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>151</v>
       </c>
-      <c r="E16" s="2">
+      <c r="D16"/>
+      <c r="E16">
         <v>61</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16">
         <v>73</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16">
         <v>28</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>219</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>169</v>
       </c>
-      <c r="E17" s="2">
+      <c r="D17"/>
+      <c r="E17">
         <v>80</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17">
         <v>81</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17">
         <v>24</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" t="s">
         <v>218</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18">
         <v>168</v>
       </c>
-      <c r="E18" s="3">
+      <c r="D18"/>
+      <c r="E18">
         <v>86</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18">
         <v>88</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18">
         <v>49</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>217</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19">
         <v>163</v>
       </c>
-      <c r="E19" s="2">
+      <c r="D19"/>
+      <c r="E19">
         <v>58</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19">
         <v>71</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19">
         <v>29</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>216</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20">
         <v>164</v>
       </c>
-      <c r="E20" s="2">
+      <c r="D20"/>
+      <c r="E20">
         <v>47</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20">
         <v>51</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20">
         <v>57</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>215</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21">
         <v>169</v>
       </c>
-      <c r="E21" s="2">
+      <c r="D21"/>
+      <c r="E21">
         <v>79</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21">
         <v>65</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21">
         <v>81</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21">
         <v>80</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>214</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22">
         <v>154</v>
       </c>
-      <c r="E22" s="2">
+      <c r="D22"/>
+      <c r="E22">
         <v>72</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22">
         <v>52</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22">
         <v>81</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22">
         <v>89</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>213</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23">
         <v>132</v>
       </c>
-      <c r="E23" s="2">
+      <c r="D23"/>
+      <c r="E23">
         <v>21</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23">
         <v>5</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23">
         <v>80</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23">
         <v>82</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>212</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24">
         <v>161</v>
       </c>
-      <c r="E24" s="2">
+      <c r="D24"/>
+      <c r="E24">
         <v>69</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24">
         <v>66</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24">
         <v>31</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>211</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25">
         <v>165</v>
       </c>
-      <c r="E25" s="2">
+      <c r="D25"/>
+      <c r="E25">
         <v>64</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25">
         <v>68</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25">
         <v>50</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>210</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26">
         <v>157</v>
       </c>
-      <c r="E26" s="2">
+      <c r="D26"/>
+      <c r="E26">
         <v>67</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26">
         <v>72</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26">
         <v>17</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26">
         <v>56</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>209</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27">
         <v>160</v>
       </c>
-      <c r="E27" s="2">
+      <c r="D27"/>
+      <c r="E27">
         <v>9</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27">
         <v>9</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27">
         <v>80</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27">
         <v>71</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>208</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28">
         <v>167</v>
       </c>
-      <c r="E28" s="2">
+      <c r="D28"/>
+      <c r="E28">
         <v>21</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28">
         <v>7</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28">
         <v>95</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28">
         <v>72</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>207</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29">
         <v>168</v>
       </c>
-      <c r="E29" s="2">
+      <c r="D29"/>
+      <c r="E29">
         <v>74</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29">
         <v>70</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29">
         <v>56</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>206</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30">
         <v>151</v>
       </c>
-      <c r="E30" s="2">
+      <c r="D30"/>
+      <c r="E30">
         <v>83</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30">
         <v>84</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30">
         <v>76</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30">
         <v>78</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>205</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31">
         <v>169</v>
       </c>
-      <c r="E31" s="2">
+      <c r="D31"/>
+      <c r="E31">
         <v>73</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31">
         <v>71</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31">
         <v>36</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31">
         <v>49</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>204</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32">
         <v>141</v>
       </c>
-      <c r="E32" s="2">
+      <c r="D32"/>
+      <c r="E32">
         <v>70</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32">
         <v>55</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32">
         <v>76</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32">
         <v>92</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>203</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33">
         <v>145</v>
       </c>
-      <c r="E33" s="2">
+      <c r="D33"/>
+      <c r="E33">
         <v>74</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33">
         <v>76</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33">
         <v>34</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>202</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34">
         <v>146</v>
       </c>
-      <c r="E34" s="2">
+      <c r="D34"/>
+      <c r="E34">
         <v>70</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34">
         <v>68</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34">
         <v>27</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34">
         <v>25</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>201</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35">
         <v>163</v>
       </c>
-      <c r="E35" s="2">
+      <c r="D35"/>
+      <c r="E35">
         <v>23</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35">
         <v>59</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35">
         <v>87</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>200</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36">
         <v>156</v>
       </c>
-      <c r="E36" s="2">
+      <c r="D36"/>
+      <c r="E36">
         <v>70</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36">
         <v>72</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36">
         <v>63</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36">
         <v>49</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>199</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37">
         <v>147</v>
       </c>
-      <c r="E37" s="2">
+      <c r="D37"/>
+      <c r="E37">
         <v>68</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37">
         <v>75</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37">
         <v>19</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>198</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38">
         <v>160</v>
       </c>
-      <c r="E38" s="2">
+      <c r="D38"/>
+      <c r="E38">
         <v>68</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38">
         <v>93</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38">
         <v>29</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38">
         <v>31</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>197</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39">
         <v>137</v>
       </c>
-      <c r="E39" s="2">
+      <c r="D39"/>
+      <c r="E39">
         <v>71</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39">
         <v>74</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39">
         <v>46</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39">
         <v>45</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>196</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40">
         <v>154</v>
       </c>
-      <c r="E40" s="2">
+      <c r="D40"/>
+      <c r="E40">
         <v>50</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40">
         <v>55</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40">
         <v>69</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40">
         <v>70</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>195</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41">
         <v>168</v>
       </c>
-      <c r="E41" s="2">
+      <c r="D41"/>
+      <c r="E41">
         <v>65</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41">
         <v>41</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41">
         <v>82</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41">
         <v>74</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>194</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42">
         <v>149</v>
       </c>
-      <c r="E42" s="2">
+      <c r="D42"/>
+      <c r="E42">
         <v>52</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42">
         <v>60</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42">
         <v>11</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42">
         <v>27</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>193</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43">
         <v>169</v>
       </c>
-      <c r="E43" s="2">
+      <c r="D43"/>
+      <c r="E43">
         <v>74</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43">
         <v>81</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43">
         <v>39</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43">
         <v>47</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>192</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44">
         <v>156</v>
       </c>
-      <c r="E44" s="2">
+      <c r="D44"/>
+      <c r="E44">
         <v>29</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44">
         <v>21</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44">
         <v>87</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44">
         <v>79</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>191</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45">
         <v>153</v>
       </c>
-      <c r="E45" s="2">
+      <c r="D45"/>
+      <c r="E45">
         <v>68</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45">
         <v>73</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45">
         <v>27</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45">
         <v>34</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>190</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46">
         <v>153</v>
       </c>
-      <c r="E46" s="2">
+      <c r="D46"/>
+      <c r="E46">
         <v>68</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46">
         <v>74</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46">
         <v>52</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46">
         <v>50</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>189</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47">
         <v>153</v>
       </c>
-      <c r="E47" s="2">
+      <c r="D47"/>
+      <c r="E47">
         <v>16</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47">
         <v>19</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47">
         <v>69</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47">
         <v>83</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>188</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48">
         <v>162</v>
       </c>
-      <c r="E48" s="2">
+      <c r="D48"/>
+      <c r="E48">
         <v>16</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48">
         <v>13</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48">
         <v>71</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48">
         <v>70</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>187</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49">
         <v>163</v>
       </c>
-      <c r="E49" s="2">
+      <c r="D49"/>
+      <c r="E49">
         <v>87</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49">
         <v>94</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49">
         <v>13</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49">
         <v>78</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>186</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50">
         <v>168</v>
       </c>
-      <c r="E50" s="2">
+      <c r="D50"/>
+      <c r="E50">
         <v>71</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50">
         <v>65</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50">
         <v>58</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>185</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51">
         <v>159</v>
       </c>
-      <c r="E51" s="2">
+      <c r="D51"/>
+      <c r="E51">
         <v>73</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51">
         <v>78</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51">
         <v>54</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51">
         <v>65</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>184</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52">
         <v>145</v>
       </c>
-      <c r="E52" s="2">
+      <c r="D52"/>
+      <c r="E52">
         <v>68</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52">
         <v>72</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52">
         <v>22</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52">
         <v>42</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>183</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53">
         <v>158</v>
       </c>
-      <c r="E53" s="2">
+      <c r="D53"/>
+      <c r="E53">
         <v>89</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53">
         <v>86</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53">
         <v>48</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53">
         <v>68</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>182</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54">
         <v>155</v>
       </c>
-      <c r="E54" s="2">
+      <c r="D54"/>
+      <c r="E54">
         <v>70</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54">
         <v>66</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54">
         <v>64</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54">
         <v>72</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>181</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55">
         <v>158</v>
       </c>
-      <c r="E55" s="2">
+      <c r="D55"/>
+      <c r="E55">
         <v>73</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55">
         <v>68</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55">
         <v>59</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55">
         <v>67</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>180</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56">
         <v>160</v>
       </c>
-      <c r="E56" s="2">
+      <c r="D56"/>
+      <c r="E56">
         <v>77</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56">
         <v>70</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56">
         <v>55</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H56">
         <v>48</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>179</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57">
         <v>164</v>
       </c>
-      <c r="E57" s="2">
+      <c r="D57"/>
+      <c r="E57">
         <v>64</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57">
         <v>72</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57">
         <v>30</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H57">
         <v>38</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>178</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58">
         <v>158</v>
       </c>
-      <c r="E58" s="2">
+      <c r="D58"/>
+      <c r="E58">
         <v>39</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58">
         <v>61</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58">
         <v>65</v>
       </c>
-      <c r="H58" s="2">
+      <c r="H58">
         <v>72</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>177</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59">
         <v>162</v>
       </c>
-      <c r="E59" s="2">
+      <c r="D59"/>
+      <c r="E59">
         <v>93</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59">
         <v>97</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59">
         <v>64</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H59">
         <v>77</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
         <v>176</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60">
         <v>160</v>
       </c>
-      <c r="E60" s="2">
+      <c r="D60"/>
+      <c r="E60">
         <v>69</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60">
         <v>80</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60">
         <v>10</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H60">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>175</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61">
         <v>146</v>
       </c>
-      <c r="E61" s="2">
+      <c r="D61"/>
+      <c r="E61">
         <v>63</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61">
         <v>74</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G61">
         <v>19</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H61">
         <v>18</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>174</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62">
         <v>155</v>
       </c>
-      <c r="E62" s="2">
+      <c r="D62"/>
+      <c r="E62">
         <v>41</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62">
         <v>45</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62">
         <v>72</v>
       </c>
-      <c r="H62" s="2">
+      <c r="H62">
         <v>83</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>173</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63">
         <v>156</v>
       </c>
-      <c r="E63" s="2">
+      <c r="D63"/>
+      <c r="E63">
         <v>78</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63">
         <v>86</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63">
         <v>56</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H63">
         <v>54</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
         <v>172</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64">
         <v>149</v>
       </c>
-      <c r="E64" s="2">
+      <c r="D64"/>
+      <c r="E64">
         <v>20</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64">
         <v>5</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G64">
         <v>63</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H64">
         <v>27</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>171</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65">
         <v>164</v>
       </c>
-      <c r="E65" s="2">
+      <c r="D65"/>
+      <c r="E65">
         <v>62</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65">
         <v>71</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G65">
         <v>88</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H65">
         <v>67</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
         <v>170</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66">
         <v>154</v>
       </c>
-      <c r="E66" s="2">
+      <c r="D66"/>
+      <c r="E66">
         <v>31</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66">
         <v>16</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G66">
         <v>74</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H66">
         <v>72</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s">
         <v>169</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67">
         <v>163</v>
       </c>
-      <c r="E67" s="2">
+      <c r="D67"/>
+      <c r="E67">
         <v>84</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67">
         <v>70</v>
       </c>
-      <c r="G67" s="2">
+      <c r="G67">
         <v>68</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H67">
         <v>73</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
         <v>168</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68">
         <v>159</v>
       </c>
-      <c r="E68" s="2">
+      <c r="D68"/>
+      <c r="E68">
         <v>71</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68">
         <v>69</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G68">
         <v>37</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H68">
         <v>33</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" t="s">
         <v>167</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69">
         <v>163</v>
       </c>
-      <c r="E69" s="2">
+      <c r="D69"/>
+      <c r="E69">
         <v>10</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69">
         <v>29</v>
       </c>
-      <c r="G69" s="2">
+      <c r="G69">
         <v>4</v>
       </c>
-      <c r="H69" s="2">
+      <c r="H69">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" t="s">
         <v>166</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70">
         <v>155</v>
       </c>
-      <c r="E70" s="2">
+      <c r="D70"/>
+      <c r="E70">
         <v>27</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70">
         <v>30</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G70">
         <v>54</v>
       </c>
-      <c r="H70" s="2">
+      <c r="H70">
         <v>64</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" t="s">
         <v>165</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71">
         <v>156</v>
       </c>
-      <c r="E71" s="3">
+      <c r="D71"/>
+      <c r="E71">
         <v>67</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71">
         <v>68</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G71">
         <v>16</v>
       </c>
-      <c r="H71" s="3">
+      <c r="H71">
         <v>24</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="s">
         <v>164</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72">
         <v>161</v>
       </c>
-      <c r="E72" s="2">
+      <c r="D72"/>
+      <c r="E72">
         <v>59</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72">
         <v>67</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G72">
         <v>12</v>
       </c>
-      <c r="H72" s="2">
+      <c r="H72">
         <v>32</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="s">
         <v>163</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73">
         <v>158</v>
       </c>
-      <c r="E73" s="2">
+      <c r="D73"/>
+      <c r="E73">
         <v>73</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F73">
         <v>72</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G73">
         <v>66</v>
       </c>
-      <c r="H73" s="2">
+      <c r="H73">
         <v>65</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="s">
         <v>162</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74">
         <v>146</v>
       </c>
-      <c r="E74" s="2">
+      <c r="D74"/>
+      <c r="E74">
         <v>62</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F74">
         <v>77</v>
       </c>
-      <c r="G74" s="2">
+      <c r="G74">
         <v>18</v>
       </c>
-      <c r="H74" s="2">
+      <c r="H74">
         <v>17</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
         <v>161</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75">
         <v>157</v>
       </c>
-      <c r="E75" s="2">
+      <c r="D75"/>
+      <c r="E75">
         <v>25</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75">
         <v>38</v>
       </c>
-      <c r="G75" s="2">
+      <c r="G75">
         <v>82</v>
       </c>
-      <c r="H75" s="2">
+      <c r="H75">
         <v>86</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" t="s">
         <v>160</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76">
         <v>155</v>
       </c>
-      <c r="E76" s="2">
+      <c r="D76"/>
+      <c r="E76">
         <v>78</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F76">
         <v>93</v>
       </c>
-      <c r="G76" s="2">
+      <c r="G76">
         <v>40</v>
       </c>
-      <c r="H76" s="2">
+      <c r="H76">
         <v>54</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" t="s">
         <v>159</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77">
         <v>132</v>
       </c>
-      <c r="E77" s="2">
+      <c r="D77"/>
+      <c r="E77">
         <v>85</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77">
         <v>56</v>
       </c>
-      <c r="G77" s="2">
+      <c r="G77">
         <v>72</v>
       </c>
-      <c r="H77" s="2">
+      <c r="H77">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" t="s">
         <v>158</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78">
         <v>154</v>
       </c>
-      <c r="E78" s="2">
+      <c r="D78"/>
+      <c r="E78">
         <v>79</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F78">
         <v>83</v>
       </c>
-      <c r="G78" s="2">
+      <c r="G78">
         <v>65</v>
       </c>
-      <c r="H78" s="2">
+      <c r="H78">
         <v>69</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" t="s">
         <v>157</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79">
         <v>167</v>
       </c>
-      <c r="E79" s="2">
+      <c r="D79"/>
+      <c r="E79">
         <v>74</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79">
         <v>59</v>
       </c>
-      <c r="G79" s="2">
+      <c r="G79">
         <v>81</v>
       </c>
-      <c r="H79" s="2">
+      <c r="H79">
         <v>82</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" t="s">
         <v>156</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80">
         <v>148</v>
       </c>
-      <c r="E80" s="2">
+      <c r="D80"/>
+      <c r="E80">
         <v>84</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80">
         <v>93</v>
       </c>
-      <c r="G80" s="2">
+      <c r="G80">
         <v>55</v>
       </c>
-      <c r="H80" s="2">
+      <c r="H80">
         <v>61</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" t="s">
         <v>155</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81">
         <v>148</v>
       </c>
-      <c r="E81" s="2">
+      <c r="D81"/>
+      <c r="E81">
         <v>70</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F81">
         <v>68</v>
       </c>
-      <c r="G81" s="2">
+      <c r="G81">
         <v>16</v>
       </c>
-      <c r="H81" s="2">
+      <c r="H81">
         <v>50</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" t="s">
         <v>154</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82">
         <v>155</v>
       </c>
-      <c r="E82" s="2">
+      <c r="D82"/>
+      <c r="E82">
         <v>74</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F82">
         <v>81</v>
       </c>
-      <c r="G82" s="2">
+      <c r="G82">
         <v>50</v>
       </c>
-      <c r="H82" s="2">
+      <c r="H82">
         <v>54</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" t="s">
         <v>153</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83">
         <v>147</v>
       </c>
-      <c r="E83" s="2">
+      <c r="D83"/>
+      <c r="E83">
         <v>81</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F83">
         <v>34</v>
       </c>
-      <c r="G83" s="2">
+      <c r="G83">
         <v>84</v>
       </c>
-      <c r="H83" s="2">
+      <c r="H83">
         <v>97</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" t="s">
         <v>152</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84">
         <v>167</v>
       </c>
-      <c r="E84" s="2">
+      <c r="D84"/>
+      <c r="E84">
         <v>22</v>
       </c>
-      <c r="F84" s="2">
+      <c r="F84">
         <v>31</v>
       </c>
-      <c r="G84" s="2">
+      <c r="G84">
         <v>72</v>
       </c>
-      <c r="H84" s="2">
+      <c r="H84">
         <v>65</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" t="s">
         <v>151</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85">
         <v>168</v>
       </c>
-      <c r="E85" s="2">
+      <c r="D85"/>
+      <c r="E85">
         <v>79</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F85">
         <v>85</v>
       </c>
-      <c r="G85" s="2">
+      <c r="G85">
         <v>36</v>
       </c>
-      <c r="H85" s="2">
+      <c r="H85">
         <v>45</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" t="s">
         <v>150</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86">
         <v>159</v>
       </c>
-      <c r="E86" s="2">
+      <c r="D86"/>
+      <c r="E86">
         <v>66</v>
       </c>
-      <c r="F86" s="2">
+      <c r="F86">
         <v>64</v>
       </c>
-      <c r="G86" s="2">
+      <c r="G86">
         <v>56</v>
       </c>
-      <c r="H86" s="2">
+      <c r="H86">
         <v>52</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" t="s">
         <v>149</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87">
         <v>155</v>
       </c>
-      <c r="E87" s="2">
+      <c r="D87"/>
+      <c r="E87">
         <v>44</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F87">
         <v>65</v>
       </c>
-      <c r="G87" s="2">
+      <c r="G87">
         <v>38</v>
       </c>
-      <c r="H87" s="2">
+      <c r="H87">
         <v>22</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" t="s">
         <v>148</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C88">
         <v>156</v>
       </c>
-      <c r="E88" s="2">
+      <c r="D88"/>
+      <c r="E88">
         <v>79</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F88">
         <v>31</v>
       </c>
-      <c r="G88" s="2">
+      <c r="G88">
         <v>92</v>
       </c>
-      <c r="H88" s="2">
+      <c r="H88">
         <v>93</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" t="s">
         <v>147</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89">
         <v>153</v>
       </c>
-      <c r="E89" s="2">
+      <c r="D89"/>
+      <c r="E89">
         <v>23</v>
       </c>
-      <c r="F89" s="2">
+      <c r="F89">
         <v>7</v>
       </c>
-      <c r="G89" s="2">
+      <c r="G89">
         <v>64</v>
       </c>
-      <c r="H89" s="2">
+      <c r="H89">
         <v>69</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" t="s">
         <v>146</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90">
         <v>151</v>
       </c>
-      <c r="E90" s="2">
+      <c r="D90"/>
+      <c r="E90">
         <v>21</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F90">
         <v>18</v>
       </c>
-      <c r="G90" s="2">
+      <c r="G90">
         <v>78</v>
       </c>
-      <c r="H90" s="2">
+      <c r="H90">
         <v>67</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" t="s">
         <v>145</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91">
         <v>155</v>
       </c>
-      <c r="E91" s="2">
+      <c r="D91"/>
+      <c r="E91">
         <v>69</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F91">
         <v>36</v>
       </c>
-      <c r="G91" s="2">
+      <c r="G91">
         <v>82</v>
       </c>
-      <c r="H91" s="2">
+      <c r="H91">
         <v>88</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" t="s">
         <v>144</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92">
         <v>157</v>
       </c>
-      <c r="E92" s="3">
+      <c r="D92"/>
+      <c r="E92">
         <v>42</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92">
         <v>32</v>
       </c>
-      <c r="G92" s="3">
+      <c r="G92">
         <v>86</v>
       </c>
-      <c r="H92" s="3">
+      <c r="H92">
         <v>82</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92"/>
+      <c r="L92"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" t="s">
         <v>143</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93">
         <v>159</v>
       </c>
-      <c r="E93" s="2">
+      <c r="D93"/>
+      <c r="E93">
         <v>78</v>
       </c>
-      <c r="F93" s="2">
+      <c r="F93">
         <v>85</v>
       </c>
-      <c r="G93" s="2">
+      <c r="G93">
         <v>48</v>
       </c>
-      <c r="H93" s="2">
+      <c r="H93">
         <v>50</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I93"/>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="L93"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" t="s">
         <v>142</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94">
         <v>163</v>
       </c>
-      <c r="E94" s="2">
+      <c r="D94"/>
+      <c r="E94">
         <v>64</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F94">
         <v>70</v>
       </c>
-      <c r="G94" s="2">
+      <c r="G94">
         <v>34</v>
       </c>
-      <c r="H94" s="2">
+      <c r="H94">
         <v>47</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="L94"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" t="s">
         <v>141</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C95">
         <v>160</v>
       </c>
-      <c r="E95" s="2">
+      <c r="D95"/>
+      <c r="E95">
         <v>66</v>
       </c>
-      <c r="F95" s="2">
+      <c r="F95">
         <v>73</v>
       </c>
-      <c r="G95" s="2">
+      <c r="G95">
         <v>13</v>
       </c>
-      <c r="H95" s="2">
+      <c r="H95">
         <v>41</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="L95"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" t="s">
         <v>140</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96">
         <v>148</v>
       </c>
-      <c r="E96" s="3">
+      <c r="D96"/>
+      <c r="E96">
         <v>66</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96">
         <v>72</v>
       </c>
-      <c r="G96" s="3">
+      <c r="G96">
         <v>3</v>
       </c>
-      <c r="H96" s="3">
+      <c r="H96">
         <v>29</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="L96"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" t="s">
         <v>139</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C97">
         <v>150</v>
       </c>
-      <c r="E97" s="2">
+      <c r="D97"/>
+      <c r="E97">
         <v>61</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F97">
         <v>29</v>
       </c>
-      <c r="G97" s="2">
+      <c r="G97">
         <v>70</v>
       </c>
-      <c r="H97" s="2">
+      <c r="H97">
         <v>94</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97"/>
+      <c r="L97"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" t="s">
         <v>138</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98">
         <v>156</v>
       </c>
-      <c r="E98" s="2">
+      <c r="D98"/>
+      <c r="E98">
         <v>47</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F98">
         <v>68</v>
       </c>
-      <c r="G98" s="2">
+      <c r="G98">
         <v>17</v>
       </c>
-      <c r="H98" s="2">
+      <c r="H98">
         <v>61</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="L98"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" t="s">
         <v>137</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C99">
         <v>168</v>
       </c>
-      <c r="E99" s="2">
+      <c r="D99"/>
+      <c r="E99">
         <v>72</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F99">
         <v>81</v>
       </c>
-      <c r="G99" s="2">
+      <c r="G99">
         <v>54</v>
       </c>
-      <c r="H99" s="2">
+      <c r="H99">
         <v>48</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="L99"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" t="s">
         <v>136</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100">
         <v>169</v>
       </c>
-      <c r="E100" s="2">
+      <c r="D100"/>
+      <c r="E100">
         <v>66</v>
       </c>
-      <c r="F100" s="2">
+      <c r="F100">
         <v>68</v>
       </c>
-      <c r="G100" s="2">
+      <c r="G100">
         <v>26</v>
       </c>
-      <c r="H100" s="2">
+      <c r="H100">
         <v>22</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="L100"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" t="s">
         <v>135</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101">
         <v>165</v>
       </c>
-      <c r="E101" s="2">
+      <c r="D101"/>
+      <c r="E101">
         <v>76</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F101">
         <v>79</v>
       </c>
-      <c r="G101" s="2">
+      <c r="G101">
         <v>40</v>
       </c>
-      <c r="H101" s="2">
+      <c r="H101">
         <v>40</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="L101"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" t="s">
         <v>134</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102">
         <v>142</v>
       </c>
-      <c r="E102" s="2">
+      <c r="D102"/>
+      <c r="E102">
         <v>46</v>
       </c>
-      <c r="F102" s="2">
+      <c r="F102">
         <v>28</v>
       </c>
-      <c r="G102" s="2">
+      <c r="G102">
         <v>80</v>
       </c>
-      <c r="H102" s="2">
+      <c r="H102">
         <v>68</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="L102"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" t="s">
         <v>133</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C103">
         <v>147</v>
       </c>
-      <c r="E103" s="2">
+      <c r="D103"/>
+      <c r="E103">
         <v>56</v>
       </c>
-      <c r="F103" s="2">
+      <c r="F103">
         <v>64</v>
       </c>
-      <c r="G103" s="2">
+      <c r="G103">
         <v>68</v>
       </c>
-      <c r="H103" s="2">
+      <c r="H103">
         <v>36</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103"/>
+      <c r="L103"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" t="s">
         <v>132</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104">
         <v>163</v>
       </c>
-      <c r="E104" s="3">
+      <c r="D104"/>
+      <c r="E104">
         <v>48</v>
       </c>
-      <c r="F104" s="3">
+      <c r="F104">
         <v>63</v>
       </c>
-      <c r="G104" s="3">
+      <c r="G104">
         <v>25</v>
       </c>
-      <c r="H104" s="3">
+      <c r="H104">
         <v>35</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="L104"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" t="s">
         <v>131</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C105">
         <v>168</v>
       </c>
-      <c r="E105" s="2">
+      <c r="D105"/>
+      <c r="E105">
         <v>11</v>
       </c>
-      <c r="F105" s="2">
+      <c r="F105">
         <v>25</v>
       </c>
-      <c r="G105" s="2">
+      <c r="G105">
         <v>47</v>
       </c>
-      <c r="H105" s="2">
+      <c r="H105">
         <v>29</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="L105"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" t="s">
         <v>130</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106">
         <v>165</v>
       </c>
-      <c r="E106" s="2">
+      <c r="D106"/>
+      <c r="E106">
         <v>71</v>
       </c>
-      <c r="F106" s="2">
+      <c r="F106">
         <v>74</v>
       </c>
-      <c r="G106" s="2">
+      <c r="G106">
         <v>43</v>
       </c>
-      <c r="H106" s="2">
+      <c r="H106">
         <v>50</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I106"/>
+      <c r="J106"/>
+      <c r="K106"/>
+      <c r="L106"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" t="s">
         <v>129</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107">
         <v>169</v>
       </c>
-      <c r="E107" s="2">
+      <c r="D107"/>
+      <c r="E107">
         <v>73</v>
       </c>
-      <c r="F107" s="2">
+      <c r="F107">
         <v>70</v>
       </c>
-      <c r="G107" s="2">
+      <c r="G107">
         <v>40</v>
       </c>
-      <c r="H107" s="2">
+      <c r="H107">
         <v>43</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="L107"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" t="s">
         <v>128</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108">
         <v>156</v>
       </c>
-      <c r="E108" s="2">
+      <c r="D108"/>
+      <c r="E108">
         <v>54</v>
       </c>
-      <c r="F108" s="2">
+      <c r="F108">
         <v>67</v>
       </c>
-      <c r="G108" s="2">
+      <c r="G108">
         <v>71</v>
       </c>
-      <c r="H108" s="2">
+      <c r="H108">
         <v>30</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" t="s">
         <v>127</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109">
         <v>145</v>
       </c>
-      <c r="E109" s="2">
+      <c r="D109"/>
+      <c r="E109">
         <v>56</v>
       </c>
-      <c r="F109" s="2">
+      <c r="F109">
         <v>44</v>
       </c>
-      <c r="G109" s="2">
+      <c r="G109">
         <v>91</v>
       </c>
-      <c r="H109" s="2">
+      <c r="H109">
         <v>70</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+      <c r="L109"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" t="s">
         <v>126</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110">
         <v>162</v>
       </c>
-      <c r="E110" s="2">
+      <c r="D110"/>
+      <c r="E110">
         <v>3</v>
       </c>
-      <c r="F110" s="2">
+      <c r="F110">
         <v>3</v>
       </c>
-      <c r="G110" s="2">
+      <c r="G110">
         <v>33</v>
       </c>
-      <c r="H110" s="2">
+      <c r="H110">
         <v>5</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" t="s">
         <v>125</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111">
         <v>139</v>
       </c>
-      <c r="E111" s="2">
+      <c r="D111"/>
+      <c r="E111">
         <v>89</v>
       </c>
-      <c r="F111" s="2">
+      <c r="F111">
         <v>50</v>
       </c>
-      <c r="G111" s="2">
+      <c r="G111">
         <v>85</v>
       </c>
-      <c r="H111" s="2">
+      <c r="H111">
         <v>81</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" t="s">
         <v>124</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C112">
         <v>156</v>
       </c>
-      <c r="E112" s="2">
+      <c r="D112"/>
+      <c r="E112">
         <v>94</v>
       </c>
-      <c r="F112" s="2">
+      <c r="F112">
         <v>100</v>
       </c>
-      <c r="G112" s="2">
+      <c r="G112">
         <v>16</v>
       </c>
-      <c r="H112" s="2">
+      <c r="H112">
         <v>25</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" t="s">
         <v>123</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113">
         <v>161</v>
       </c>
-      <c r="E113" s="2">
+      <c r="D113"/>
+      <c r="E113">
         <v>76</v>
       </c>
-      <c r="F113" s="2">
+      <c r="F113">
         <v>72</v>
       </c>
-      <c r="G113" s="2">
+      <c r="G113">
         <v>73</v>
       </c>
-      <c r="H113" s="2">
+      <c r="H113">
         <v>68</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" t="s">
         <v>122</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C114">
         <v>169</v>
       </c>
-      <c r="E114" s="2">
+      <c r="D114"/>
+      <c r="E114">
         <v>74</v>
       </c>
-      <c r="F114" s="2">
+      <c r="F114">
         <v>61</v>
       </c>
-      <c r="G114" s="2">
+      <c r="G114">
         <v>74</v>
       </c>
-      <c r="H114" s="2">
+      <c r="H114">
         <v>73</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="L114"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" t="s">
         <v>121</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C115">
         <v>162</v>
       </c>
-      <c r="E115" s="2">
+      <c r="D115"/>
+      <c r="E115">
         <v>64</v>
       </c>
-      <c r="F115" s="2">
+      <c r="F115">
         <v>64</v>
       </c>
-      <c r="G115" s="2">
+      <c r="G115">
         <v>28</v>
       </c>
-      <c r="H115" s="2">
+      <c r="H115">
         <v>14</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" t="s">
         <v>120</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C116">
         <v>169</v>
       </c>
-      <c r="E116" s="2">
+      <c r="D116"/>
+      <c r="E116">
         <v>64</v>
       </c>
-      <c r="F116" s="2">
+      <c r="F116">
         <v>66</v>
       </c>
-      <c r="G116" s="2">
+      <c r="G116">
         <v>38</v>
       </c>
-      <c r="H116" s="2">
+      <c r="H116">
         <v>32</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" t="s">
         <v>119</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C117">
         <v>164</v>
       </c>
-      <c r="E117" s="2">
+      <c r="D117"/>
+      <c r="E117">
         <v>61</v>
       </c>
-      <c r="F117" s="2">
+      <c r="F117">
         <v>68</v>
       </c>
-      <c r="G117" s="2">
+      <c r="G117">
         <v>23</v>
       </c>
-      <c r="H117" s="2">
+      <c r="H117">
         <v>9</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="L117"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" t="s">
         <v>118</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C118">
         <v>161</v>
       </c>
-      <c r="E118" s="2">
+      <c r="D118"/>
+      <c r="E118">
         <v>60</v>
       </c>
-      <c r="F118" s="2">
+      <c r="F118">
         <v>41</v>
       </c>
-      <c r="G118" s="2">
+      <c r="G118">
         <v>84</v>
       </c>
-      <c r="H118" s="2">
+      <c r="H118">
         <v>62</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="L118"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" t="s">
         <v>117</v>
       </c>
-      <c r="C119" s="2">
+      <c r="C119">
         <v>169</v>
       </c>
-      <c r="E119" s="2">
+      <c r="D119"/>
+      <c r="E119">
         <v>55</v>
       </c>
-      <c r="F119" s="2">
+      <c r="F119">
         <v>56</v>
       </c>
-      <c r="G119" s="2">
+      <c r="G119">
         <v>25</v>
       </c>
-      <c r="H119" s="2">
+      <c r="H119">
         <v>31</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="L119"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" t="s">
         <v>116</v>
       </c>
-      <c r="C120" s="2">
+      <c r="C120">
         <v>165</v>
       </c>
-      <c r="E120" s="2">
+      <c r="D120"/>
+      <c r="E120">
         <v>32</v>
       </c>
-      <c r="F120" s="2">
+      <c r="F120">
         <v>39</v>
       </c>
-      <c r="G120" s="2">
+      <c r="G120">
         <v>83</v>
       </c>
-      <c r="H120" s="2">
+      <c r="H120">
         <v>71</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
+      <c r="L120"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" t="s">
         <v>115</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C121">
         <v>162</v>
       </c>
-      <c r="E121" s="2">
+      <c r="D121"/>
+      <c r="E121">
         <v>55</v>
       </c>
-      <c r="F121" s="2">
+      <c r="F121">
         <v>76</v>
       </c>
-      <c r="G121" s="2">
+      <c r="G121">
         <v>23</v>
       </c>
-      <c r="H121" s="2">
+      <c r="H121">
         <v>13</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I121"/>
+      <c r="J121"/>
+      <c r="K121"/>
+      <c r="L121"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" t="s">
         <v>114</v>
       </c>
-      <c r="C122" s="2">
+      <c r="C122">
         <v>159</v>
       </c>
-      <c r="E122" s="2">
+      <c r="D122"/>
+      <c r="E122">
         <v>32</v>
       </c>
-      <c r="F122" s="2">
+      <c r="F122">
         <v>60</v>
       </c>
-      <c r="G122" s="2">
+      <c r="G122">
         <v>25</v>
       </c>
-      <c r="H122" s="2">
+      <c r="H122">
         <v>20</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I122"/>
+      <c r="J122"/>
+      <c r="K122"/>
+      <c r="L122"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" t="s">
         <v>113</v>
       </c>
-      <c r="C123" s="2">
+      <c r="C123">
         <v>163</v>
       </c>
-      <c r="E123" s="2">
+      <c r="D123"/>
+      <c r="E123">
         <v>59</v>
       </c>
-      <c r="F123" s="2">
+      <c r="F123">
         <v>77</v>
       </c>
-      <c r="G123" s="2">
+      <c r="G123">
         <v>12</v>
       </c>
-      <c r="H123" s="2">
+      <c r="H123">
         <v>2</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I123"/>
+      <c r="J123"/>
+      <c r="K123"/>
+      <c r="L123"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" t="s">
         <v>112</v>
       </c>
-      <c r="C124" s="2">
+      <c r="C124">
         <v>153</v>
       </c>
-      <c r="E124" s="2">
+      <c r="D124"/>
+      <c r="E124">
         <v>64</v>
       </c>
-      <c r="F124" s="2">
+      <c r="F124">
         <v>42</v>
       </c>
-      <c r="G124" s="2">
+      <c r="G124">
         <v>72</v>
       </c>
-      <c r="H124" s="2">
+      <c r="H124">
         <v>66</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I124"/>
+      <c r="J124"/>
+      <c r="K124"/>
+      <c r="L124"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" t="s">
         <v>111</v>
       </c>
-      <c r="C125" s="2">
+      <c r="C125">
         <v>169</v>
       </c>
-      <c r="E125" s="2">
+      <c r="D125"/>
+      <c r="E125">
         <v>56</v>
       </c>
-      <c r="F125" s="2">
+      <c r="F125">
         <v>67</v>
       </c>
-      <c r="G125" s="2">
+      <c r="G125">
         <v>27</v>
       </c>
-      <c r="H125" s="2">
+      <c r="H125">
         <v>26</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I125"/>
+      <c r="J125"/>
+      <c r="K125"/>
+      <c r="L125"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" t="s">
         <v>110</v>
       </c>
-      <c r="C126" s="2">
+      <c r="C126">
         <v>150</v>
       </c>
-      <c r="E126" s="2">
+      <c r="D126"/>
+      <c r="E126">
         <v>62</v>
       </c>
-      <c r="F126" s="2">
+      <c r="F126">
         <v>53</v>
       </c>
-      <c r="G126" s="2">
+      <c r="G126">
         <v>73</v>
       </c>
-      <c r="H126" s="2">
+      <c r="H126">
         <v>72</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I126"/>
+      <c r="J126"/>
+      <c r="K126"/>
+      <c r="L126"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" t="s">
         <v>109</v>
       </c>
-      <c r="C127" s="2">
+      <c r="C127">
         <v>146</v>
       </c>
-      <c r="E127" s="2">
+      <c r="D127"/>
+      <c r="E127">
         <v>77</v>
       </c>
-      <c r="F127" s="2">
+      <c r="F127">
         <v>72</v>
       </c>
-      <c r="G127" s="2">
+      <c r="G127">
         <v>25</v>
       </c>
-      <c r="H127" s="2">
+      <c r="H127">
         <v>62</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I127"/>
+      <c r="J127"/>
+      <c r="K127"/>
+      <c r="L127"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" t="s">
         <v>108</v>
       </c>
-      <c r="C128" s="2">
+      <c r="C128">
         <v>167</v>
       </c>
-      <c r="E128" s="2">
+      <c r="D128"/>
+      <c r="E128">
         <v>68</v>
       </c>
-      <c r="F128" s="2">
+      <c r="F128">
         <v>81</v>
       </c>
-      <c r="G128" s="2">
+      <c r="G128">
         <v>18</v>
       </c>
-      <c r="H128" s="2">
+      <c r="H128">
         <v>32</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I128"/>
+      <c r="J128"/>
+      <c r="K128"/>
+      <c r="L128"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" t="s">
         <v>107</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C129">
         <v>156</v>
       </c>
-      <c r="E129" s="2">
+      <c r="D129"/>
+      <c r="E129">
         <v>82</v>
       </c>
-      <c r="F129" s="2">
+      <c r="F129">
         <v>59</v>
       </c>
-      <c r="G129" s="2">
+      <c r="G129">
         <v>71</v>
       </c>
-      <c r="H129" s="2">
+      <c r="H129">
         <v>85</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I129"/>
+      <c r="J129"/>
+      <c r="K129"/>
+      <c r="L129"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" t="s">
         <v>106</v>
       </c>
-      <c r="C130" s="2">
+      <c r="C130">
         <v>157</v>
       </c>
-      <c r="E130" s="2">
+      <c r="D130"/>
+      <c r="E130">
         <v>68</v>
       </c>
-      <c r="F130" s="2">
+      <c r="F130">
         <v>76</v>
       </c>
-      <c r="G130" s="2">
+      <c r="G130">
         <v>36</v>
       </c>
-      <c r="H130" s="2">
+      <c r="H130">
         <v>41</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I130"/>
+      <c r="J130"/>
+      <c r="K130"/>
+      <c r="L130"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" t="s">
         <v>105</v>
       </c>
-      <c r="C131" s="2">
+      <c r="C131">
         <v>164</v>
       </c>
-      <c r="E131" s="2">
+      <c r="D131"/>
+      <c r="E131">
         <v>56</v>
       </c>
-      <c r="F131" s="2">
+      <c r="F131">
         <v>65</v>
       </c>
-      <c r="G131" s="2">
+      <c r="G131">
         <v>37</v>
       </c>
-      <c r="H131" s="2">
+      <c r="H131">
         <v>48</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I131"/>
+      <c r="J131"/>
+      <c r="K131"/>
+      <c r="L131"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" t="s">
         <v>104</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C132">
         <v>156</v>
       </c>
-      <c r="E132" s="2">
+      <c r="D132"/>
+      <c r="E132">
         <v>62</v>
       </c>
-      <c r="F132" s="2">
+      <c r="F132">
         <v>42</v>
       </c>
-      <c r="G132" s="2">
+      <c r="G132">
         <v>72</v>
       </c>
-      <c r="H132" s="2">
+      <c r="H132">
         <v>70</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I132"/>
+      <c r="J132"/>
+      <c r="K132"/>
+      <c r="L132"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" t="s">
         <v>103</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C133">
         <v>165</v>
       </c>
-      <c r="E133" s="2">
+      <c r="D133"/>
+      <c r="E133">
         <v>33</v>
       </c>
-      <c r="F133" s="2">
+      <c r="F133">
         <v>32</v>
       </c>
-      <c r="G133" s="2">
+      <c r="G133">
         <v>86</v>
       </c>
-      <c r="H133" s="2">
+      <c r="H133">
         <v>71</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I133"/>
+      <c r="J133"/>
+      <c r="K133"/>
+      <c r="L133"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" t="s">
         <v>102</v>
       </c>
-      <c r="C134" s="2">
+      <c r="C134">
         <v>157</v>
       </c>
-      <c r="E134" s="2">
+      <c r="D134"/>
+      <c r="E134">
         <v>66</v>
       </c>
-      <c r="F134" s="2">
+      <c r="F134">
         <v>71</v>
       </c>
-      <c r="G134" s="2">
+      <c r="G134">
         <v>9</v>
       </c>
-      <c r="H134" s="2">
+      <c r="H134">
         <v>49</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I134"/>
+      <c r="J134"/>
+      <c r="K134"/>
+      <c r="L134"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" t="s">
         <v>101</v>
       </c>
-      <c r="C135" s="2">
+      <c r="C135">
         <v>166</v>
       </c>
-      <c r="E135" s="2">
+      <c r="D135"/>
+      <c r="E135">
         <v>79</v>
       </c>
-      <c r="F135" s="2">
+      <c r="F135">
         <v>92</v>
       </c>
-      <c r="G135" s="2">
+      <c r="G135">
         <v>56</v>
       </c>
-      <c r="H135" s="2">
+      <c r="H135">
         <v>62</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I135"/>
+      <c r="J135"/>
+      <c r="K135"/>
+      <c r="L135"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" t="s">
         <v>100</v>
       </c>
-      <c r="C136" s="2">
+      <c r="C136">
         <v>169</v>
       </c>
-      <c r="E136" s="2">
+      <c r="D136"/>
+      <c r="E136">
         <v>68</v>
       </c>
-      <c r="F136" s="2">
+      <c r="F136">
         <v>66</v>
       </c>
-      <c r="G136" s="2">
+      <c r="G136">
         <v>78</v>
       </c>
-      <c r="H136" s="2">
+      <c r="H136">
         <v>74</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I136"/>
+      <c r="J136"/>
+      <c r="K136"/>
+      <c r="L136"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" t="s">
         <v>99</v>
       </c>
-      <c r="C137" s="2">
+      <c r="C137">
         <v>162</v>
       </c>
-      <c r="E137" s="2">
+      <c r="D137"/>
+      <c r="E137">
         <v>58</v>
       </c>
-      <c r="F137" s="2">
+      <c r="F137">
         <v>39</v>
       </c>
-      <c r="G137" s="2">
+      <c r="G137">
         <v>90</v>
       </c>
-      <c r="H137" s="2">
+      <c r="H137">
         <v>95</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I137"/>
+      <c r="J137"/>
+      <c r="K137"/>
+      <c r="L137"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" t="s">
         <v>98</v>
       </c>
-      <c r="C138" s="2">
+      <c r="C138">
         <v>154</v>
       </c>
-      <c r="E138" s="2">
+      <c r="D138"/>
+      <c r="E138">
         <v>71</v>
       </c>
-      <c r="F138" s="2">
+      <c r="F138">
         <v>65</v>
       </c>
-      <c r="G138" s="2">
+      <c r="G138">
         <v>66</v>
       </c>
-      <c r="H138" s="2">
+      <c r="H138">
         <v>53</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I138"/>
+      <c r="J138"/>
+      <c r="K138"/>
+      <c r="L138"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" t="s">
         <v>97</v>
       </c>
-      <c r="C139" s="2">
+      <c r="C139">
         <v>150</v>
       </c>
-      <c r="E139" s="2">
+      <c r="D139"/>
+      <c r="E139">
         <v>64</v>
       </c>
-      <c r="F139" s="2">
+      <c r="F139">
         <v>50</v>
       </c>
-      <c r="G139" s="2">
+      <c r="G139">
         <v>71</v>
       </c>
-      <c r="H139" s="2">
+      <c r="H139">
         <v>61</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I139"/>
+      <c r="J139"/>
+      <c r="K139"/>
+      <c r="L139"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" t="s">
         <v>96</v>
       </c>
-      <c r="C140" s="2">
+      <c r="C140">
         <v>162</v>
       </c>
-      <c r="E140" s="2">
+      <c r="D140"/>
+      <c r="E140">
         <v>43</v>
       </c>
-      <c r="F140" s="2">
+      <c r="F140">
         <v>37</v>
       </c>
-      <c r="G140" s="2">
+      <c r="G140">
         <v>83</v>
       </c>
-      <c r="H140" s="2">
+      <c r="H140">
         <v>70</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I140"/>
+      <c r="J140"/>
+      <c r="K140"/>
+      <c r="L140"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" t="s">
         <v>95</v>
       </c>
-      <c r="C141" s="2">
+      <c r="C141">
         <v>162</v>
       </c>
-      <c r="E141" s="2">
+      <c r="D141"/>
+      <c r="E141">
         <v>66</v>
       </c>
-      <c r="F141" s="2">
+      <c r="F141">
         <v>69</v>
       </c>
-      <c r="G141" s="2">
+      <c r="G141">
         <v>36</v>
       </c>
-      <c r="H141" s="2">
+      <c r="H141">
         <v>37</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I141"/>
+      <c r="J141"/>
+      <c r="K141"/>
+      <c r="L141"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" t="s">
         <v>94</v>
       </c>
-      <c r="C142" s="2">
+      <c r="C142">
         <v>163</v>
       </c>
-      <c r="E142" s="2">
+      <c r="D142"/>
+      <c r="E142">
         <v>65</v>
       </c>
-      <c r="F142" s="2">
+      <c r="F142">
         <v>70</v>
       </c>
-      <c r="G142" s="2">
+      <c r="G142">
         <v>49</v>
       </c>
-      <c r="H142" s="2">
+      <c r="H142">
         <v>55</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I142"/>
+      <c r="J142"/>
+      <c r="K142"/>
+      <c r="L142"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" t="s">
         <v>93</v>
       </c>
-      <c r="C143" s="2">
+      <c r="C143">
         <v>168</v>
       </c>
-      <c r="E143" s="2">
+      <c r="D143"/>
+      <c r="E143">
         <v>42</v>
       </c>
-      <c r="F143" s="2">
+      <c r="F143">
         <v>65</v>
       </c>
-      <c r="G143" s="2">
+      <c r="G143">
         <v>76</v>
       </c>
-      <c r="H143" s="2">
+      <c r="H143">
         <v>71</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I143"/>
+      <c r="J143"/>
+      <c r="K143"/>
+      <c r="L143"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" t="s">
         <v>92</v>
       </c>
-      <c r="C144" s="2">
+      <c r="C144">
         <v>137</v>
       </c>
-      <c r="E144" s="2">
+      <c r="D144"/>
+      <c r="E144">
         <v>24</v>
       </c>
-      <c r="F144" s="2">
+      <c r="F144">
         <v>7</v>
       </c>
-      <c r="G144" s="2">
+      <c r="G144">
         <v>89</v>
       </c>
-      <c r="H144" s="2">
+      <c r="H144">
         <v>72</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I144"/>
+      <c r="J144"/>
+      <c r="K144"/>
+      <c r="L144"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" t="s">
         <v>91</v>
       </c>
-      <c r="C145" s="2">
+      <c r="C145">
         <v>152</v>
       </c>
-      <c r="E145" s="2">
+      <c r="D145"/>
+      <c r="E145">
         <v>45</v>
       </c>
-      <c r="F145" s="2">
+      <c r="F145">
         <v>58</v>
       </c>
-      <c r="G145" s="2">
+      <c r="G145">
         <v>25</v>
       </c>
-      <c r="H145" s="2">
+      <c r="H145">
         <v>23</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I145"/>
+      <c r="J145"/>
+      <c r="K145"/>
+      <c r="L145"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B146" t="s">
         <v>90</v>
       </c>
-      <c r="C146" s="2">
+      <c r="C146">
         <v>156</v>
       </c>
-      <c r="E146" s="2">
+      <c r="D146"/>
+      <c r="E146">
         <v>70</v>
       </c>
-      <c r="F146" s="2">
+      <c r="F146">
         <v>75</v>
       </c>
-      <c r="G146" s="2">
+      <c r="G146">
         <v>35</v>
       </c>
-      <c r="H146" s="2">
+      <c r="H146">
         <v>29</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I146"/>
+      <c r="J146"/>
+      <c r="K146"/>
+      <c r="L146"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B147" t="s">
         <v>89</v>
       </c>
-      <c r="C147" s="3">
+      <c r="C147">
         <v>151</v>
       </c>
-      <c r="E147" s="3">
+      <c r="D147"/>
+      <c r="E147">
         <v>48</v>
       </c>
-      <c r="F147" s="3">
+      <c r="F147">
         <v>30</v>
       </c>
-      <c r="G147" s="3">
+      <c r="G147">
         <v>75</v>
       </c>
-      <c r="H147" s="3">
+      <c r="H147">
         <v>73</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I147"/>
+      <c r="J147"/>
+      <c r="K147"/>
+      <c r="L147"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" t="s">
         <v>88</v>
       </c>
-      <c r="C148" s="2">
+      <c r="C148">
         <v>161</v>
       </c>
-      <c r="E148" s="2">
+      <c r="D148"/>
+      <c r="E148">
         <v>82</v>
       </c>
-      <c r="F148" s="2">
+      <c r="F148">
         <v>95</v>
       </c>
-      <c r="G148" s="2">
+      <c r="G148">
         <v>24</v>
       </c>
-      <c r="H148" s="2">
+      <c r="H148">
         <v>25</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I148"/>
+      <c r="J148"/>
+      <c r="K148"/>
+      <c r="L148"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" t="s">
         <v>87</v>
       </c>
-      <c r="C149" s="2">
+      <c r="C149">
         <v>151</v>
       </c>
-      <c r="E149" s="2">
+      <c r="D149"/>
+      <c r="E149">
         <v>41</v>
       </c>
-      <c r="F149" s="2">
+      <c r="F149">
         <v>61</v>
       </c>
-      <c r="G149" s="2">
+      <c r="G149">
         <v>50</v>
       </c>
-      <c r="H149" s="2">
+      <c r="H149">
         <v>24</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I149"/>
+      <c r="J149"/>
+      <c r="K149"/>
+      <c r="L149"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" t="s">
         <v>86</v>
       </c>
-      <c r="C150" s="2">
+      <c r="C150">
         <v>166</v>
       </c>
-      <c r="E150" s="2">
+      <c r="D150"/>
+      <c r="E150">
         <v>80</v>
       </c>
-      <c r="F150" s="2">
+      <c r="F150">
         <v>70</v>
       </c>
-      <c r="G150" s="2">
+      <c r="G150">
         <v>71</v>
       </c>
-      <c r="H150" s="2">
+      <c r="H150">
         <v>72</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I150"/>
+      <c r="J150"/>
+      <c r="K150"/>
+      <c r="L150"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" t="s">
         <v>85</v>
       </c>
-      <c r="C151" s="2">
+      <c r="C151">
         <v>163</v>
       </c>
-      <c r="E151" s="2">
+      <c r="D151"/>
+      <c r="E151">
         <v>51</v>
       </c>
-      <c r="F151" s="2">
+      <c r="F151">
         <v>75</v>
       </c>
-      <c r="G151" s="2">
+      <c r="G151">
         <v>17</v>
       </c>
-      <c r="H151" s="2">
+      <c r="H151">
         <v>8</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I151"/>
+      <c r="J151"/>
+      <c r="K151"/>
+      <c r="L151"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" t="s">
         <v>84</v>
       </c>
-      <c r="C152" s="2">
+      <c r="C152">
         <v>157</v>
       </c>
-      <c r="E152" s="2">
+      <c r="D152"/>
+      <c r="E152">
         <v>30</v>
       </c>
-      <c r="F152" s="2">
+      <c r="F152">
         <v>7</v>
       </c>
-      <c r="G152" s="2">
+      <c r="G152">
         <v>76</v>
       </c>
-      <c r="H152" s="2">
+      <c r="H152">
         <v>88</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I152"/>
+      <c r="J152"/>
+      <c r="K152"/>
+      <c r="L152"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" t="s">
         <v>83</v>
       </c>
-      <c r="C153" s="2">
+      <c r="C153">
         <v>157</v>
       </c>
-      <c r="E153" s="2">
+      <c r="D153"/>
+      <c r="E153">
         <v>90</v>
       </c>
-      <c r="F153" s="2">
+      <c r="F153">
         <v>92</v>
       </c>
-      <c r="G153" s="2">
+      <c r="G153">
         <v>76</v>
       </c>
-      <c r="H153" s="2">
+      <c r="H153">
         <v>64</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I153"/>
+      <c r="J153"/>
+      <c r="K153"/>
+      <c r="L153"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B154" t="s">
         <v>82</v>
       </c>
-      <c r="C154" s="2">
+      <c r="C154">
         <v>163</v>
       </c>
-      <c r="E154" s="2">
+      <c r="D154"/>
+      <c r="E154">
         <v>91</v>
       </c>
-      <c r="F154" s="2">
+      <c r="F154">
         <v>92</v>
       </c>
-      <c r="G154" s="2">
+      <c r="G154">
         <v>64</v>
       </c>
-      <c r="H154" s="2">
+      <c r="H154">
         <v>51</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I154"/>
+      <c r="J154"/>
+      <c r="K154"/>
+      <c r="L154"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B155" t="s">
         <v>81</v>
       </c>
-      <c r="C155" s="2">
+      <c r="C155">
         <v>167</v>
       </c>
-      <c r="E155" s="2">
+      <c r="D155"/>
+      <c r="E155">
         <v>28</v>
       </c>
-      <c r="F155" s="2">
+      <c r="F155">
         <v>18</v>
       </c>
-      <c r="G155" s="2">
+      <c r="G155">
         <v>74</v>
       </c>
-      <c r="H155" s="2">
+      <c r="H155">
         <v>72</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I155"/>
+      <c r="J155"/>
+      <c r="K155"/>
+      <c r="L155"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B156" t="s">
         <v>80</v>
       </c>
-      <c r="C156" s="2">
+      <c r="C156">
         <v>165</v>
       </c>
-      <c r="E156" s="2">
+      <c r="D156"/>
+      <c r="E156">
         <v>74</v>
       </c>
-      <c r="F156" s="2">
+      <c r="F156">
         <v>46</v>
       </c>
-      <c r="G156" s="2">
+      <c r="G156">
         <v>74</v>
       </c>
-      <c r="H156" s="2">
+      <c r="H156">
         <v>72</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I156"/>
+      <c r="J156"/>
+      <c r="K156"/>
+      <c r="L156"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B157" t="s">
         <v>79</v>
       </c>
-      <c r="C157" s="2">
+      <c r="C157">
         <v>151</v>
       </c>
-      <c r="E157" s="2">
+      <c r="D157"/>
+      <c r="E157">
         <v>67</v>
       </c>
-      <c r="F157" s="2">
+      <c r="F157">
         <v>74</v>
       </c>
-      <c r="G157" s="2">
+      <c r="G157">
         <v>7</v>
       </c>
-      <c r="H157" s="2">
+      <c r="H157">
         <v>40</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I157"/>
+      <c r="J157"/>
+      <c r="K157"/>
+      <c r="L157"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B158" t="s">
         <v>78</v>
       </c>
-      <c r="C158" s="2">
+      <c r="C158">
         <v>169</v>
       </c>
-      <c r="E158" s="2">
+      <c r="D158"/>
+      <c r="E158">
         <v>84</v>
       </c>
-      <c r="F158" s="2">
+      <c r="F158">
         <v>91</v>
       </c>
-      <c r="G158" s="2">
+      <c r="G158">
         <v>52</v>
       </c>
-      <c r="H158" s="2">
+      <c r="H158">
         <v>71</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I158"/>
+      <c r="J158"/>
+      <c r="K158"/>
+      <c r="L158"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B159" t="s">
         <v>77</v>
       </c>
-      <c r="C159" s="2">
+      <c r="C159">
         <v>147</v>
       </c>
-      <c r="E159" s="2">
+      <c r="D159"/>
+      <c r="E159">
         <v>76</v>
       </c>
-      <c r="F159" s="2">
+      <c r="F159">
         <v>71</v>
       </c>
-      <c r="G159" s="2">
+      <c r="G159">
         <v>40</v>
       </c>
-      <c r="H159" s="2">
+      <c r="H159">
         <v>66</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I159"/>
+      <c r="J159"/>
+      <c r="K159"/>
+      <c r="L159"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B160" t="s">
         <v>76</v>
       </c>
-      <c r="C160" s="2">
+      <c r="C160">
         <v>155</v>
       </c>
-      <c r="E160" s="2">
+      <c r="D160"/>
+      <c r="E160">
         <v>45</v>
       </c>
-      <c r="F160" s="2">
+      <c r="F160">
         <v>68</v>
       </c>
-      <c r="G160" s="2">
+      <c r="G160">
         <v>64</v>
       </c>
-      <c r="H160" s="2">
+      <c r="H160">
         <v>66</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I160"/>
+      <c r="J160"/>
+      <c r="K160"/>
+      <c r="L160"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B161" t="s">
         <v>75</v>
       </c>
-      <c r="C161" s="2">
+      <c r="C161">
         <v>152</v>
       </c>
-      <c r="E161" s="2">
+      <c r="D161"/>
+      <c r="E161">
         <v>13</v>
       </c>
-      <c r="F161" s="2">
+      <c r="F161">
         <v>13</v>
       </c>
-      <c r="G161" s="2">
+      <c r="G161">
         <v>82</v>
       </c>
-      <c r="H161" s="2">
+      <c r="H161">
         <v>72</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I161"/>
+      <c r="J161"/>
+      <c r="K161"/>
+      <c r="L161"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B162" t="s">
         <v>74</v>
       </c>
-      <c r="C162" s="2">
+      <c r="C162">
         <v>155</v>
       </c>
-      <c r="E162" s="2">
+      <c r="D162"/>
+      <c r="E162">
         <v>18</v>
       </c>
-      <c r="F162" s="2">
+      <c r="F162">
         <v>6</v>
       </c>
-      <c r="G162" s="2">
+      <c r="G162">
         <v>37</v>
       </c>
-      <c r="H162" s="2">
+      <c r="H162">
         <v>82</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I162"/>
+      <c r="J162"/>
+      <c r="K162"/>
+      <c r="L162"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B163" t="s">
         <v>73</v>
       </c>
-      <c r="C163" s="2">
+      <c r="C163">
         <v>163</v>
       </c>
-      <c r="E163" s="2">
+      <c r="D163"/>
+      <c r="E163">
         <v>51</v>
       </c>
-      <c r="F163" s="2">
+      <c r="F163">
         <v>11</v>
       </c>
-      <c r="G163" s="2">
+      <c r="G163">
         <v>99</v>
       </c>
-      <c r="H163" s="2">
+      <c r="H163">
         <v>96</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I163"/>
+      <c r="J163"/>
+      <c r="K163"/>
+      <c r="L163"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B164" t="s">
         <v>72</v>
       </c>
-      <c r="C164" s="2">
+      <c r="C164">
         <v>157</v>
       </c>
-      <c r="E164" s="2">
+      <c r="D164"/>
+      <c r="E164">
         <v>70</v>
       </c>
-      <c r="F164" s="2">
+      <c r="F164">
         <v>21</v>
       </c>
-      <c r="G164" s="2">
+      <c r="G164">
         <v>89</v>
       </c>
-      <c r="H164" s="2">
+      <c r="H164">
         <v>94</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I164"/>
+      <c r="J164"/>
+      <c r="K164"/>
+      <c r="L164"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B165" t="s">
         <v>71</v>
       </c>
-      <c r="C165" s="2">
+      <c r="C165">
         <v>142</v>
       </c>
-      <c r="E165" s="2">
+      <c r="D165"/>
+      <c r="E165">
         <v>66</v>
       </c>
-      <c r="F165" s="2">
+      <c r="F165">
         <v>69</v>
       </c>
-      <c r="G165" s="2">
+      <c r="G165">
         <v>24</v>
       </c>
-      <c r="H165" s="2">
+      <c r="H165">
         <v>28</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I165"/>
+      <c r="J165"/>
+      <c r="K165"/>
+      <c r="L165"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B166" t="s">
         <v>70</v>
       </c>
-      <c r="C166" s="2">
+      <c r="C166">
         <v>163</v>
       </c>
-      <c r="E166" s="2">
+      <c r="D166"/>
+      <c r="E166">
         <v>72</v>
       </c>
-      <c r="F166" s="2">
+      <c r="F166">
         <v>70</v>
       </c>
-      <c r="G166" s="2">
+      <c r="G166">
         <v>54</v>
       </c>
-      <c r="H166" s="2">
+      <c r="H166">
         <v>42</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I166"/>
+      <c r="J166"/>
+      <c r="K166"/>
+      <c r="L166"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B167" t="s">
         <v>69</v>
       </c>
-      <c r="C167" s="2">
+      <c r="C167">
         <v>145</v>
       </c>
-      <c r="E167" s="2">
+      <c r="D167"/>
+      <c r="E167">
         <v>65</v>
       </c>
-      <c r="F167" s="2">
+      <c r="F167">
         <v>78</v>
       </c>
-      <c r="G167" s="2">
+      <c r="G167">
         <v>21</v>
       </c>
-      <c r="H167" s="2">
+      <c r="H167">
         <v>57</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I167"/>
+      <c r="J167"/>
+      <c r="K167"/>
+      <c r="L167"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B168" t="s">
         <v>68</v>
       </c>
-      <c r="C168" s="2">
+      <c r="C168">
         <v>153</v>
       </c>
-      <c r="E168" s="2">
+      <c r="D168"/>
+      <c r="E168">
         <v>77</v>
       </c>
-      <c r="F168" s="2">
+      <c r="F168">
         <v>82</v>
       </c>
-      <c r="G168" s="2">
+      <c r="G168">
         <v>67</v>
       </c>
-      <c r="H168" s="2">
+      <c r="H168">
         <v>69</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I168"/>
+      <c r="J168"/>
+      <c r="K168"/>
+      <c r="L168"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B169" t="s">
         <v>67</v>
       </c>
-      <c r="C169" s="2">
+      <c r="C169">
         <v>151</v>
       </c>
-      <c r="E169" s="2">
+      <c r="D169"/>
+      <c r="E169">
         <v>52</v>
       </c>
-      <c r="F169" s="2">
+      <c r="F169">
         <v>59</v>
       </c>
-      <c r="G169" s="2">
+      <c r="G169">
         <v>41</v>
       </c>
-      <c r="H169" s="2">
+      <c r="H169">
         <v>38</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I169"/>
+      <c r="J169"/>
+      <c r="K169"/>
+      <c r="L169"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B170" t="s">
         <v>66</v>
       </c>
-      <c r="C170" s="2">
+      <c r="C170">
         <v>163</v>
       </c>
-      <c r="E170" s="2">
+      <c r="D170"/>
+      <c r="E170">
         <v>32</v>
       </c>
-      <c r="F170" s="2">
+      <c r="F170">
         <v>27</v>
       </c>
-      <c r="G170" s="2">
+      <c r="G170">
         <v>78</v>
       </c>
-      <c r="H170" s="2">
+      <c r="H170">
         <v>82</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I170"/>
+      <c r="J170"/>
+      <c r="K170"/>
+      <c r="L170"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B171" t="s">
         <v>65</v>
       </c>
-      <c r="C171" s="2">
+      <c r="C171">
         <v>168</v>
       </c>
-      <c r="E171" s="2">
+      <c r="D171"/>
+      <c r="E171">
         <v>76</v>
       </c>
-      <c r="F171" s="2">
+      <c r="F171">
         <v>54</v>
       </c>
-      <c r="G171" s="2">
+      <c r="G171">
         <v>75</v>
       </c>
-      <c r="H171" s="2">
+      <c r="H171">
         <v>71</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I171"/>
+      <c r="J171"/>
+      <c r="K171"/>
+      <c r="L171"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B172" t="s">
         <v>64</v>
       </c>
-      <c r="C172" s="2">
+      <c r="C172">
         <v>158</v>
       </c>
-      <c r="E172" s="2">
+      <c r="D172"/>
+      <c r="E172">
         <v>29</v>
       </c>
-      <c r="F172" s="2">
+      <c r="F172">
         <v>26</v>
       </c>
-      <c r="G172" s="2">
+      <c r="G172">
         <v>73</v>
       </c>
-      <c r="H172" s="2">
+      <c r="H172">
         <v>66</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I172"/>
+      <c r="J172"/>
+      <c r="K172"/>
+      <c r="L172"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="B173" t="s">
         <v>63</v>
       </c>
-      <c r="C173" s="2">
+      <c r="C173">
         <v>160</v>
       </c>
-      <c r="E173" s="2">
+      <c r="D173"/>
+      <c r="E173">
         <v>83</v>
       </c>
-      <c r="F173" s="2">
+      <c r="F173">
         <v>95</v>
       </c>
-      <c r="G173" s="2">
+      <c r="G173">
         <v>33</v>
       </c>
-      <c r="H173" s="2">
+      <c r="H173">
         <v>45</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I173"/>
+      <c r="J173"/>
+      <c r="K173"/>
+      <c r="L173"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="B174" t="s">
         <v>62</v>
       </c>
-      <c r="C174" s="2">
+      <c r="C174">
         <v>159</v>
       </c>
-      <c r="E174" s="2">
+      <c r="D174"/>
+      <c r="E174">
         <v>56</v>
       </c>
-      <c r="F174" s="2">
+      <c r="F174">
         <v>64</v>
       </c>
-      <c r="G174" s="2">
+      <c r="G174">
         <v>25</v>
       </c>
-      <c r="H174" s="2">
+      <c r="H174">
         <v>42</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I174"/>
+      <c r="J174"/>
+      <c r="K174"/>
+      <c r="L174"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B175" t="s">
         <v>61</v>
       </c>
-      <c r="C175" s="2">
+      <c r="C175">
         <v>153</v>
       </c>
-      <c r="E175" s="2">
+      <c r="D175"/>
+      <c r="E175">
         <v>59</v>
       </c>
-      <c r="F175" s="2">
+      <c r="F175">
         <v>68</v>
       </c>
-      <c r="G175" s="2">
+      <c r="G175">
         <v>21</v>
       </c>
-      <c r="H175" s="2">
+      <c r="H175">
         <v>29</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I175"/>
+      <c r="J175"/>
+      <c r="K175"/>
+      <c r="L175"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B176" t="s">
         <v>60</v>
       </c>
-      <c r="C176" s="2">
+      <c r="C176">
         <v>152</v>
       </c>
-      <c r="E176" s="2">
+      <c r="D176"/>
+      <c r="E176">
         <v>15</v>
       </c>
-      <c r="F176" s="2">
+      <c r="F176">
         <v>14</v>
       </c>
-      <c r="G176" s="2">
+      <c r="G176">
         <v>59</v>
       </c>
-      <c r="H176" s="2">
+      <c r="H176">
         <v>75</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I176"/>
+      <c r="J176"/>
+      <c r="K176"/>
+      <c r="L176"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B177" t="s">
         <v>59</v>
       </c>
-      <c r="C177" s="2">
+      <c r="C177">
         <v>167</v>
       </c>
-      <c r="E177" s="2">
+      <c r="D177"/>
+      <c r="E177">
         <v>70</v>
       </c>
-      <c r="F177" s="2">
+      <c r="F177">
         <v>71</v>
       </c>
-      <c r="G177" s="2">
+      <c r="G177">
         <v>57</v>
       </c>
-      <c r="H177" s="2">
+      <c r="H177">
         <v>62</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I177"/>
+      <c r="J177"/>
+      <c r="K177"/>
+      <c r="L177"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B178" t="s">
         <v>58</v>
       </c>
-      <c r="C178" s="2">
+      <c r="C178">
         <v>162</v>
       </c>
-      <c r="E178" s="2">
+      <c r="D178"/>
+      <c r="E178">
         <v>25</v>
       </c>
-      <c r="F178" s="2">
+      <c r="F178">
         <v>24</v>
       </c>
-      <c r="G178" s="2">
+      <c r="G178">
         <v>85</v>
       </c>
-      <c r="H178" s="2">
+      <c r="H178">
         <v>73</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I178"/>
+      <c r="J178"/>
+      <c r="K178"/>
+      <c r="L178"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B179" t="s">
         <v>57</v>
       </c>
-      <c r="C179" s="2">
+      <c r="C179">
         <v>159</v>
       </c>
-      <c r="E179" s="2">
+      <c r="D179"/>
+      <c r="E179">
         <v>82</v>
       </c>
-      <c r="F179" s="2">
+      <c r="F179">
         <v>76</v>
       </c>
-      <c r="G179" s="2">
+      <c r="G179">
         <v>57</v>
       </c>
-      <c r="H179" s="2">
+      <c r="H179">
         <v>72</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I179"/>
+      <c r="J179"/>
+      <c r="K179"/>
+      <c r="L179"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B180" t="s">
         <v>56</v>
       </c>
-      <c r="C180" s="2">
+      <c r="C180">
         <v>158</v>
       </c>
-      <c r="E180" s="2">
+      <c r="D180"/>
+      <c r="E180">
         <v>68</v>
       </c>
-      <c r="F180" s="2">
+      <c r="F180">
         <v>79</v>
       </c>
-      <c r="G180" s="2">
+      <c r="G180">
         <v>29</v>
       </c>
-      <c r="H180" s="2">
+      <c r="H180">
         <v>31</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I180"/>
+      <c r="J180"/>
+      <c r="K180"/>
+      <c r="L180"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B181" t="s">
         <v>55</v>
       </c>
-      <c r="C181" s="2">
+      <c r="C181">
         <v>164</v>
       </c>
-      <c r="E181" s="2">
+      <c r="D181"/>
+      <c r="E181">
         <v>37</v>
       </c>
-      <c r="F181" s="2">
+      <c r="F181">
         <v>48</v>
       </c>
-      <c r="G181" s="2">
+      <c r="G181">
         <v>81</v>
       </c>
-      <c r="H181" s="2">
+      <c r="H181">
         <v>85</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I181"/>
+      <c r="J181"/>
+      <c r="K181"/>
+      <c r="L181"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B182" t="s">
         <v>54</v>
       </c>
-      <c r="C182" s="2">
+      <c r="C182">
         <v>154</v>
       </c>
-      <c r="E182" s="2">
+      <c r="D182"/>
+      <c r="E182">
         <v>80</v>
       </c>
-      <c r="F182" s="2">
+      <c r="F182">
         <v>68</v>
       </c>
-      <c r="G182" s="2">
+      <c r="G182">
         <v>77</v>
       </c>
-      <c r="H182" s="2">
+      <c r="H182">
         <v>75</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I182"/>
+      <c r="J182"/>
+      <c r="K182"/>
+      <c r="L182"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B183" t="s">
         <v>53</v>
       </c>
-      <c r="C183" s="2">
+      <c r="C183">
         <v>155</v>
       </c>
-      <c r="E183" s="2">
+      <c r="D183"/>
+      <c r="E183">
         <v>49</v>
       </c>
-      <c r="F183" s="2">
+      <c r="F183">
         <v>66</v>
       </c>
-      <c r="G183" s="2">
+      <c r="G183">
         <v>15</v>
       </c>
-      <c r="H183" s="2">
+      <c r="H183">
         <v>71</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I183"/>
+      <c r="J183"/>
+      <c r="K183"/>
+      <c r="L183"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B184" t="s">
         <v>52</v>
       </c>
-      <c r="C184" s="2">
+      <c r="C184">
         <v>150</v>
       </c>
-      <c r="E184" s="2">
+      <c r="D184"/>
+      <c r="E184">
         <v>61</v>
       </c>
-      <c r="F184" s="2">
+      <c r="F184">
         <v>43</v>
       </c>
-      <c r="G184" s="2">
+      <c r="G184">
         <v>76</v>
       </c>
-      <c r="H184" s="2">
+      <c r="H184">
         <v>71</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I184"/>
+      <c r="J184"/>
+      <c r="K184"/>
+      <c r="L184"/>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B185" t="s">
         <v>51</v>
       </c>
-      <c r="C185" s="2">
+      <c r="C185">
         <v>163</v>
       </c>
-      <c r="E185" s="2">
+      <c r="D185"/>
+      <c r="E185">
         <v>27</v>
       </c>
-      <c r="F185" s="2">
+      <c r="F185">
         <v>18</v>
       </c>
-      <c r="G185" s="2">
+      <c r="G185">
         <v>43</v>
       </c>
-      <c r="H185" s="2">
+      <c r="H185">
         <v>42</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I185"/>
+      <c r="J185"/>
+      <c r="K185"/>
+      <c r="L185"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B186" t="s">
         <v>50</v>
       </c>
-      <c r="C186" s="2">
+      <c r="C186">
         <v>165</v>
       </c>
-      <c r="E186" s="2">
+      <c r="D186"/>
+      <c r="E186">
         <v>75</v>
       </c>
-      <c r="F186" s="2">
+      <c r="F186">
         <v>72</v>
       </c>
-      <c r="G186" s="2">
+      <c r="G186">
         <v>52</v>
       </c>
-      <c r="H186" s="2">
+      <c r="H186">
         <v>46</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I186"/>
+      <c r="J186"/>
+      <c r="K186"/>
+      <c r="L186"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B187" t="s">
         <v>49</v>
       </c>
-      <c r="C187" s="2">
+      <c r="C187">
         <v>161</v>
       </c>
-      <c r="E187" s="2">
+      <c r="D187"/>
+      <c r="E187">
         <v>65</v>
       </c>
-      <c r="F187" s="2">
+      <c r="F187">
         <v>71</v>
       </c>
-      <c r="G187" s="2">
+      <c r="G187">
         <v>11</v>
       </c>
-      <c r="H187" s="2">
+      <c r="H187">
         <v>38</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I187"/>
+      <c r="J187"/>
+      <c r="K187"/>
+      <c r="L187"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B188" t="s">
         <v>48</v>
       </c>
-      <c r="C188" s="2">
+      <c r="C188">
         <v>148</v>
       </c>
-      <c r="E188" s="2">
+      <c r="D188"/>
+      <c r="E188">
         <v>83</v>
       </c>
-      <c r="F188" s="2">
+      <c r="F188">
         <v>70</v>
       </c>
-      <c r="G188" s="2">
+      <c r="G188">
         <v>72</v>
       </c>
-      <c r="H188" s="2">
+      <c r="H188">
         <v>86</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I188"/>
+      <c r="J188"/>
+      <c r="K188"/>
+      <c r="L188"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B189" t="s">
         <v>47</v>
       </c>
-      <c r="C189" s="2">
+      <c r="C189">
         <v>156</v>
       </c>
-      <c r="E189" s="2">
+      <c r="D189"/>
+      <c r="E189">
         <v>72</v>
       </c>
-      <c r="F189" s="2">
+      <c r="F189">
         <v>71</v>
       </c>
-      <c r="G189" s="2">
+      <c r="G189">
         <v>42</v>
       </c>
-      <c r="H189" s="2">
+      <c r="H189">
         <v>46</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I189"/>
+      <c r="J189"/>
+      <c r="K189"/>
+      <c r="L189"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B190" t="s">
         <v>46</v>
       </c>
-      <c r="C190" s="2">
+      <c r="C190">
         <v>167</v>
       </c>
-      <c r="E190" s="2">
+      <c r="D190"/>
+      <c r="E190">
         <v>83</v>
       </c>
-      <c r="F190" s="2">
+      <c r="F190">
         <v>98</v>
       </c>
-      <c r="G190" s="2">
+      <c r="G190">
         <v>22</v>
       </c>
-      <c r="H190" s="2">
+      <c r="H190">
         <v>35</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I190"/>
+      <c r="J190"/>
+      <c r="K190"/>
+      <c r="L190"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B191" t="s">
         <v>45</v>
       </c>
-      <c r="C191" s="2">
+      <c r="C191">
         <v>153</v>
       </c>
-      <c r="E191" s="2">
+      <c r="D191"/>
+      <c r="E191">
         <v>31</v>
       </c>
-      <c r="F191" s="2">
+      <c r="F191">
         <v>11</v>
       </c>
-      <c r="G191" s="2">
+      <c r="G191">
         <v>96</v>
       </c>
-      <c r="H191" s="2">
+      <c r="H191">
         <v>88</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I191"/>
+      <c r="J191"/>
+      <c r="K191"/>
+      <c r="L191"/>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B192" t="s">
         <v>44</v>
       </c>
-      <c r="C192" s="2">
+      <c r="C192">
         <v>144</v>
       </c>
-      <c r="E192" s="2">
+      <c r="D192"/>
+      <c r="E192">
         <v>65</v>
       </c>
-      <c r="F192" s="2">
+      <c r="F192">
         <v>70</v>
       </c>
-      <c r="G192" s="2">
+      <c r="G192">
         <v>56</v>
       </c>
-      <c r="H192" s="2">
+      <c r="H192">
         <v>48</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I192"/>
+      <c r="J192"/>
+      <c r="K192"/>
+      <c r="L192"/>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B193" t="s">
         <v>43</v>
       </c>
-      <c r="C193" s="2">
+      <c r="C193">
         <v>140</v>
       </c>
-      <c r="E193" s="2">
+      <c r="D193"/>
+      <c r="E193">
         <v>92</v>
       </c>
-      <c r="F193" s="2">
+      <c r="F193">
         <v>26</v>
       </c>
-      <c r="G193" s="2">
+      <c r="G193">
         <v>82</v>
       </c>
-      <c r="H193" s="2">
+      <c r="H193">
         <v>87</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I193"/>
+      <c r="J193"/>
+      <c r="K193"/>
+      <c r="L193"/>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B194" t="s">
         <v>42</v>
       </c>
-      <c r="C194" s="2">
+      <c r="C194">
         <v>153</v>
       </c>
-      <c r="E194" s="2">
+      <c r="D194"/>
+      <c r="E194">
         <v>81</v>
       </c>
-      <c r="F194" s="2">
+      <c r="F194">
         <v>82</v>
       </c>
-      <c r="G194" s="2">
+      <c r="G194">
         <v>49</v>
       </c>
-      <c r="H194" s="2">
+      <c r="H194">
         <v>68</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I194"/>
+      <c r="J194"/>
+      <c r="K194"/>
+      <c r="L194"/>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B195" t="s">
         <v>41</v>
       </c>
-      <c r="C195" s="2">
+      <c r="C195">
         <v>169</v>
       </c>
-      <c r="E195" s="2">
+      <c r="D195"/>
+      <c r="E195">
         <v>94</v>
       </c>
-      <c r="F195" s="2">
+      <c r="F195">
         <v>90</v>
       </c>
-      <c r="G195" s="2">
+      <c r="G195">
         <v>72</v>
       </c>
-      <c r="H195" s="2">
+      <c r="H195">
         <v>83</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I195"/>
+      <c r="J195"/>
+      <c r="K195"/>
+      <c r="L195"/>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B196" t="s">
         <v>40</v>
       </c>
-      <c r="C196" s="2">
+      <c r="C196">
         <v>163</v>
       </c>
-      <c r="E196" s="2">
+      <c r="D196"/>
+      <c r="E196">
         <v>41</v>
       </c>
-      <c r="F196" s="2">
+      <c r="F196">
         <v>33</v>
       </c>
-      <c r="G196" s="2">
+      <c r="G196">
         <v>80</v>
       </c>
-      <c r="H196" s="2">
+      <c r="H196">
         <v>69</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I196"/>
+      <c r="J196"/>
+      <c r="K196"/>
+      <c r="L196"/>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B197" t="s">
         <v>39</v>
       </c>
-      <c r="C197" s="2">
+      <c r="C197">
         <v>155</v>
       </c>
-      <c r="E197" s="2">
+      <c r="D197"/>
+      <c r="E197">
         <v>46</v>
       </c>
-      <c r="F197" s="2">
+      <c r="F197">
         <v>50</v>
       </c>
-      <c r="G197" s="2">
+      <c r="G197">
         <v>73</v>
       </c>
-      <c r="H197" s="2">
+      <c r="H197">
         <v>70</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I197"/>
+      <c r="J197"/>
+      <c r="K197"/>
+      <c r="L197"/>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B198" t="s">
         <v>38</v>
       </c>
-      <c r="C198" s="2">
+      <c r="C198">
         <v>169</v>
       </c>
-      <c r="E198" s="2">
+      <c r="D198"/>
+      <c r="E198">
         <v>85</v>
       </c>
-      <c r="F198" s="2">
+      <c r="F198">
         <v>89</v>
       </c>
-      <c r="G198" s="2">
+      <c r="G198">
         <v>62</v>
       </c>
-      <c r="H198" s="2">
+      <c r="H198">
         <v>76</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I198"/>
+      <c r="J198"/>
+      <c r="K198"/>
+      <c r="L198"/>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B199" t="s">
         <v>37</v>
       </c>
-      <c r="C199" s="2">
+      <c r="C199">
         <v>154</v>
       </c>
-      <c r="E199" s="2">
+      <c r="D199"/>
+      <c r="E199">
         <v>82</v>
       </c>
-      <c r="F199" s="2">
+      <c r="F199">
         <v>72</v>
       </c>
-      <c r="G199" s="2">
+      <c r="G199">
         <v>49</v>
       </c>
-      <c r="H199" s="2">
+      <c r="H199">
         <v>62</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I199"/>
+      <c r="J199"/>
+      <c r="K199"/>
+      <c r="L199"/>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B200" t="s">
         <v>36</v>
       </c>
-      <c r="C200" s="2">
+      <c r="C200">
         <v>153</v>
       </c>
-      <c r="E200" s="2">
+      <c r="D200"/>
+      <c r="E200">
         <v>79</v>
       </c>
-      <c r="F200" s="2">
+      <c r="F200">
         <v>83</v>
       </c>
-      <c r="G200" s="2">
+      <c r="G200">
         <v>58</v>
       </c>
-      <c r="H200" s="2">
+      <c r="H200">
         <v>51</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I200"/>
+      <c r="J200"/>
+      <c r="K200"/>
+      <c r="L200"/>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B201" t="s">
         <v>35</v>
       </c>
-      <c r="C201" s="2">
+      <c r="C201">
         <v>151</v>
       </c>
-      <c r="E201" s="2">
+      <c r="D201"/>
+      <c r="E201">
         <v>70</v>
       </c>
-      <c r="F201" s="2">
+      <c r="F201">
         <v>72</v>
       </c>
-      <c r="G201" s="2">
+      <c r="G201">
         <v>63</v>
       </c>
-      <c r="H201" s="2">
+      <c r="H201">
         <v>65</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I201"/>
+      <c r="J201"/>
+      <c r="K201"/>
+      <c r="L201"/>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B202" t="s">
         <v>34</v>
       </c>
-      <c r="C202" s="2">
+      <c r="C202">
         <v>154</v>
       </c>
-      <c r="E202" s="2">
+      <c r="D202"/>
+      <c r="E202">
         <v>71</v>
       </c>
-      <c r="F202" s="2">
+      <c r="F202">
         <v>72</v>
       </c>
-      <c r="G202" s="2">
+      <c r="G202">
         <v>37</v>
       </c>
-      <c r="H202" s="2">
+      <c r="H202">
         <v>36</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I202"/>
+      <c r="J202"/>
+      <c r="K202"/>
+      <c r="L202"/>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B203" t="s">
         <v>33</v>
       </c>
-      <c r="C203" s="2">
+      <c r="C203">
         <v>163</v>
       </c>
-      <c r="E203" s="2">
+      <c r="D203"/>
+      <c r="E203">
         <v>72</v>
       </c>
-      <c r="F203" s="2">
+      <c r="F203">
         <v>68</v>
       </c>
-      <c r="G203" s="2">
+      <c r="G203">
         <v>64</v>
       </c>
-      <c r="H203" s="2">
+      <c r="H203">
         <v>54</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I203"/>
+      <c r="J203"/>
+      <c r="K203"/>
+      <c r="L203"/>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="B204" t="s">
         <v>32</v>
       </c>
-      <c r="C204" s="2">
+      <c r="C204">
         <v>156</v>
       </c>
-      <c r="E204" s="2">
+      <c r="D204"/>
+      <c r="E204">
         <v>41</v>
       </c>
-      <c r="F204" s="2">
+      <c r="F204">
         <v>4</v>
       </c>
-      <c r="G204" s="2">
+      <c r="G204">
         <v>97</v>
       </c>
-      <c r="H204" s="2">
+      <c r="H204">
         <v>85</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I204"/>
+      <c r="J204"/>
+      <c r="K204"/>
+      <c r="L204"/>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B205" t="s">
         <v>31</v>
       </c>
-      <c r="C205" s="2">
+      <c r="C205">
         <v>168</v>
       </c>
-      <c r="E205" s="2">
+      <c r="D205"/>
+      <c r="E205">
         <v>18</v>
       </c>
-      <c r="F205" s="2">
+      <c r="F205">
         <v>20</v>
       </c>
-      <c r="G205" s="2">
+      <c r="G205">
         <v>61</v>
       </c>
-      <c r="H205" s="2">
+      <c r="H205">
         <v>35</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I205"/>
+      <c r="J205"/>
+      <c r="K205"/>
+      <c r="L205"/>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B206" t="s">
         <v>30</v>
       </c>
-      <c r="C206" s="2">
+      <c r="C206">
         <v>156</v>
       </c>
-      <c r="E206" s="2">
+      <c r="D206"/>
+      <c r="E206">
         <v>59</v>
       </c>
-      <c r="F206" s="2">
+      <c r="F206">
         <v>73</v>
       </c>
-      <c r="G206" s="2">
+      <c r="G206">
         <v>26</v>
       </c>
-      <c r="H206" s="2">
+      <c r="H206">
         <v>35</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I206"/>
+      <c r="J206"/>
+      <c r="K206"/>
+      <c r="L206"/>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B207" t="s">
         <v>29</v>
       </c>
-      <c r="C207" s="2">
+      <c r="C207">
         <v>168</v>
       </c>
-      <c r="E207" s="2">
+      <c r="D207"/>
+      <c r="E207">
         <v>88</v>
       </c>
-      <c r="F207" s="2">
+      <c r="F207">
         <v>96</v>
       </c>
-      <c r="G207" s="2">
+      <c r="G207">
         <v>72</v>
       </c>
-      <c r="H207" s="2">
+      <c r="H207">
         <v>78</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I207"/>
+      <c r="J207"/>
+      <c r="K207"/>
+      <c r="L207"/>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B208" t="s">
         <v>28</v>
       </c>
-      <c r="C208" s="2">
+      <c r="C208">
         <v>151</v>
       </c>
-      <c r="E208" s="2">
+      <c r="D208"/>
+      <c r="E208">
         <v>60</v>
       </c>
-      <c r="F208" s="2">
+      <c r="F208">
         <v>15</v>
       </c>
-      <c r="G208" s="2">
+      <c r="G208">
         <v>95</v>
       </c>
-      <c r="H208" s="2">
+      <c r="H208">
         <v>77</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I208"/>
+      <c r="J208"/>
+      <c r="K208"/>
+      <c r="L208"/>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="B209" t="s">
         <v>27</v>
       </c>
-      <c r="C209" s="2">
+      <c r="C209">
         <v>164</v>
       </c>
-      <c r="E209" s="2">
+      <c r="D209"/>
+      <c r="E209">
         <v>66</v>
       </c>
-      <c r="F209" s="2">
+      <c r="F209">
         <v>83</v>
       </c>
-      <c r="G209" s="2">
+      <c r="G209">
         <v>39</v>
       </c>
-      <c r="H209" s="2">
+      <c r="H209">
         <v>56</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I209"/>
+      <c r="J209"/>
+      <c r="K209"/>
+      <c r="L209"/>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B210" t="s">
         <v>26</v>
       </c>
-      <c r="C210" s="2">
+      <c r="C210">
         <v>159</v>
       </c>
-      <c r="E210" s="2">
+      <c r="D210"/>
+      <c r="E210">
         <v>68</v>
       </c>
-      <c r="F210" s="2">
+      <c r="F210">
         <v>69</v>
       </c>
-      <c r="G210" s="2">
+      <c r="G210">
         <v>57</v>
       </c>
-      <c r="H210" s="2">
+      <c r="H210">
         <v>71</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I210"/>
+      <c r="J210"/>
+      <c r="K210"/>
+      <c r="L210"/>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B211" t="s">
         <v>25</v>
       </c>
-      <c r="C211" s="2">
+      <c r="C211">
         <v>149</v>
       </c>
-      <c r="E211" s="2">
+      <c r="D211"/>
+      <c r="E211">
         <v>81</v>
       </c>
-      <c r="F211" s="2">
+      <c r="F211">
         <v>40</v>
       </c>
-      <c r="G211" s="2">
+      <c r="G211">
         <v>77</v>
       </c>
-      <c r="H211" s="2">
+      <c r="H211">
         <v>72</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I211"/>
+      <c r="J211"/>
+      <c r="K211"/>
+      <c r="L211"/>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="B212" t="s">
         <v>24</v>
       </c>
-      <c r="C212" s="2">
+      <c r="C212">
         <v>156</v>
       </c>
-      <c r="E212" s="2">
+      <c r="D212"/>
+      <c r="E212">
         <v>70</v>
       </c>
-      <c r="F212" s="2">
+      <c r="F212">
         <v>58</v>
       </c>
-      <c r="G212" s="2">
+      <c r="G212">
         <v>74</v>
       </c>
-      <c r="H212" s="2">
+      <c r="H212">
         <v>72</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I212"/>
+      <c r="J212"/>
+      <c r="K212"/>
+      <c r="L212"/>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B213" t="s">
         <v>23</v>
       </c>
-      <c r="C213" s="2">
+      <c r="C213">
         <v>148</v>
       </c>
-      <c r="E213" s="2">
+      <c r="D213"/>
+      <c r="E213">
         <v>68</v>
       </c>
-      <c r="F213" s="2">
+      <c r="F213">
         <v>71</v>
       </c>
-      <c r="G213" s="2">
+      <c r="G213">
         <v>45</v>
       </c>
-      <c r="H213" s="2">
+      <c r="H213">
         <v>36</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I213"/>
+      <c r="J213"/>
+      <c r="K213"/>
+      <c r="L213"/>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B214" t="s">
         <v>22</v>
       </c>
-      <c r="C214" s="2">
+      <c r="C214">
         <v>144</v>
       </c>
-      <c r="E214" s="2">
+      <c r="D214"/>
+      <c r="E214">
         <v>72</v>
       </c>
-      <c r="F214" s="2">
+      <c r="F214">
         <v>70</v>
       </c>
-      <c r="G214" s="2">
+      <c r="G214">
         <v>57</v>
       </c>
-      <c r="H214" s="2">
+      <c r="H214">
         <v>65</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="I214"/>
+      <c r="J214"/>
+      <c r="K214"/>
+      <c r="L214"/>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B215" t="s">
         <v>21</v>
       </c>
-      <c r="C215" s="2">
+      <c r="C215">
         <v>155</v>
       </c>
-      <c r="E215" s="2">
+      <c r="D215"/>
+      <c r="E215">
         <v>72</v>
       </c>
-      <c r="F215" s="2">
+      <c r="F215">
         <v>70</v>
       </c>
-      <c r="G215" s="2">
+      <c r="G215">
         <v>53</v>
       </c>
-      <c r="H215" s="2">
+      <c r="H215">
         <v>64</v>
       </c>
+      <c r="I215"/>
+      <c r="J215"/>
+      <c r="K215"/>
+      <c r="L215"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/code/数据库设计/武将设计.xlsx
+++ b/code/数据库设计/武将设计.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496E6CB9-47A6-46F7-BA44-1E86B74A280E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF818E3-775A-42C1-AC10-D9E32214BA51}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
   <si>
     <t>武将ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,10 +56,6 @@
   </si>
   <si>
     <t>武将计策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武将魅力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1057,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L215"/>
+  <dimension ref="A1:K215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1069,13 +1065,13 @@
     <col min="2" max="2" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="9" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1109,16 +1105,13 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>155</v>
@@ -1141,14 +1134,13 @@
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
-      <c r="L2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>161</v>
@@ -1171,14 +1163,13 @@
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
-      <c r="L3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>155</v>
@@ -1201,14 +1192,13 @@
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
-      <c r="L4"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>135</v>
@@ -1231,14 +1221,13 @@
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
-      <c r="L5"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>139</v>
@@ -1261,14 +1250,13 @@
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
-      <c r="L6"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>156</v>
@@ -1291,14 +1279,13 @@
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
-      <c r="L7"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>153</v>
@@ -1321,14 +1308,13 @@
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
-      <c r="L8"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>132</v>
@@ -1351,14 +1337,13 @@
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
-      <c r="L9"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>132</v>
@@ -1381,14 +1366,13 @@
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
-      <c r="L10"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C11">
         <v>152</v>
@@ -1409,14 +1393,13 @@
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
-      <c r="L11"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C12">
         <v>169</v>
@@ -1437,14 +1420,13 @@
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
-      <c r="L12"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C13">
         <v>166</v>
@@ -1465,14 +1447,13 @@
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
-      <c r="L13"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C14">
         <v>155</v>
@@ -1493,14 +1474,13 @@
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
-      <c r="L14"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C15">
         <v>168</v>
@@ -1521,14 +1501,13 @@
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
-      <c r="L15"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C16">
         <v>151</v>
@@ -1549,14 +1528,13 @@
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
-      <c r="L16"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C17">
         <v>169</v>
@@ -1577,14 +1555,13 @@
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
-      <c r="L17"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C18">
         <v>168</v>
@@ -1605,14 +1582,13 @@
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
-      <c r="L18"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C19">
         <v>163</v>
@@ -1633,14 +1609,13 @@
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
-      <c r="L19"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C20">
         <v>164</v>
@@ -1661,14 +1636,13 @@
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
-      <c r="L20"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C21">
         <v>169</v>
@@ -1689,14 +1663,13 @@
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
-      <c r="L21"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C22">
         <v>154</v>
@@ -1717,14 +1690,13 @@
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
-      <c r="L22"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C23">
         <v>132</v>
@@ -1745,14 +1717,13 @@
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
-      <c r="L23"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C24">
         <v>161</v>
@@ -1773,14 +1744,13 @@
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
-      <c r="L24"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C25">
         <v>165</v>
@@ -1801,14 +1771,13 @@
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
-      <c r="L25"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C26">
         <v>157</v>
@@ -1829,14 +1798,13 @@
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
-      <c r="L26"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C27">
         <v>160</v>
@@ -1857,14 +1825,13 @@
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
-      <c r="L27"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C28">
         <v>167</v>
@@ -1885,14 +1852,13 @@
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
-      <c r="L28"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C29">
         <v>168</v>
@@ -1913,14 +1879,13 @@
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
-      <c r="L29"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C30">
         <v>151</v>
@@ -1941,14 +1906,13 @@
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
-      <c r="L30"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C31">
         <v>169</v>
@@ -1969,14 +1933,13 @@
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
-      <c r="L31"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C32">
         <v>141</v>
@@ -1997,14 +1960,13 @@
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
-      <c r="L32"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C33">
         <v>145</v>
@@ -2025,14 +1987,13 @@
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
-      <c r="L33"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C34">
         <v>146</v>
@@ -2053,14 +2014,13 @@
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
-      <c r="L34"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C35">
         <v>163</v>
@@ -2081,14 +2041,13 @@
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
-      <c r="L35"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C36">
         <v>156</v>
@@ -2109,14 +2068,13 @@
       <c r="I36"/>
       <c r="J36"/>
       <c r="K36"/>
-      <c r="L36"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C37">
         <v>147</v>
@@ -2137,14 +2095,13 @@
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
-      <c r="L37"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C38">
         <v>160</v>
@@ -2165,14 +2122,13 @@
       <c r="I38"/>
       <c r="J38"/>
       <c r="K38"/>
-      <c r="L38"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C39">
         <v>137</v>
@@ -2193,14 +2149,13 @@
       <c r="I39"/>
       <c r="J39"/>
       <c r="K39"/>
-      <c r="L39"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C40">
         <v>154</v>
@@ -2221,14 +2176,13 @@
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
-      <c r="L40"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C41">
         <v>168</v>
@@ -2249,14 +2203,13 @@
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
-      <c r="L41"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C42">
         <v>149</v>
@@ -2277,14 +2230,13 @@
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
-      <c r="L42"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C43">
         <v>169</v>
@@ -2305,14 +2257,13 @@
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
-      <c r="L43"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C44">
         <v>156</v>
@@ -2333,14 +2284,13 @@
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
-      <c r="L44"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C45">
         <v>153</v>
@@ -2361,14 +2311,13 @@
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
-      <c r="L45"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C46">
         <v>153</v>
@@ -2389,14 +2338,13 @@
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
-      <c r="L46"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C47">
         <v>153</v>
@@ -2417,14 +2365,13 @@
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
-      <c r="L47"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C48">
         <v>162</v>
@@ -2445,14 +2392,13 @@
       <c r="I48"/>
       <c r="J48"/>
       <c r="K48"/>
-      <c r="L48"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C49">
         <v>163</v>
@@ -2473,14 +2419,13 @@
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
-      <c r="L49"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C50">
         <v>168</v>
@@ -2501,14 +2446,13 @@
       <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
-      <c r="L50"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C51">
         <v>159</v>
@@ -2529,14 +2473,13 @@
       <c r="I51"/>
       <c r="J51"/>
       <c r="K51"/>
-      <c r="L51"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C52">
         <v>145</v>
@@ -2557,14 +2500,13 @@
       <c r="I52"/>
       <c r="J52"/>
       <c r="K52"/>
-      <c r="L52"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C53">
         <v>158</v>
@@ -2585,14 +2527,13 @@
       <c r="I53"/>
       <c r="J53"/>
       <c r="K53"/>
-      <c r="L53"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C54">
         <v>155</v>
@@ -2613,14 +2554,13 @@
       <c r="I54"/>
       <c r="J54"/>
       <c r="K54"/>
-      <c r="L54"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C55">
         <v>158</v>
@@ -2641,14 +2581,13 @@
       <c r="I55"/>
       <c r="J55"/>
       <c r="K55"/>
-      <c r="L55"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C56">
         <v>160</v>
@@ -2669,14 +2608,13 @@
       <c r="I56"/>
       <c r="J56"/>
       <c r="K56"/>
-      <c r="L56"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C57">
         <v>164</v>
@@ -2697,14 +2635,13 @@
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57"/>
-      <c r="L57"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C58">
         <v>158</v>
@@ -2725,14 +2662,13 @@
       <c r="I58"/>
       <c r="J58"/>
       <c r="K58"/>
-      <c r="L58"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C59">
         <v>162</v>
@@ -2753,14 +2689,13 @@
       <c r="I59"/>
       <c r="J59"/>
       <c r="K59"/>
-      <c r="L59"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C60">
         <v>160</v>
@@ -2781,14 +2716,13 @@
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60"/>
-      <c r="L60"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C61">
         <v>146</v>
@@ -2809,14 +2743,13 @@
       <c r="I61"/>
       <c r="J61"/>
       <c r="K61"/>
-      <c r="L61"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C62">
         <v>155</v>
@@ -2837,14 +2770,13 @@
       <c r="I62"/>
       <c r="J62"/>
       <c r="K62"/>
-      <c r="L62"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C63">
         <v>156</v>
@@ -2865,14 +2797,13 @@
       <c r="I63"/>
       <c r="J63"/>
       <c r="K63"/>
-      <c r="L63"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C64">
         <v>149</v>
@@ -2893,14 +2824,13 @@
       <c r="I64"/>
       <c r="J64"/>
       <c r="K64"/>
-      <c r="L64"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C65">
         <v>164</v>
@@ -2921,14 +2851,13 @@
       <c r="I65"/>
       <c r="J65"/>
       <c r="K65"/>
-      <c r="L65"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C66">
         <v>154</v>
@@ -2949,14 +2878,13 @@
       <c r="I66"/>
       <c r="J66"/>
       <c r="K66"/>
-      <c r="L66"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C67">
         <v>163</v>
@@ -2977,14 +2905,13 @@
       <c r="I67"/>
       <c r="J67"/>
       <c r="K67"/>
-      <c r="L67"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C68">
         <v>159</v>
@@ -3005,14 +2932,13 @@
       <c r="I68"/>
       <c r="J68"/>
       <c r="K68"/>
-      <c r="L68"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C69">
         <v>163</v>
@@ -3033,14 +2959,13 @@
       <c r="I69"/>
       <c r="J69"/>
       <c r="K69"/>
-      <c r="L69"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C70">
         <v>155</v>
@@ -3061,14 +2986,13 @@
       <c r="I70"/>
       <c r="J70"/>
       <c r="K70"/>
-      <c r="L70"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C71">
         <v>156</v>
@@ -3089,14 +3013,13 @@
       <c r="I71"/>
       <c r="J71"/>
       <c r="K71"/>
-      <c r="L71"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C72">
         <v>161</v>
@@ -3117,14 +3040,13 @@
       <c r="I72"/>
       <c r="J72"/>
       <c r="K72"/>
-      <c r="L72"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C73">
         <v>158</v>
@@ -3145,14 +3067,13 @@
       <c r="I73"/>
       <c r="J73"/>
       <c r="K73"/>
-      <c r="L73"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C74">
         <v>146</v>
@@ -3173,14 +3094,13 @@
       <c r="I74"/>
       <c r="J74"/>
       <c r="K74"/>
-      <c r="L74"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C75">
         <v>157</v>
@@ -3201,14 +3121,13 @@
       <c r="I75"/>
       <c r="J75"/>
       <c r="K75"/>
-      <c r="L75"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C76">
         <v>155</v>
@@ -3229,14 +3148,13 @@
       <c r="I76"/>
       <c r="J76"/>
       <c r="K76"/>
-      <c r="L76"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C77">
         <v>132</v>
@@ -3257,14 +3175,13 @@
       <c r="I77"/>
       <c r="J77"/>
       <c r="K77"/>
-      <c r="L77"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C78">
         <v>154</v>
@@ -3285,14 +3202,13 @@
       <c r="I78"/>
       <c r="J78"/>
       <c r="K78"/>
-      <c r="L78"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C79">
         <v>167</v>
@@ -3313,14 +3229,13 @@
       <c r="I79"/>
       <c r="J79"/>
       <c r="K79"/>
-      <c r="L79"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C80">
         <v>148</v>
@@ -3341,14 +3256,13 @@
       <c r="I80"/>
       <c r="J80"/>
       <c r="K80"/>
-      <c r="L80"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C81">
         <v>148</v>
@@ -3369,14 +3283,13 @@
       <c r="I81"/>
       <c r="J81"/>
       <c r="K81"/>
-      <c r="L81"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C82">
         <v>155</v>
@@ -3397,14 +3310,13 @@
       <c r="I82"/>
       <c r="J82"/>
       <c r="K82"/>
-      <c r="L82"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C83">
         <v>147</v>
@@ -3425,14 +3337,13 @@
       <c r="I83"/>
       <c r="J83"/>
       <c r="K83"/>
-      <c r="L83"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C84">
         <v>167</v>
@@ -3453,14 +3364,13 @@
       <c r="I84"/>
       <c r="J84"/>
       <c r="K84"/>
-      <c r="L84"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C85">
         <v>168</v>
@@ -3481,14 +3391,13 @@
       <c r="I85"/>
       <c r="J85"/>
       <c r="K85"/>
-      <c r="L85"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C86">
         <v>159</v>
@@ -3509,14 +3418,13 @@
       <c r="I86"/>
       <c r="J86"/>
       <c r="K86"/>
-      <c r="L86"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C87">
         <v>155</v>
@@ -3537,14 +3445,13 @@
       <c r="I87"/>
       <c r="J87"/>
       <c r="K87"/>
-      <c r="L87"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C88">
         <v>156</v>
@@ -3565,14 +3472,13 @@
       <c r="I88"/>
       <c r="J88"/>
       <c r="K88"/>
-      <c r="L88"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C89">
         <v>153</v>
@@ -3593,14 +3499,13 @@
       <c r="I89"/>
       <c r="J89"/>
       <c r="K89"/>
-      <c r="L89"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C90">
         <v>151</v>
@@ -3621,14 +3526,13 @@
       <c r="I90"/>
       <c r="J90"/>
       <c r="K90"/>
-      <c r="L90"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C91">
         <v>155</v>
@@ -3649,14 +3553,13 @@
       <c r="I91"/>
       <c r="J91"/>
       <c r="K91"/>
-      <c r="L91"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C92">
         <v>157</v>
@@ -3677,14 +3580,13 @@
       <c r="I92"/>
       <c r="J92"/>
       <c r="K92"/>
-      <c r="L92"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C93">
         <v>159</v>
@@ -3705,14 +3607,13 @@
       <c r="I93"/>
       <c r="J93"/>
       <c r="K93"/>
-      <c r="L93"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C94">
         <v>163</v>
@@ -3733,14 +3634,13 @@
       <c r="I94"/>
       <c r="J94"/>
       <c r="K94"/>
-      <c r="L94"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C95">
         <v>160</v>
@@ -3761,14 +3661,13 @@
       <c r="I95"/>
       <c r="J95"/>
       <c r="K95"/>
-      <c r="L95"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C96">
         <v>148</v>
@@ -3789,14 +3688,13 @@
       <c r="I96"/>
       <c r="J96"/>
       <c r="K96"/>
-      <c r="L96"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C97">
         <v>150</v>
@@ -3817,14 +3715,13 @@
       <c r="I97"/>
       <c r="J97"/>
       <c r="K97"/>
-      <c r="L97"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C98">
         <v>156</v>
@@ -3845,14 +3742,13 @@
       <c r="I98"/>
       <c r="J98"/>
       <c r="K98"/>
-      <c r="L98"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C99">
         <v>168</v>
@@ -3873,14 +3769,13 @@
       <c r="I99"/>
       <c r="J99"/>
       <c r="K99"/>
-      <c r="L99"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C100">
         <v>169</v>
@@ -3901,14 +3796,13 @@
       <c r="I100"/>
       <c r="J100"/>
       <c r="K100"/>
-      <c r="L100"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C101">
         <v>165</v>
@@ -3929,14 +3823,13 @@
       <c r="I101"/>
       <c r="J101"/>
       <c r="K101"/>
-      <c r="L101"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C102">
         <v>142</v>
@@ -3957,14 +3850,13 @@
       <c r="I102"/>
       <c r="J102"/>
       <c r="K102"/>
-      <c r="L102"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C103">
         <v>147</v>
@@ -3985,14 +3877,13 @@
       <c r="I103"/>
       <c r="J103"/>
       <c r="K103"/>
-      <c r="L103"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C104">
         <v>163</v>
@@ -4013,14 +3904,13 @@
       <c r="I104"/>
       <c r="J104"/>
       <c r="K104"/>
-      <c r="L104"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C105">
         <v>168</v>
@@ -4041,14 +3931,13 @@
       <c r="I105"/>
       <c r="J105"/>
       <c r="K105"/>
-      <c r="L105"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C106">
         <v>165</v>
@@ -4069,14 +3958,13 @@
       <c r="I106"/>
       <c r="J106"/>
       <c r="K106"/>
-      <c r="L106"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C107">
         <v>169</v>
@@ -4097,14 +3985,13 @@
       <c r="I107"/>
       <c r="J107"/>
       <c r="K107"/>
-      <c r="L107"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C108">
         <v>156</v>
@@ -4125,14 +4012,13 @@
       <c r="I108"/>
       <c r="J108"/>
       <c r="K108"/>
-      <c r="L108"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C109">
         <v>145</v>
@@ -4153,14 +4039,13 @@
       <c r="I109"/>
       <c r="J109"/>
       <c r="K109"/>
-      <c r="L109"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C110">
         <v>162</v>
@@ -4181,14 +4066,13 @@
       <c r="I110"/>
       <c r="J110"/>
       <c r="K110"/>
-      <c r="L110"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C111">
         <v>139</v>
@@ -4209,14 +4093,13 @@
       <c r="I111"/>
       <c r="J111"/>
       <c r="K111"/>
-      <c r="L111"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C112">
         <v>156</v>
@@ -4237,14 +4120,13 @@
       <c r="I112"/>
       <c r="J112"/>
       <c r="K112"/>
-      <c r="L112"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C113">
         <v>161</v>
@@ -4265,14 +4147,13 @@
       <c r="I113"/>
       <c r="J113"/>
       <c r="K113"/>
-      <c r="L113"/>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C114">
         <v>169</v>
@@ -4293,14 +4174,13 @@
       <c r="I114"/>
       <c r="J114"/>
       <c r="K114"/>
-      <c r="L114"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C115">
         <v>162</v>
@@ -4321,14 +4201,13 @@
       <c r="I115"/>
       <c r="J115"/>
       <c r="K115"/>
-      <c r="L115"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C116">
         <v>169</v>
@@ -4349,14 +4228,13 @@
       <c r="I116"/>
       <c r="J116"/>
       <c r="K116"/>
-      <c r="L116"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C117">
         <v>164</v>
@@ -4377,14 +4255,13 @@
       <c r="I117"/>
       <c r="J117"/>
       <c r="K117"/>
-      <c r="L117"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C118">
         <v>161</v>
@@ -4405,14 +4282,13 @@
       <c r="I118"/>
       <c r="J118"/>
       <c r="K118"/>
-      <c r="L118"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C119">
         <v>169</v>
@@ -4433,14 +4309,13 @@
       <c r="I119"/>
       <c r="J119"/>
       <c r="K119"/>
-      <c r="L119"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C120">
         <v>165</v>
@@ -4461,14 +4336,13 @@
       <c r="I120"/>
       <c r="J120"/>
       <c r="K120"/>
-      <c r="L120"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C121">
         <v>162</v>
@@ -4489,14 +4363,13 @@
       <c r="I121"/>
       <c r="J121"/>
       <c r="K121"/>
-      <c r="L121"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C122">
         <v>159</v>
@@ -4517,14 +4390,13 @@
       <c r="I122"/>
       <c r="J122"/>
       <c r="K122"/>
-      <c r="L122"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C123">
         <v>163</v>
@@ -4545,14 +4417,13 @@
       <c r="I123"/>
       <c r="J123"/>
       <c r="K123"/>
-      <c r="L123"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C124">
         <v>153</v>
@@ -4573,14 +4444,13 @@
       <c r="I124"/>
       <c r="J124"/>
       <c r="K124"/>
-      <c r="L124"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C125">
         <v>169</v>
@@ -4601,14 +4471,13 @@
       <c r="I125"/>
       <c r="J125"/>
       <c r="K125"/>
-      <c r="L125"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C126">
         <v>150</v>
@@ -4629,14 +4498,13 @@
       <c r="I126"/>
       <c r="J126"/>
       <c r="K126"/>
-      <c r="L126"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C127">
         <v>146</v>
@@ -4657,14 +4525,13 @@
       <c r="I127"/>
       <c r="J127"/>
       <c r="K127"/>
-      <c r="L127"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C128">
         <v>167</v>
@@ -4685,14 +4552,13 @@
       <c r="I128"/>
       <c r="J128"/>
       <c r="K128"/>
-      <c r="L128"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C129">
         <v>156</v>
@@ -4713,14 +4579,13 @@
       <c r="I129"/>
       <c r="J129"/>
       <c r="K129"/>
-      <c r="L129"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C130">
         <v>157</v>
@@ -4741,14 +4606,13 @@
       <c r="I130"/>
       <c r="J130"/>
       <c r="K130"/>
-      <c r="L130"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C131">
         <v>164</v>
@@ -4769,14 +4633,13 @@
       <c r="I131"/>
       <c r="J131"/>
       <c r="K131"/>
-      <c r="L131"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C132">
         <v>156</v>
@@ -4797,14 +4660,13 @@
       <c r="I132"/>
       <c r="J132"/>
       <c r="K132"/>
-      <c r="L132"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C133">
         <v>165</v>
@@ -4825,14 +4687,13 @@
       <c r="I133"/>
       <c r="J133"/>
       <c r="K133"/>
-      <c r="L133"/>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C134">
         <v>157</v>
@@ -4853,14 +4714,13 @@
       <c r="I134"/>
       <c r="J134"/>
       <c r="K134"/>
-      <c r="L134"/>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C135">
         <v>166</v>
@@ -4881,14 +4741,13 @@
       <c r="I135"/>
       <c r="J135"/>
       <c r="K135"/>
-      <c r="L135"/>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C136">
         <v>169</v>
@@ -4909,14 +4768,13 @@
       <c r="I136"/>
       <c r="J136"/>
       <c r="K136"/>
-      <c r="L136"/>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C137">
         <v>162</v>
@@ -4937,14 +4795,13 @@
       <c r="I137"/>
       <c r="J137"/>
       <c r="K137"/>
-      <c r="L137"/>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C138">
         <v>154</v>
@@ -4965,14 +4822,13 @@
       <c r="I138"/>
       <c r="J138"/>
       <c r="K138"/>
-      <c r="L138"/>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C139">
         <v>150</v>
@@ -4993,14 +4849,13 @@
       <c r="I139"/>
       <c r="J139"/>
       <c r="K139"/>
-      <c r="L139"/>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C140">
         <v>162</v>
@@ -5021,14 +4876,13 @@
       <c r="I140"/>
       <c r="J140"/>
       <c r="K140"/>
-      <c r="L140"/>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C141">
         <v>162</v>
@@ -5049,14 +4903,13 @@
       <c r="I141"/>
       <c r="J141"/>
       <c r="K141"/>
-      <c r="L141"/>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C142">
         <v>163</v>
@@ -5077,14 +4930,13 @@
       <c r="I142"/>
       <c r="J142"/>
       <c r="K142"/>
-      <c r="L142"/>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C143">
         <v>168</v>
@@ -5105,14 +4957,13 @@
       <c r="I143"/>
       <c r="J143"/>
       <c r="K143"/>
-      <c r="L143"/>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C144">
         <v>137</v>
@@ -5133,14 +4984,13 @@
       <c r="I144"/>
       <c r="J144"/>
       <c r="K144"/>
-      <c r="L144"/>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C145">
         <v>152</v>
@@ -5161,14 +5011,13 @@
       <c r="I145"/>
       <c r="J145"/>
       <c r="K145"/>
-      <c r="L145"/>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C146">
         <v>156</v>
@@ -5189,14 +5038,13 @@
       <c r="I146"/>
       <c r="J146"/>
       <c r="K146"/>
-      <c r="L146"/>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C147">
         <v>151</v>
@@ -5217,14 +5065,13 @@
       <c r="I147"/>
       <c r="J147"/>
       <c r="K147"/>
-      <c r="L147"/>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C148">
         <v>161</v>
@@ -5245,14 +5092,13 @@
       <c r="I148"/>
       <c r="J148"/>
       <c r="K148"/>
-      <c r="L148"/>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C149">
         <v>151</v>
@@ -5273,14 +5119,13 @@
       <c r="I149"/>
       <c r="J149"/>
       <c r="K149"/>
-      <c r="L149"/>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C150">
         <v>166</v>
@@ -5301,14 +5146,13 @@
       <c r="I150"/>
       <c r="J150"/>
       <c r="K150"/>
-      <c r="L150"/>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C151">
         <v>163</v>
@@ -5329,14 +5173,13 @@
       <c r="I151"/>
       <c r="J151"/>
       <c r="K151"/>
-      <c r="L151"/>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C152">
         <v>157</v>
@@ -5357,14 +5200,13 @@
       <c r="I152"/>
       <c r="J152"/>
       <c r="K152"/>
-      <c r="L152"/>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C153">
         <v>157</v>
@@ -5385,14 +5227,13 @@
       <c r="I153"/>
       <c r="J153"/>
       <c r="K153"/>
-      <c r="L153"/>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C154">
         <v>163</v>
@@ -5413,14 +5254,13 @@
       <c r="I154"/>
       <c r="J154"/>
       <c r="K154"/>
-      <c r="L154"/>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C155">
         <v>167</v>
@@ -5441,14 +5281,13 @@
       <c r="I155"/>
       <c r="J155"/>
       <c r="K155"/>
-      <c r="L155"/>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C156">
         <v>165</v>
@@ -5469,14 +5308,13 @@
       <c r="I156"/>
       <c r="J156"/>
       <c r="K156"/>
-      <c r="L156"/>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C157">
         <v>151</v>
@@ -5497,14 +5335,13 @@
       <c r="I157"/>
       <c r="J157"/>
       <c r="K157"/>
-      <c r="L157"/>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C158">
         <v>169</v>
@@ -5525,14 +5362,13 @@
       <c r="I158"/>
       <c r="J158"/>
       <c r="K158"/>
-      <c r="L158"/>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C159">
         <v>147</v>
@@ -5553,14 +5389,13 @@
       <c r="I159"/>
       <c r="J159"/>
       <c r="K159"/>
-      <c r="L159"/>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C160">
         <v>155</v>
@@ -5581,14 +5416,13 @@
       <c r="I160"/>
       <c r="J160"/>
       <c r="K160"/>
-      <c r="L160"/>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C161">
         <v>152</v>
@@ -5609,14 +5443,13 @@
       <c r="I161"/>
       <c r="J161"/>
       <c r="K161"/>
-      <c r="L161"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C162">
         <v>155</v>
@@ -5637,14 +5470,13 @@
       <c r="I162"/>
       <c r="J162"/>
       <c r="K162"/>
-      <c r="L162"/>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C163">
         <v>163</v>
@@ -5665,14 +5497,13 @@
       <c r="I163"/>
       <c r="J163"/>
       <c r="K163"/>
-      <c r="L163"/>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C164">
         <v>157</v>
@@ -5693,14 +5524,13 @@
       <c r="I164"/>
       <c r="J164"/>
       <c r="K164"/>
-      <c r="L164"/>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C165">
         <v>142</v>
@@ -5721,14 +5551,13 @@
       <c r="I165"/>
       <c r="J165"/>
       <c r="K165"/>
-      <c r="L165"/>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C166">
         <v>163</v>
@@ -5749,14 +5578,13 @@
       <c r="I166"/>
       <c r="J166"/>
       <c r="K166"/>
-      <c r="L166"/>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C167">
         <v>145</v>
@@ -5777,14 +5605,13 @@
       <c r="I167"/>
       <c r="J167"/>
       <c r="K167"/>
-      <c r="L167"/>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C168">
         <v>153</v>
@@ -5805,14 +5632,13 @@
       <c r="I168"/>
       <c r="J168"/>
       <c r="K168"/>
-      <c r="L168"/>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C169">
         <v>151</v>
@@ -5833,14 +5659,13 @@
       <c r="I169"/>
       <c r="J169"/>
       <c r="K169"/>
-      <c r="L169"/>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C170">
         <v>163</v>
@@ -5861,14 +5686,13 @@
       <c r="I170"/>
       <c r="J170"/>
       <c r="K170"/>
-      <c r="L170"/>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C171">
         <v>168</v>
@@ -5889,14 +5713,13 @@
       <c r="I171"/>
       <c r="J171"/>
       <c r="K171"/>
-      <c r="L171"/>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C172">
         <v>158</v>
@@ -5917,14 +5740,13 @@
       <c r="I172"/>
       <c r="J172"/>
       <c r="K172"/>
-      <c r="L172"/>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C173">
         <v>160</v>
@@ -5945,14 +5767,13 @@
       <c r="I173"/>
       <c r="J173"/>
       <c r="K173"/>
-      <c r="L173"/>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C174">
         <v>159</v>
@@ -5973,14 +5794,13 @@
       <c r="I174"/>
       <c r="J174"/>
       <c r="K174"/>
-      <c r="L174"/>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C175">
         <v>153</v>
@@ -6001,14 +5821,13 @@
       <c r="I175"/>
       <c r="J175"/>
       <c r="K175"/>
-      <c r="L175"/>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C176">
         <v>152</v>
@@ -6029,14 +5848,13 @@
       <c r="I176"/>
       <c r="J176"/>
       <c r="K176"/>
-      <c r="L176"/>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C177">
         <v>167</v>
@@ -6057,14 +5875,13 @@
       <c r="I177"/>
       <c r="J177"/>
       <c r="K177"/>
-      <c r="L177"/>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C178">
         <v>162</v>
@@ -6085,14 +5902,13 @@
       <c r="I178"/>
       <c r="J178"/>
       <c r="K178"/>
-      <c r="L178"/>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C179">
         <v>159</v>
@@ -6113,14 +5929,13 @@
       <c r="I179"/>
       <c r="J179"/>
       <c r="K179"/>
-      <c r="L179"/>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C180">
         <v>158</v>
@@ -6141,14 +5956,13 @@
       <c r="I180"/>
       <c r="J180"/>
       <c r="K180"/>
-      <c r="L180"/>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C181">
         <v>164</v>
@@ -6169,14 +5983,13 @@
       <c r="I181"/>
       <c r="J181"/>
       <c r="K181"/>
-      <c r="L181"/>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C182">
         <v>154</v>
@@ -6197,14 +6010,13 @@
       <c r="I182"/>
       <c r="J182"/>
       <c r="K182"/>
-      <c r="L182"/>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C183">
         <v>155</v>
@@ -6225,14 +6037,13 @@
       <c r="I183"/>
       <c r="J183"/>
       <c r="K183"/>
-      <c r="L183"/>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C184">
         <v>150</v>
@@ -6253,14 +6064,13 @@
       <c r="I184"/>
       <c r="J184"/>
       <c r="K184"/>
-      <c r="L184"/>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C185">
         <v>163</v>
@@ -6281,14 +6091,13 @@
       <c r="I185"/>
       <c r="J185"/>
       <c r="K185"/>
-      <c r="L185"/>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C186">
         <v>165</v>
@@ -6309,14 +6118,13 @@
       <c r="I186"/>
       <c r="J186"/>
       <c r="K186"/>
-      <c r="L186"/>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C187">
         <v>161</v>
@@ -6337,14 +6145,13 @@
       <c r="I187"/>
       <c r="J187"/>
       <c r="K187"/>
-      <c r="L187"/>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C188">
         <v>148</v>
@@ -6365,14 +6172,13 @@
       <c r="I188"/>
       <c r="J188"/>
       <c r="K188"/>
-      <c r="L188"/>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C189">
         <v>156</v>
@@ -6393,14 +6199,13 @@
       <c r="I189"/>
       <c r="J189"/>
       <c r="K189"/>
-      <c r="L189"/>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C190">
         <v>167</v>
@@ -6421,14 +6226,13 @@
       <c r="I190"/>
       <c r="J190"/>
       <c r="K190"/>
-      <c r="L190"/>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C191">
         <v>153</v>
@@ -6449,14 +6253,13 @@
       <c r="I191"/>
       <c r="J191"/>
       <c r="K191"/>
-      <c r="L191"/>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C192">
         <v>144</v>
@@ -6477,14 +6280,13 @@
       <c r="I192"/>
       <c r="J192"/>
       <c r="K192"/>
-      <c r="L192"/>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C193">
         <v>140</v>
@@ -6505,14 +6307,13 @@
       <c r="I193"/>
       <c r="J193"/>
       <c r="K193"/>
-      <c r="L193"/>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C194">
         <v>153</v>
@@ -6533,14 +6334,13 @@
       <c r="I194"/>
       <c r="J194"/>
       <c r="K194"/>
-      <c r="L194"/>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C195">
         <v>169</v>
@@ -6561,14 +6361,13 @@
       <c r="I195"/>
       <c r="J195"/>
       <c r="K195"/>
-      <c r="L195"/>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C196">
         <v>163</v>
@@ -6589,14 +6388,13 @@
       <c r="I196"/>
       <c r="J196"/>
       <c r="K196"/>
-      <c r="L196"/>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C197">
         <v>155</v>
@@ -6617,14 +6415,13 @@
       <c r="I197"/>
       <c r="J197"/>
       <c r="K197"/>
-      <c r="L197"/>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C198">
         <v>169</v>
@@ -6645,14 +6442,13 @@
       <c r="I198"/>
       <c r="J198"/>
       <c r="K198"/>
-      <c r="L198"/>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C199">
         <v>154</v>
@@ -6673,14 +6469,13 @@
       <c r="I199"/>
       <c r="J199"/>
       <c r="K199"/>
-      <c r="L199"/>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C200">
         <v>153</v>
@@ -6701,14 +6496,13 @@
       <c r="I200"/>
       <c r="J200"/>
       <c r="K200"/>
-      <c r="L200"/>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C201">
         <v>151</v>
@@ -6729,14 +6523,13 @@
       <c r="I201"/>
       <c r="J201"/>
       <c r="K201"/>
-      <c r="L201"/>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C202">
         <v>154</v>
@@ -6757,14 +6550,13 @@
       <c r="I202"/>
       <c r="J202"/>
       <c r="K202"/>
-      <c r="L202"/>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C203">
         <v>163</v>
@@ -6785,14 +6577,13 @@
       <c r="I203"/>
       <c r="J203"/>
       <c r="K203"/>
-      <c r="L203"/>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C204">
         <v>156</v>
@@ -6813,14 +6604,13 @@
       <c r="I204"/>
       <c r="J204"/>
       <c r="K204"/>
-      <c r="L204"/>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C205">
         <v>168</v>
@@ -6841,14 +6631,13 @@
       <c r="I205"/>
       <c r="J205"/>
       <c r="K205"/>
-      <c r="L205"/>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C206">
         <v>156</v>
@@ -6869,14 +6658,13 @@
       <c r="I206"/>
       <c r="J206"/>
       <c r="K206"/>
-      <c r="L206"/>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C207">
         <v>168</v>
@@ -6897,14 +6685,13 @@
       <c r="I207"/>
       <c r="J207"/>
       <c r="K207"/>
-      <c r="L207"/>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C208">
         <v>151</v>
@@ -6925,14 +6712,13 @@
       <c r="I208"/>
       <c r="J208"/>
       <c r="K208"/>
-      <c r="L208"/>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C209">
         <v>164</v>
@@ -6953,14 +6739,13 @@
       <c r="I209"/>
       <c r="J209"/>
       <c r="K209"/>
-      <c r="L209"/>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C210">
         <v>159</v>
@@ -6981,14 +6766,13 @@
       <c r="I210"/>
       <c r="J210"/>
       <c r="K210"/>
-      <c r="L210"/>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C211">
         <v>149</v>
@@ -7009,14 +6793,13 @@
       <c r="I211"/>
       <c r="J211"/>
       <c r="K211"/>
-      <c r="L211"/>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C212">
         <v>156</v>
@@ -7037,14 +6820,13 @@
       <c r="I212"/>
       <c r="J212"/>
       <c r="K212"/>
-      <c r="L212"/>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C213">
         <v>148</v>
@@ -7065,14 +6847,13 @@
       <c r="I213"/>
       <c r="J213"/>
       <c r="K213"/>
-      <c r="L213"/>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C214">
         <v>144</v>
@@ -7093,14 +6874,13 @@
       <c r="I214"/>
       <c r="J214"/>
       <c r="K214"/>
-      <c r="L214"/>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C215">
         <v>155</v>
@@ -7121,7 +6901,6 @@
       <c r="I215"/>
       <c r="J215"/>
       <c r="K215"/>
-      <c r="L215"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/code/数据库设计/武将设计.xlsx
+++ b/code/数据库设计/武将设计.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496E6CB9-47A6-46F7-BA44-1E86B74A280E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA98164D-FF6F-45FF-BD05-3182A6E353D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
   <si>
     <t>武将ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,10 +56,6 @@
   </si>
   <si>
     <t>武将计策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武将魅力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1057,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L215"/>
+  <dimension ref="A1:K215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1069,13 +1065,13 @@
     <col min="2" max="2" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="9" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1109,16 +1105,13 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>155</v>
@@ -1141,14 +1134,13 @@
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
-      <c r="L2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>161</v>
@@ -1171,14 +1163,13 @@
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
-      <c r="L3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>155</v>
@@ -1201,14 +1192,13 @@
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
-      <c r="L4"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>135</v>
@@ -1231,14 +1221,13 @@
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
-      <c r="L5"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>139</v>
@@ -1261,14 +1250,13 @@
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
-      <c r="L6"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>156</v>
@@ -1291,14 +1279,13 @@
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
-      <c r="L7"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>153</v>
@@ -1321,14 +1308,13 @@
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
-      <c r="L8"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>132</v>
@@ -1351,14 +1337,13 @@
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
-      <c r="L9"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>132</v>
@@ -1381,14 +1366,13 @@
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
-      <c r="L10"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C11">
         <v>152</v>
@@ -1409,14 +1393,13 @@
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
-      <c r="L11"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C12">
         <v>169</v>
@@ -1437,14 +1420,13 @@
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
-      <c r="L12"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C13">
         <v>166</v>
@@ -1465,14 +1447,13 @@
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
-      <c r="L13"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C14">
         <v>155</v>
@@ -1493,14 +1474,13 @@
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
-      <c r="L14"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C15">
         <v>168</v>
@@ -1521,14 +1501,13 @@
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
-      <c r="L15"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C16">
         <v>151</v>
@@ -1549,14 +1528,13 @@
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
-      <c r="L16"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C17">
         <v>169</v>
@@ -1577,14 +1555,13 @@
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
-      <c r="L17"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C18">
         <v>168</v>
@@ -1605,14 +1582,13 @@
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
-      <c r="L18"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C19">
         <v>163</v>
@@ -1633,14 +1609,13 @@
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
-      <c r="L19"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C20">
         <v>164</v>
@@ -1661,14 +1636,13 @@
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
-      <c r="L20"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C21">
         <v>169</v>
@@ -1689,14 +1663,13 @@
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
-      <c r="L21"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C22">
         <v>154</v>
@@ -1717,14 +1690,13 @@
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
-      <c r="L22"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C23">
         <v>132</v>
@@ -1745,14 +1717,13 @@
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
-      <c r="L23"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C24">
         <v>161</v>
@@ -1773,14 +1744,13 @@
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
-      <c r="L24"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C25">
         <v>165</v>
@@ -1801,14 +1771,13 @@
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
-      <c r="L25"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C26">
         <v>157</v>
@@ -1829,14 +1798,13 @@
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
-      <c r="L26"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C27">
         <v>160</v>
@@ -1857,14 +1825,13 @@
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
-      <c r="L27"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C28">
         <v>167</v>
@@ -1885,14 +1852,13 @@
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
-      <c r="L28"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C29">
         <v>168</v>
@@ -1913,14 +1879,13 @@
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
-      <c r="L29"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C30">
         <v>151</v>
@@ -1941,14 +1906,13 @@
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
-      <c r="L30"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C31">
         <v>169</v>
@@ -1969,14 +1933,13 @@
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
-      <c r="L31"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C32">
         <v>141</v>
@@ -1997,14 +1960,13 @@
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
-      <c r="L32"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C33">
         <v>145</v>
@@ -2025,14 +1987,13 @@
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
-      <c r="L33"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C34">
         <v>146</v>
@@ -2053,14 +2014,13 @@
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
-      <c r="L34"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C35">
         <v>163</v>
@@ -2081,14 +2041,13 @@
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
-      <c r="L35"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C36">
         <v>156</v>
@@ -2109,14 +2068,13 @@
       <c r="I36"/>
       <c r="J36"/>
       <c r="K36"/>
-      <c r="L36"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C37">
         <v>147</v>
@@ -2137,14 +2095,13 @@
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
-      <c r="L37"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C38">
         <v>160</v>
@@ -2165,14 +2122,13 @@
       <c r="I38"/>
       <c r="J38"/>
       <c r="K38"/>
-      <c r="L38"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C39">
         <v>137</v>
@@ -2193,14 +2149,13 @@
       <c r="I39"/>
       <c r="J39"/>
       <c r="K39"/>
-      <c r="L39"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C40">
         <v>154</v>
@@ -2221,14 +2176,13 @@
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
-      <c r="L40"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C41">
         <v>168</v>
@@ -2249,14 +2203,13 @@
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
-      <c r="L41"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C42">
         <v>149</v>
@@ -2277,14 +2230,13 @@
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
-      <c r="L42"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C43">
         <v>169</v>
@@ -2305,14 +2257,13 @@
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
-      <c r="L43"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C44">
         <v>156</v>
@@ -2333,14 +2284,13 @@
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
-      <c r="L44"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C45">
         <v>153</v>
@@ -2361,14 +2311,13 @@
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
-      <c r="L45"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C46">
         <v>153</v>
@@ -2389,14 +2338,13 @@
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
-      <c r="L46"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C47">
         <v>153</v>
@@ -2417,14 +2365,13 @@
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
-      <c r="L47"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C48">
         <v>162</v>
@@ -2445,14 +2392,13 @@
       <c r="I48"/>
       <c r="J48"/>
       <c r="K48"/>
-      <c r="L48"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C49">
         <v>163</v>
@@ -2473,14 +2419,13 @@
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
-      <c r="L49"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C50">
         <v>168</v>
@@ -2501,14 +2446,13 @@
       <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
-      <c r="L50"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C51">
         <v>159</v>
@@ -2529,14 +2473,13 @@
       <c r="I51"/>
       <c r="J51"/>
       <c r="K51"/>
-      <c r="L51"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C52">
         <v>145</v>
@@ -2557,14 +2500,13 @@
       <c r="I52"/>
       <c r="J52"/>
       <c r="K52"/>
-      <c r="L52"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C53">
         <v>158</v>
@@ -2585,14 +2527,13 @@
       <c r="I53"/>
       <c r="J53"/>
       <c r="K53"/>
-      <c r="L53"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C54">
         <v>155</v>
@@ -2613,14 +2554,13 @@
       <c r="I54"/>
       <c r="J54"/>
       <c r="K54"/>
-      <c r="L54"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C55">
         <v>158</v>
@@ -2641,14 +2581,13 @@
       <c r="I55"/>
       <c r="J55"/>
       <c r="K55"/>
-      <c r="L55"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C56">
         <v>160</v>
@@ -2669,14 +2608,13 @@
       <c r="I56"/>
       <c r="J56"/>
       <c r="K56"/>
-      <c r="L56"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C57">
         <v>164</v>
@@ -2697,14 +2635,13 @@
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57"/>
-      <c r="L57"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C58">
         <v>158</v>
@@ -2725,14 +2662,13 @@
       <c r="I58"/>
       <c r="J58"/>
       <c r="K58"/>
-      <c r="L58"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C59">
         <v>162</v>
@@ -2753,14 +2689,13 @@
       <c r="I59"/>
       <c r="J59"/>
       <c r="K59"/>
-      <c r="L59"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C60">
         <v>160</v>
@@ -2781,14 +2716,13 @@
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60"/>
-      <c r="L60"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C61">
         <v>146</v>
@@ -2809,14 +2743,13 @@
       <c r="I61"/>
       <c r="J61"/>
       <c r="K61"/>
-      <c r="L61"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C62">
         <v>155</v>
@@ -2837,14 +2770,13 @@
       <c r="I62"/>
       <c r="J62"/>
       <c r="K62"/>
-      <c r="L62"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C63">
         <v>156</v>
@@ -2865,14 +2797,13 @@
       <c r="I63"/>
       <c r="J63"/>
       <c r="K63"/>
-      <c r="L63"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C64">
         <v>149</v>
@@ -2893,14 +2824,13 @@
       <c r="I64"/>
       <c r="J64"/>
       <c r="K64"/>
-      <c r="L64"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C65">
         <v>164</v>
@@ -2921,14 +2851,13 @@
       <c r="I65"/>
       <c r="J65"/>
       <c r="K65"/>
-      <c r="L65"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C66">
         <v>154</v>
@@ -2949,14 +2878,13 @@
       <c r="I66"/>
       <c r="J66"/>
       <c r="K66"/>
-      <c r="L66"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C67">
         <v>163</v>
@@ -2977,14 +2905,13 @@
       <c r="I67"/>
       <c r="J67"/>
       <c r="K67"/>
-      <c r="L67"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C68">
         <v>159</v>
@@ -3005,14 +2932,13 @@
       <c r="I68"/>
       <c r="J68"/>
       <c r="K68"/>
-      <c r="L68"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C69">
         <v>163</v>
@@ -3033,14 +2959,13 @@
       <c r="I69"/>
       <c r="J69"/>
       <c r="K69"/>
-      <c r="L69"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C70">
         <v>155</v>
@@ -3061,14 +2986,13 @@
       <c r="I70"/>
       <c r="J70"/>
       <c r="K70"/>
-      <c r="L70"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C71">
         <v>156</v>
@@ -3089,14 +3013,13 @@
       <c r="I71"/>
       <c r="J71"/>
       <c r="K71"/>
-      <c r="L71"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C72">
         <v>161</v>
@@ -3117,14 +3040,13 @@
       <c r="I72"/>
       <c r="J72"/>
       <c r="K72"/>
-      <c r="L72"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C73">
         <v>158</v>
@@ -3145,14 +3067,13 @@
       <c r="I73"/>
       <c r="J73"/>
       <c r="K73"/>
-      <c r="L73"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C74">
         <v>146</v>
@@ -3173,14 +3094,13 @@
       <c r="I74"/>
       <c r="J74"/>
       <c r="K74"/>
-      <c r="L74"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C75">
         <v>157</v>
@@ -3201,14 +3121,13 @@
       <c r="I75"/>
       <c r="J75"/>
       <c r="K75"/>
-      <c r="L75"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C76">
         <v>155</v>
@@ -3229,14 +3148,13 @@
       <c r="I76"/>
       <c r="J76"/>
       <c r="K76"/>
-      <c r="L76"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C77">
         <v>132</v>
@@ -3257,14 +3175,13 @@
       <c r="I77"/>
       <c r="J77"/>
       <c r="K77"/>
-      <c r="L77"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C78">
         <v>154</v>
@@ -3285,14 +3202,13 @@
       <c r="I78"/>
       <c r="J78"/>
       <c r="K78"/>
-      <c r="L78"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C79">
         <v>167</v>
@@ -3313,14 +3229,13 @@
       <c r="I79"/>
       <c r="J79"/>
       <c r="K79"/>
-      <c r="L79"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C80">
         <v>148</v>
@@ -3341,14 +3256,13 @@
       <c r="I80"/>
       <c r="J80"/>
       <c r="K80"/>
-      <c r="L80"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C81">
         <v>148</v>
@@ -3369,14 +3283,13 @@
       <c r="I81"/>
       <c r="J81"/>
       <c r="K81"/>
-      <c r="L81"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C82">
         <v>155</v>
@@ -3397,14 +3310,13 @@
       <c r="I82"/>
       <c r="J82"/>
       <c r="K82"/>
-      <c r="L82"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C83">
         <v>147</v>
@@ -3425,14 +3337,13 @@
       <c r="I83"/>
       <c r="J83"/>
       <c r="K83"/>
-      <c r="L83"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C84">
         <v>167</v>
@@ -3453,14 +3364,13 @@
       <c r="I84"/>
       <c r="J84"/>
       <c r="K84"/>
-      <c r="L84"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C85">
         <v>168</v>
@@ -3481,14 +3391,13 @@
       <c r="I85"/>
       <c r="J85"/>
       <c r="K85"/>
-      <c r="L85"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C86">
         <v>159</v>
@@ -3509,14 +3418,13 @@
       <c r="I86"/>
       <c r="J86"/>
       <c r="K86"/>
-      <c r="L86"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C87">
         <v>155</v>
@@ -3537,14 +3445,13 @@
       <c r="I87"/>
       <c r="J87"/>
       <c r="K87"/>
-      <c r="L87"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C88">
         <v>156</v>
@@ -3565,14 +3472,13 @@
       <c r="I88"/>
       <c r="J88"/>
       <c r="K88"/>
-      <c r="L88"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C89">
         <v>153</v>
@@ -3593,14 +3499,13 @@
       <c r="I89"/>
       <c r="J89"/>
       <c r="K89"/>
-      <c r="L89"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C90">
         <v>151</v>
@@ -3621,14 +3526,13 @@
       <c r="I90"/>
       <c r="J90"/>
       <c r="K90"/>
-      <c r="L90"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C91">
         <v>155</v>
@@ -3649,14 +3553,13 @@
       <c r="I91"/>
       <c r="J91"/>
       <c r="K91"/>
-      <c r="L91"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C92">
         <v>157</v>
@@ -3677,14 +3580,13 @@
       <c r="I92"/>
       <c r="J92"/>
       <c r="K92"/>
-      <c r="L92"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C93">
         <v>159</v>
@@ -3705,14 +3607,13 @@
       <c r="I93"/>
       <c r="J93"/>
       <c r="K93"/>
-      <c r="L93"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C94">
         <v>163</v>
@@ -3733,14 +3634,13 @@
       <c r="I94"/>
       <c r="J94"/>
       <c r="K94"/>
-      <c r="L94"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C95">
         <v>160</v>
@@ -3761,14 +3661,13 @@
       <c r="I95"/>
       <c r="J95"/>
       <c r="K95"/>
-      <c r="L95"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C96">
         <v>148</v>
@@ -3789,14 +3688,13 @@
       <c r="I96"/>
       <c r="J96"/>
       <c r="K96"/>
-      <c r="L96"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C97">
         <v>150</v>
@@ -3817,14 +3715,13 @@
       <c r="I97"/>
       <c r="J97"/>
       <c r="K97"/>
-      <c r="L97"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C98">
         <v>156</v>
@@ -3845,14 +3742,13 @@
       <c r="I98"/>
       <c r="J98"/>
       <c r="K98"/>
-      <c r="L98"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C99">
         <v>168</v>
@@ -3873,14 +3769,13 @@
       <c r="I99"/>
       <c r="J99"/>
       <c r="K99"/>
-      <c r="L99"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C100">
         <v>169</v>
@@ -3901,14 +3796,13 @@
       <c r="I100"/>
       <c r="J100"/>
       <c r="K100"/>
-      <c r="L100"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C101">
         <v>165</v>
@@ -3929,14 +3823,13 @@
       <c r="I101"/>
       <c r="J101"/>
       <c r="K101"/>
-      <c r="L101"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C102">
         <v>142</v>
@@ -3957,14 +3850,13 @@
       <c r="I102"/>
       <c r="J102"/>
       <c r="K102"/>
-      <c r="L102"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C103">
         <v>147</v>
@@ -3985,14 +3877,13 @@
       <c r="I103"/>
       <c r="J103"/>
       <c r="K103"/>
-      <c r="L103"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C104">
         <v>163</v>
@@ -4013,14 +3904,13 @@
       <c r="I104"/>
       <c r="J104"/>
       <c r="K104"/>
-      <c r="L104"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C105">
         <v>168</v>
@@ -4041,14 +3931,13 @@
       <c r="I105"/>
       <c r="J105"/>
       <c r="K105"/>
-      <c r="L105"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C106">
         <v>165</v>
@@ -4069,14 +3958,13 @@
       <c r="I106"/>
       <c r="J106"/>
       <c r="K106"/>
-      <c r="L106"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C107">
         <v>169</v>
@@ -4097,14 +3985,13 @@
       <c r="I107"/>
       <c r="J107"/>
       <c r="K107"/>
-      <c r="L107"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C108">
         <v>156</v>
@@ -4125,14 +4012,13 @@
       <c r="I108"/>
       <c r="J108"/>
       <c r="K108"/>
-      <c r="L108"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C109">
         <v>145</v>
@@ -4153,14 +4039,13 @@
       <c r="I109"/>
       <c r="J109"/>
       <c r="K109"/>
-      <c r="L109"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C110">
         <v>162</v>
@@ -4181,14 +4066,13 @@
       <c r="I110"/>
       <c r="J110"/>
       <c r="K110"/>
-      <c r="L110"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C111">
         <v>139</v>
@@ -4209,14 +4093,13 @@
       <c r="I111"/>
       <c r="J111"/>
       <c r="K111"/>
-      <c r="L111"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C112">
         <v>156</v>
@@ -4237,14 +4120,13 @@
       <c r="I112"/>
       <c r="J112"/>
       <c r="K112"/>
-      <c r="L112"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C113">
         <v>161</v>
@@ -4265,14 +4147,13 @@
       <c r="I113"/>
       <c r="J113"/>
       <c r="K113"/>
-      <c r="L113"/>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C114">
         <v>169</v>
@@ -4293,14 +4174,13 @@
       <c r="I114"/>
       <c r="J114"/>
       <c r="K114"/>
-      <c r="L114"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C115">
         <v>162</v>
@@ -4321,14 +4201,13 @@
       <c r="I115"/>
       <c r="J115"/>
       <c r="K115"/>
-      <c r="L115"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C116">
         <v>169</v>
@@ -4349,14 +4228,13 @@
       <c r="I116"/>
       <c r="J116"/>
       <c r="K116"/>
-      <c r="L116"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C117">
         <v>164</v>
@@ -4377,14 +4255,13 @@
       <c r="I117"/>
       <c r="J117"/>
       <c r="K117"/>
-      <c r="L117"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C118">
         <v>161</v>
@@ -4405,14 +4282,13 @@
       <c r="I118"/>
       <c r="J118"/>
       <c r="K118"/>
-      <c r="L118"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C119">
         <v>169</v>
@@ -4433,14 +4309,13 @@
       <c r="I119"/>
       <c r="J119"/>
       <c r="K119"/>
-      <c r="L119"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C120">
         <v>165</v>
@@ -4461,14 +4336,13 @@
       <c r="I120"/>
       <c r="J120"/>
       <c r="K120"/>
-      <c r="L120"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C121">
         <v>162</v>
@@ -4489,14 +4363,13 @@
       <c r="I121"/>
       <c r="J121"/>
       <c r="K121"/>
-      <c r="L121"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C122">
         <v>159</v>
@@ -4517,14 +4390,13 @@
       <c r="I122"/>
       <c r="J122"/>
       <c r="K122"/>
-      <c r="L122"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C123">
         <v>163</v>
@@ -4545,14 +4417,13 @@
       <c r="I123"/>
       <c r="J123"/>
       <c r="K123"/>
-      <c r="L123"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C124">
         <v>153</v>
@@ -4573,14 +4444,13 @@
       <c r="I124"/>
       <c r="J124"/>
       <c r="K124"/>
-      <c r="L124"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C125">
         <v>169</v>
@@ -4601,14 +4471,13 @@
       <c r="I125"/>
       <c r="J125"/>
       <c r="K125"/>
-      <c r="L125"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C126">
         <v>150</v>
@@ -4629,14 +4498,13 @@
       <c r="I126"/>
       <c r="J126"/>
       <c r="K126"/>
-      <c r="L126"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C127">
         <v>146</v>
@@ -4657,14 +4525,13 @@
       <c r="I127"/>
       <c r="J127"/>
       <c r="K127"/>
-      <c r="L127"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C128">
         <v>167</v>
@@ -4685,14 +4552,13 @@
       <c r="I128"/>
       <c r="J128"/>
       <c r="K128"/>
-      <c r="L128"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C129">
         <v>156</v>
@@ -4713,14 +4579,13 @@
       <c r="I129"/>
       <c r="J129"/>
       <c r="K129"/>
-      <c r="L129"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C130">
         <v>157</v>
@@ -4741,14 +4606,13 @@
       <c r="I130"/>
       <c r="J130"/>
       <c r="K130"/>
-      <c r="L130"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C131">
         <v>164</v>
@@ -4769,14 +4633,13 @@
       <c r="I131"/>
       <c r="J131"/>
       <c r="K131"/>
-      <c r="L131"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C132">
         <v>156</v>
@@ -4797,14 +4660,13 @@
       <c r="I132"/>
       <c r="J132"/>
       <c r="K132"/>
-      <c r="L132"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C133">
         <v>165</v>
@@ -4825,14 +4687,13 @@
       <c r="I133"/>
       <c r="J133"/>
       <c r="K133"/>
-      <c r="L133"/>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C134">
         <v>157</v>
@@ -4853,14 +4714,13 @@
       <c r="I134"/>
       <c r="J134"/>
       <c r="K134"/>
-      <c r="L134"/>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C135">
         <v>166</v>
@@ -4881,14 +4741,13 @@
       <c r="I135"/>
       <c r="J135"/>
       <c r="K135"/>
-      <c r="L135"/>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C136">
         <v>169</v>
@@ -4909,14 +4768,13 @@
       <c r="I136"/>
       <c r="J136"/>
       <c r="K136"/>
-      <c r="L136"/>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C137">
         <v>162</v>
@@ -4937,14 +4795,13 @@
       <c r="I137"/>
       <c r="J137"/>
       <c r="K137"/>
-      <c r="L137"/>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C138">
         <v>154</v>
@@ -4965,14 +4822,13 @@
       <c r="I138"/>
       <c r="J138"/>
       <c r="K138"/>
-      <c r="L138"/>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C139">
         <v>150</v>
@@ -4993,14 +4849,13 @@
       <c r="I139"/>
       <c r="J139"/>
       <c r="K139"/>
-      <c r="L139"/>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C140">
         <v>162</v>
@@ -5021,14 +4876,13 @@
       <c r="I140"/>
       <c r="J140"/>
       <c r="K140"/>
-      <c r="L140"/>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C141">
         <v>162</v>
@@ -5049,14 +4903,13 @@
       <c r="I141"/>
       <c r="J141"/>
       <c r="K141"/>
-      <c r="L141"/>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C142">
         <v>163</v>
@@ -5077,14 +4930,13 @@
       <c r="I142"/>
       <c r="J142"/>
       <c r="K142"/>
-      <c r="L142"/>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C143">
         <v>168</v>
@@ -5105,14 +4957,13 @@
       <c r="I143"/>
       <c r="J143"/>
       <c r="K143"/>
-      <c r="L143"/>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C144">
         <v>137</v>
@@ -5133,14 +4984,13 @@
       <c r="I144"/>
       <c r="J144"/>
       <c r="K144"/>
-      <c r="L144"/>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C145">
         <v>152</v>
@@ -5161,14 +5011,13 @@
       <c r="I145"/>
       <c r="J145"/>
       <c r="K145"/>
-      <c r="L145"/>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C146">
         <v>156</v>
@@ -5189,14 +5038,13 @@
       <c r="I146"/>
       <c r="J146"/>
       <c r="K146"/>
-      <c r="L146"/>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C147">
         <v>151</v>
@@ -5217,14 +5065,13 @@
       <c r="I147"/>
       <c r="J147"/>
       <c r="K147"/>
-      <c r="L147"/>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C148">
         <v>161</v>
@@ -5245,14 +5092,13 @@
       <c r="I148"/>
       <c r="J148"/>
       <c r="K148"/>
-      <c r="L148"/>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C149">
         <v>151</v>
@@ -5273,14 +5119,13 @@
       <c r="I149"/>
       <c r="J149"/>
       <c r="K149"/>
-      <c r="L149"/>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C150">
         <v>166</v>
@@ -5301,14 +5146,13 @@
       <c r="I150"/>
       <c r="J150"/>
       <c r="K150"/>
-      <c r="L150"/>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C151">
         <v>163</v>
@@ -5329,14 +5173,13 @@
       <c r="I151"/>
       <c r="J151"/>
       <c r="K151"/>
-      <c r="L151"/>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C152">
         <v>157</v>
@@ -5357,14 +5200,13 @@
       <c r="I152"/>
       <c r="J152"/>
       <c r="K152"/>
-      <c r="L152"/>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C153">
         <v>157</v>
@@ -5385,14 +5227,13 @@
       <c r="I153"/>
       <c r="J153"/>
       <c r="K153"/>
-      <c r="L153"/>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C154">
         <v>163</v>
@@ -5413,14 +5254,13 @@
       <c r="I154"/>
       <c r="J154"/>
       <c r="K154"/>
-      <c r="L154"/>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C155">
         <v>167</v>
@@ -5441,14 +5281,13 @@
       <c r="I155"/>
       <c r="J155"/>
       <c r="K155"/>
-      <c r="L155"/>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C156">
         <v>165</v>
@@ -5469,14 +5308,13 @@
       <c r="I156"/>
       <c r="J156"/>
       <c r="K156"/>
-      <c r="L156"/>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C157">
         <v>151</v>
@@ -5497,14 +5335,13 @@
       <c r="I157"/>
       <c r="J157"/>
       <c r="K157"/>
-      <c r="L157"/>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C158">
         <v>169</v>
@@ -5525,14 +5362,13 @@
       <c r="I158"/>
       <c r="J158"/>
       <c r="K158"/>
-      <c r="L158"/>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C159">
         <v>147</v>
@@ -5553,14 +5389,13 @@
       <c r="I159"/>
       <c r="J159"/>
       <c r="K159"/>
-      <c r="L159"/>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C160">
         <v>155</v>
@@ -5581,14 +5416,13 @@
       <c r="I160"/>
       <c r="J160"/>
       <c r="K160"/>
-      <c r="L160"/>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C161">
         <v>152</v>
@@ -5609,14 +5443,13 @@
       <c r="I161"/>
       <c r="J161"/>
       <c r="K161"/>
-      <c r="L161"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C162">
         <v>155</v>
@@ -5637,14 +5470,13 @@
       <c r="I162"/>
       <c r="J162"/>
       <c r="K162"/>
-      <c r="L162"/>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C163">
         <v>163</v>
@@ -5665,14 +5497,13 @@
       <c r="I163"/>
       <c r="J163"/>
       <c r="K163"/>
-      <c r="L163"/>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C164">
         <v>157</v>
@@ -5693,14 +5524,13 @@
       <c r="I164"/>
       <c r="J164"/>
       <c r="K164"/>
-      <c r="L164"/>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C165">
         <v>142</v>
@@ -5721,14 +5551,13 @@
       <c r="I165"/>
       <c r="J165"/>
       <c r="K165"/>
-      <c r="L165"/>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C166">
         <v>163</v>
@@ -5749,14 +5578,13 @@
       <c r="I166"/>
       <c r="J166"/>
       <c r="K166"/>
-      <c r="L166"/>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C167">
         <v>145</v>
@@ -5777,14 +5605,13 @@
       <c r="I167"/>
       <c r="J167"/>
       <c r="K167"/>
-      <c r="L167"/>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C168">
         <v>153</v>
@@ -5805,14 +5632,13 @@
       <c r="I168"/>
       <c r="J168"/>
       <c r="K168"/>
-      <c r="L168"/>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C169">
         <v>151</v>
@@ -5833,14 +5659,13 @@
       <c r="I169"/>
       <c r="J169"/>
       <c r="K169"/>
-      <c r="L169"/>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C170">
         <v>163</v>
@@ -5861,14 +5686,13 @@
       <c r="I170"/>
       <c r="J170"/>
       <c r="K170"/>
-      <c r="L170"/>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C171">
         <v>168</v>
@@ -5889,14 +5713,13 @@
       <c r="I171"/>
       <c r="J171"/>
       <c r="K171"/>
-      <c r="L171"/>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C172">
         <v>158</v>
@@ -5917,14 +5740,13 @@
       <c r="I172"/>
       <c r="J172"/>
       <c r="K172"/>
-      <c r="L172"/>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C173">
         <v>160</v>
@@ -5945,14 +5767,13 @@
       <c r="I173"/>
       <c r="J173"/>
       <c r="K173"/>
-      <c r="L173"/>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C174">
         <v>159</v>
@@ -5973,14 +5794,13 @@
       <c r="I174"/>
       <c r="J174"/>
       <c r="K174"/>
-      <c r="L174"/>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C175">
         <v>153</v>
@@ -6001,14 +5821,13 @@
       <c r="I175"/>
       <c r="J175"/>
       <c r="K175"/>
-      <c r="L175"/>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C176">
         <v>152</v>
@@ -6029,14 +5848,13 @@
       <c r="I176"/>
       <c r="J176"/>
       <c r="K176"/>
-      <c r="L176"/>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C177">
         <v>167</v>
@@ -6057,14 +5875,13 @@
       <c r="I177"/>
       <c r="J177"/>
       <c r="K177"/>
-      <c r="L177"/>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C178">
         <v>162</v>
@@ -6085,14 +5902,13 @@
       <c r="I178"/>
       <c r="J178"/>
       <c r="K178"/>
-      <c r="L178"/>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C179">
         <v>159</v>
@@ -6113,14 +5929,13 @@
       <c r="I179"/>
       <c r="J179"/>
       <c r="K179"/>
-      <c r="L179"/>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C180">
         <v>158</v>
@@ -6141,14 +5956,13 @@
       <c r="I180"/>
       <c r="J180"/>
       <c r="K180"/>
-      <c r="L180"/>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C181">
         <v>164</v>
@@ -6169,14 +5983,13 @@
       <c r="I181"/>
       <c r="J181"/>
       <c r="K181"/>
-      <c r="L181"/>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C182">
         <v>154</v>
@@ -6197,14 +6010,13 @@
       <c r="I182"/>
       <c r="J182"/>
       <c r="K182"/>
-      <c r="L182"/>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C183">
         <v>155</v>
@@ -6225,14 +6037,13 @@
       <c r="I183"/>
       <c r="J183"/>
       <c r="K183"/>
-      <c r="L183"/>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C184">
         <v>150</v>
@@ -6253,14 +6064,13 @@
       <c r="I184"/>
       <c r="J184"/>
       <c r="K184"/>
-      <c r="L184"/>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C185">
         <v>163</v>
@@ -6281,14 +6091,13 @@
       <c r="I185"/>
       <c r="J185"/>
       <c r="K185"/>
-      <c r="L185"/>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C186">
         <v>165</v>
@@ -6309,14 +6118,13 @@
       <c r="I186"/>
       <c r="J186"/>
       <c r="K186"/>
-      <c r="L186"/>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C187">
         <v>161</v>
@@ -6337,14 +6145,13 @@
       <c r="I187"/>
       <c r="J187"/>
       <c r="K187"/>
-      <c r="L187"/>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C188">
         <v>148</v>
@@ -6365,14 +6172,13 @@
       <c r="I188"/>
       <c r="J188"/>
       <c r="K188"/>
-      <c r="L188"/>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C189">
         <v>156</v>
@@ -6393,14 +6199,13 @@
       <c r="I189"/>
       <c r="J189"/>
       <c r="K189"/>
-      <c r="L189"/>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C190">
         <v>167</v>
@@ -6421,14 +6226,13 @@
       <c r="I190"/>
       <c r="J190"/>
       <c r="K190"/>
-      <c r="L190"/>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C191">
         <v>153</v>
@@ -6449,14 +6253,13 @@
       <c r="I191"/>
       <c r="J191"/>
       <c r="K191"/>
-      <c r="L191"/>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C192">
         <v>144</v>
@@ -6477,14 +6280,13 @@
       <c r="I192"/>
       <c r="J192"/>
       <c r="K192"/>
-      <c r="L192"/>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C193">
         <v>140</v>
@@ -6505,14 +6307,13 @@
       <c r="I193"/>
       <c r="J193"/>
       <c r="K193"/>
-      <c r="L193"/>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C194">
         <v>153</v>
@@ -6533,14 +6334,13 @@
       <c r="I194"/>
       <c r="J194"/>
       <c r="K194"/>
-      <c r="L194"/>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C195">
         <v>169</v>
@@ -6561,14 +6361,13 @@
       <c r="I195"/>
       <c r="J195"/>
       <c r="K195"/>
-      <c r="L195"/>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C196">
         <v>163</v>
@@ -6589,14 +6388,13 @@
       <c r="I196"/>
       <c r="J196"/>
       <c r="K196"/>
-      <c r="L196"/>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C197">
         <v>155</v>
@@ -6617,14 +6415,13 @@
       <c r="I197"/>
       <c r="J197"/>
       <c r="K197"/>
-      <c r="L197"/>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C198">
         <v>169</v>
@@ -6645,14 +6442,13 @@
       <c r="I198"/>
       <c r="J198"/>
       <c r="K198"/>
-      <c r="L198"/>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C199">
         <v>154</v>
@@ -6673,14 +6469,13 @@
       <c r="I199"/>
       <c r="J199"/>
       <c r="K199"/>
-      <c r="L199"/>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C200">
         <v>153</v>
@@ -6701,14 +6496,13 @@
       <c r="I200"/>
       <c r="J200"/>
       <c r="K200"/>
-      <c r="L200"/>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C201">
         <v>151</v>
@@ -6729,14 +6523,13 @@
       <c r="I201"/>
       <c r="J201"/>
       <c r="K201"/>
-      <c r="L201"/>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C202">
         <v>154</v>
@@ -6757,14 +6550,13 @@
       <c r="I202"/>
       <c r="J202"/>
       <c r="K202"/>
-      <c r="L202"/>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C203">
         <v>163</v>
@@ -6785,14 +6577,13 @@
       <c r="I203"/>
       <c r="J203"/>
       <c r="K203"/>
-      <c r="L203"/>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C204">
         <v>156</v>
@@ -6813,14 +6604,13 @@
       <c r="I204"/>
       <c r="J204"/>
       <c r="K204"/>
-      <c r="L204"/>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C205">
         <v>168</v>
@@ -6841,14 +6631,13 @@
       <c r="I205"/>
       <c r="J205"/>
       <c r="K205"/>
-      <c r="L205"/>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C206">
         <v>156</v>
@@ -6869,14 +6658,13 @@
       <c r="I206"/>
       <c r="J206"/>
       <c r="K206"/>
-      <c r="L206"/>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C207">
         <v>168</v>
@@ -6897,14 +6685,13 @@
       <c r="I207"/>
       <c r="J207"/>
       <c r="K207"/>
-      <c r="L207"/>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C208">
         <v>151</v>
@@ -6925,14 +6712,13 @@
       <c r="I208"/>
       <c r="J208"/>
       <c r="K208"/>
-      <c r="L208"/>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C209">
         <v>164</v>
@@ -6953,14 +6739,13 @@
       <c r="I209"/>
       <c r="J209"/>
       <c r="K209"/>
-      <c r="L209"/>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C210">
         <v>159</v>
@@ -6981,14 +6766,13 @@
       <c r="I210"/>
       <c r="J210"/>
       <c r="K210"/>
-      <c r="L210"/>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C211">
         <v>149</v>
@@ -7009,14 +6793,13 @@
       <c r="I211"/>
       <c r="J211"/>
       <c r="K211"/>
-      <c r="L211"/>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C212">
         <v>156</v>
@@ -7037,14 +6820,13 @@
       <c r="I212"/>
       <c r="J212"/>
       <c r="K212"/>
-      <c r="L212"/>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C213">
         <v>148</v>
@@ -7065,14 +6847,13 @@
       <c r="I213"/>
       <c r="J213"/>
       <c r="K213"/>
-      <c r="L213"/>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C214">
         <v>144</v>
@@ -7093,14 +6874,13 @@
       <c r="I214"/>
       <c r="J214"/>
       <c r="K214"/>
-      <c r="L214"/>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C215">
         <v>155</v>
@@ -7121,7 +6901,6 @@
       <c r="I215"/>
       <c r="J215"/>
       <c r="K215"/>
-      <c r="L215"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
